--- a/020-内部_プログラミング設計/022-クラス仕様書/テンプレート/Service/Serviceのクラス仕様書(SearchResultServiceImpl).xlsx
+++ b/020-内部_プログラミング設計/022-クラス仕様書/テンプレート/Service/Serviceのクラス仕様書(SearchResultServiceImpl).xlsx
@@ -3,20 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B1EEA9-7FAA-49A4-B983-BB4793CC43E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE4D4E5B-F49D-48B5-85CF-29F4ED82AAF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス仕様" sheetId="1" r:id="rId1"/>
-    <sheet name="メソッド仕様（SearchResultServiceImpl）" sheetId="3" r:id="rId2"/>
+    <sheet name="メソッド仕様（SearchResultService）" sheetId="3" r:id="rId2"/>
     <sheet name="メソッド仕様（productsSearch）" sheetId="2" r:id="rId3"/>
     <sheet name="条件分岐" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">クラス仕様!$A$1:$BI$19</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'メソッド仕様（productsSearch）'!$A$1:$BI$47</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'メソッド仕様（SearchResultServiceImpl）'!$A$1:$BI$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'メソッド仕様（productsSearch）'!$A$1:$BI$50</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'メソッド仕様（SearchResultService）'!$A$1:$BI$33</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="115">
   <si>
     <t>クラス仕様書</t>
   </si>
@@ -156,10 +156,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>SearchResultServiceImpl</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ISearchResultService</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -219,19 +215,6 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>タカユキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>どの商品検索を行うのかを判定するメソッド</t>
-    <rPh sb="2" eb="6">
-      <t>ショウヒンケンサク</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ハンテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -308,10 +291,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>SearchResultServiceImpl</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>鈴木　崇志</t>
     <rPh sb="0" eb="2">
       <t>スズキ</t>
@@ -327,10 +306,6 @@
   </si>
   <si>
     <t>IItemsDAO</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ItemsDAOインスタンス</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -356,10 +331,6 @@
     <rPh sb="0" eb="2">
       <t>ヒキスウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>con</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -397,17 +368,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※1 productsList</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※1 と同様</t>
-    <rPh sb="4" eb="6">
-      <t>ドウヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>第2引数：keyword</t>
     <rPh sb="0" eb="1">
       <t>ダイ</t>
@@ -441,119 +401,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2. try-with-resource文による例外処理</t>
-    <rPh sb="20" eb="21">
-      <t>ブン</t>
-    </rPh>
-    <rPh sb="24" eb="28">
-      <t>レイガイショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>URL. USER. PASSWORD</t>
-  </si>
-  <si>
-    <t>con. category</t>
-  </si>
-  <si>
-    <t>con. keyword</t>
-  </si>
-  <si>
-    <t>con. category. keyword</t>
-  </si>
-  <si>
-    <t>3-1. 引数の keyword, category による条件分岐</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>3-1-1. keyword が空かつ category が「すべて」の時</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3-1-1-1. findAllメソッドの呼出</t>
-    <rPh sb="21" eb="23">
-      <t>ヨビダシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3-2-1. keyword が空かつ category が「すべて」以外の時</t>
-    <rPh sb="16" eb="17">
-      <t>カラ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>トキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3-2-1-1. findByCategoryメソッドの呼出</t>
-    <rPh sb="28" eb="30">
-      <t>ヨビダシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3-3-1. keyword が空でないかつ category が「すべて」の時</t>
-    <rPh sb="16" eb="17">
-      <t>カラ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>トキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3-3-1-1. findByKeywordメソッドの呼出</t>
-    <rPh sb="27" eb="29">
-      <t>ヨビダシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3-4-1. 3-1-1, 3-2-1, 3-3-1 以外の時</t>
-    <rPh sb="27" eb="29">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>トキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3-4-1-1. findByBothメソッドの呼出</t>
-    <rPh sb="24" eb="26">
-      <t>ヨビダシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4. catch句</t>
-    <rPh sb="8" eb="9">
-      <t>ク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4-1. 呼び出し元へ例外をスロー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5. 結果の返却</t>
-    <rPh sb="3" eb="5">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヘンキャク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>productsList</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -580,13 +428,6 @@
   </si>
   <si>
     <t>すべて</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>すべて以外</t>
-    <rPh sb="3" eb="5">
-      <t>イガイ</t>
-    </rPh>
     <phoneticPr fontId="5"/>
   </si>
   <si>
@@ -644,20 +485,18 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>3. try句（「条件分岐」シート参照）</t>
-    <rPh sb="6" eb="7">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="9" eb="13">
-      <t>ジョウケンブンキ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>サンショウ</t>
+    <t>商品検索</t>
+    <rPh sb="0" eb="4">
+      <t>ショウヒンケンサク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>商品IDから該当する商品を検索し、商品の詳細情報を返すServiceクラスである</t>
+    <t>SearchResultService</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品IDから該当する商品を検索し、商品の詳細情報を返すServiceクラス</t>
     <rPh sb="0" eb="2">
       <t>ショウヒン</t>
     </rPh>
@@ -679,6 +518,228 @@
     <rPh sb="25" eb="26">
       <t>カエ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ItemsDAOクラスのインスタンス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SearchResultService</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>キーワードとカテゴリを受け取り、商品検索方法を選定し、検索結果を返すメソッド</t>
+    <rPh sb="11" eb="12">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>ショウヒンケンサク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>センテイ</t>
+    </rPh>
+    <rPh sb="27" eb="31">
+      <t>ケンサクケッカ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>URL, USER, PASSWORD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2. 例外処理</t>
+    <rPh sb="3" eb="7">
+      <t>レイガイショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>try-with-resource文</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3. 例外が発生しない時（「条件分岐」シート参照）</t>
+    <rPh sb="3" eb="5">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>ジョウケンブンキ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>try句</t>
+    <rPh sb="3" eb="4">
+      <t>ク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*1 productsList</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*1 と同様</t>
+    <rPh sb="4" eb="6">
+      <t>ドウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>con, category</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>con, keyword</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>con, Category, keyword</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※1 例外が発生した時</t>
+    <rPh sb="3" eb="5">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※1-1 呼び出し元へ例外をスロー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>帽子</t>
+    <rPh sb="0" eb="2">
+      <t>ボウシ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>鞄</t>
+    <rPh sb="0" eb="1">
+      <t>カバン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>findByCategory</t>
+  </si>
+  <si>
+    <t>findByBoth</t>
+  </si>
+  <si>
+    <t>productsList</t>
+  </si>
+  <si>
+    <t>3-1-2. keyword が空かつ category が「すべて」以外の時</t>
+    <rPh sb="16" eb="17">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-1-3. keyword が空でないかつ category が「すべて」の時</t>
+    <rPh sb="16" eb="17">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-1-4. 3-1-1, 3-1-2, 3-1-3 以外の時</t>
+    <rPh sb="27" eb="29">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-1. 引数による呼び出すメソッドの条件分岐</t>
+    <rPh sb="10" eb="11">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メソッド：findAll</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メソッド：findByCategory</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メソッド：findByKeyword</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メソッド：findByBoth</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4. 結果の返却</t>
+    <rPh sb="3" eb="5">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘンキャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>idao</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IItemsDAO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>final</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -759,7 +820,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -957,54 +1018,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1068,19 +1081,6 @@
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -1160,13 +1160,105 @@
         <color indexed="64"/>
       </diagonal>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1368,6 +1460,57 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1392,20 +1535,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1443,61 +1586,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1845,8 +1949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IX19"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:BI4"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AE9" sqref="AE9:AN9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1855,83 +1959,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="67" t="s">
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="68" t="s">
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
-      <c r="W1" s="68"/>
-      <c r="X1" s="68"/>
-      <c r="Y1" s="68"/>
-      <c r="Z1" s="68"/>
-      <c r="AA1" s="68"/>
-      <c r="AB1" s="67" t="s">
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
+      <c r="W1" s="85"/>
+      <c r="X1" s="85"/>
+      <c r="Y1" s="85"/>
+      <c r="Z1" s="85"/>
+      <c r="AA1" s="85"/>
+      <c r="AB1" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="AC1" s="67"/>
-      <c r="AD1" s="67"/>
-      <c r="AE1" s="68"/>
-      <c r="AF1" s="68"/>
-      <c r="AG1" s="68"/>
-      <c r="AH1" s="68"/>
-      <c r="AI1" s="68"/>
-      <c r="AJ1" s="68"/>
-      <c r="AK1" s="68"/>
-      <c r="AL1" s="68"/>
-      <c r="AM1" s="68"/>
-      <c r="AN1" s="68"/>
-      <c r="AO1" s="68"/>
-      <c r="AP1" s="68"/>
-      <c r="AQ1" s="67" t="s">
+      <c r="AC1" s="84"/>
+      <c r="AD1" s="84"/>
+      <c r="AE1" s="85" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF1" s="85"/>
+      <c r="AG1" s="85"/>
+      <c r="AH1" s="85"/>
+      <c r="AI1" s="85"/>
+      <c r="AJ1" s="85"/>
+      <c r="AK1" s="85"/>
+      <c r="AL1" s="85"/>
+      <c r="AM1" s="85"/>
+      <c r="AN1" s="85"/>
+      <c r="AO1" s="85"/>
+      <c r="AP1" s="85"/>
+      <c r="AQ1" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="AR1" s="67"/>
-      <c r="AS1" s="67"/>
-      <c r="AT1" s="68" t="s">
+      <c r="AR1" s="84"/>
+      <c r="AS1" s="84"/>
+      <c r="AT1" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="AU1" s="68"/>
-      <c r="AV1" s="68"/>
-      <c r="AW1" s="68"/>
-      <c r="AX1" s="68"/>
-      <c r="AY1" s="68"/>
-      <c r="AZ1" s="68"/>
-      <c r="BA1" s="67" t="s">
+      <c r="AU1" s="85"/>
+      <c r="AV1" s="85"/>
+      <c r="AW1" s="85"/>
+      <c r="AX1" s="85"/>
+      <c r="AY1" s="85"/>
+      <c r="AZ1" s="85"/>
+      <c r="BA1" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="BB1" s="67"/>
-      <c r="BC1" s="67"/>
-      <c r="BD1" s="69">
+      <c r="BB1" s="84"/>
+      <c r="BC1" s="84"/>
+      <c r="BD1" s="86">
         <v>45537</v>
       </c>
-      <c r="BE1" s="69"/>
-      <c r="BF1" s="69"/>
-      <c r="BG1" s="69"/>
-      <c r="BH1" s="69"/>
-      <c r="BI1" s="69"/>
+      <c r="BE1" s="86"/>
+      <c r="BF1" s="86"/>
+      <c r="BG1" s="86"/>
+      <c r="BH1" s="86"/>
+      <c r="BI1" s="86"/>
       <c r="BJ1" s="1"/>
       <c r="BK1" s="1"/>
       <c r="BL1" s="1"/>
@@ -2131,82 +2237,82 @@
       <c r="IX1" s="1"/>
     </row>
     <row r="2" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="72"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="67" t="s">
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="73"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="73"/>
-      <c r="V2" s="73"/>
-      <c r="W2" s="73"/>
-      <c r="X2" s="73"/>
-      <c r="Y2" s="73"/>
-      <c r="Z2" s="73"/>
-      <c r="AA2" s="73"/>
-      <c r="AB2" s="67" t="s">
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="90"/>
+      <c r="S2" s="90"/>
+      <c r="T2" s="90"/>
+      <c r="U2" s="90"/>
+      <c r="V2" s="90"/>
+      <c r="W2" s="90"/>
+      <c r="X2" s="90"/>
+      <c r="Y2" s="90"/>
+      <c r="Z2" s="90"/>
+      <c r="AA2" s="90"/>
+      <c r="AB2" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="AC2" s="67"/>
-      <c r="AD2" s="67"/>
-      <c r="AE2" s="68" t="str">
+      <c r="AC2" s="84"/>
+      <c r="AD2" s="84"/>
+      <c r="AE2" s="85" t="str">
         <f>G5</f>
-        <v>SearchResultServiceImpl</v>
+        <v>SearchResultService</v>
       </c>
-      <c r="AF2" s="68"/>
-      <c r="AG2" s="68"/>
-      <c r="AH2" s="68"/>
-      <c r="AI2" s="68"/>
-      <c r="AJ2" s="68"/>
-      <c r="AK2" s="68"/>
-      <c r="AL2" s="68"/>
-      <c r="AM2" s="68"/>
-      <c r="AN2" s="68"/>
-      <c r="AO2" s="68"/>
-      <c r="AP2" s="68"/>
-      <c r="AQ2" s="67" t="s">
+      <c r="AF2" s="85"/>
+      <c r="AG2" s="85"/>
+      <c r="AH2" s="85"/>
+      <c r="AI2" s="85"/>
+      <c r="AJ2" s="85"/>
+      <c r="AK2" s="85"/>
+      <c r="AL2" s="85"/>
+      <c r="AM2" s="85"/>
+      <c r="AN2" s="85"/>
+      <c r="AO2" s="85"/>
+      <c r="AP2" s="85"/>
+      <c r="AQ2" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="AR2" s="67"/>
-      <c r="AS2" s="67"/>
-      <c r="AT2" s="68" t="s">
+      <c r="AR2" s="84"/>
+      <c r="AS2" s="84"/>
+      <c r="AT2" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="AU2" s="68"/>
-      <c r="AV2" s="68"/>
-      <c r="AW2" s="68"/>
-      <c r="AX2" s="68"/>
-      <c r="AY2" s="68"/>
-      <c r="AZ2" s="68"/>
-      <c r="BA2" s="67" t="s">
+      <c r="AU2" s="85"/>
+      <c r="AV2" s="85"/>
+      <c r="AW2" s="85"/>
+      <c r="AX2" s="85"/>
+      <c r="AY2" s="85"/>
+      <c r="AZ2" s="85"/>
+      <c r="BA2" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="BB2" s="67"/>
-      <c r="BC2" s="67"/>
-      <c r="BD2" s="69">
-        <v>45559</v>
+      <c r="BB2" s="84"/>
+      <c r="BC2" s="84"/>
+      <c r="BD2" s="86">
+        <v>45566</v>
       </c>
-      <c r="BE2" s="69"/>
-      <c r="BF2" s="69"/>
-      <c r="BG2" s="69"/>
-      <c r="BH2" s="69"/>
-      <c r="BI2" s="69"/>
+      <c r="BE2" s="86"/>
+      <c r="BF2" s="86"/>
+      <c r="BG2" s="86"/>
+      <c r="BH2" s="86"/>
+      <c r="BI2" s="86"/>
       <c r="BJ2" s="1"/>
       <c r="BK2" s="1"/>
       <c r="BL2" s="1"/>
@@ -2469,916 +2575,924 @@
       <c r="BI3" s="3"/>
     </row>
     <row r="4" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="71" t="s">
-        <v>105</v>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="88" t="s">
+        <v>81</v>
       </c>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="71"/>
-      <c r="Q4" s="71"/>
-      <c r="R4" s="71"/>
-      <c r="S4" s="71"/>
-      <c r="T4" s="71"/>
-      <c r="U4" s="71"/>
-      <c r="V4" s="71"/>
-      <c r="W4" s="71"/>
-      <c r="X4" s="71"/>
-      <c r="Y4" s="71"/>
-      <c r="Z4" s="71"/>
-      <c r="AA4" s="71"/>
-      <c r="AB4" s="71"/>
-      <c r="AC4" s="71"/>
-      <c r="AD4" s="71"/>
-      <c r="AE4" s="71"/>
-      <c r="AF4" s="71"/>
-      <c r="AG4" s="71"/>
-      <c r="AH4" s="71"/>
-      <c r="AI4" s="71"/>
-      <c r="AJ4" s="71"/>
-      <c r="AK4" s="71"/>
-      <c r="AL4" s="71"/>
-      <c r="AM4" s="71"/>
-      <c r="AN4" s="71"/>
-      <c r="AO4" s="71"/>
-      <c r="AP4" s="71"/>
-      <c r="AQ4" s="71"/>
-      <c r="AR4" s="71"/>
-      <c r="AS4" s="71"/>
-      <c r="AT4" s="71"/>
-      <c r="AU4" s="71"/>
-      <c r="AV4" s="71"/>
-      <c r="AW4" s="71"/>
-      <c r="AX4" s="71"/>
-      <c r="AY4" s="71"/>
-      <c r="AZ4" s="71"/>
-      <c r="BA4" s="71"/>
-      <c r="BB4" s="71"/>
-      <c r="BC4" s="71"/>
-      <c r="BD4" s="71"/>
-      <c r="BE4" s="71"/>
-      <c r="BF4" s="71"/>
-      <c r="BG4" s="71"/>
-      <c r="BH4" s="71"/>
-      <c r="BI4" s="71"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="88"/>
+      <c r="P4" s="88"/>
+      <c r="Q4" s="88"/>
+      <c r="R4" s="88"/>
+      <c r="S4" s="88"/>
+      <c r="T4" s="88"/>
+      <c r="U4" s="88"/>
+      <c r="V4" s="88"/>
+      <c r="W4" s="88"/>
+      <c r="X4" s="88"/>
+      <c r="Y4" s="88"/>
+      <c r="Z4" s="88"/>
+      <c r="AA4" s="88"/>
+      <c r="AB4" s="88"/>
+      <c r="AC4" s="88"/>
+      <c r="AD4" s="88"/>
+      <c r="AE4" s="88"/>
+      <c r="AF4" s="88"/>
+      <c r="AG4" s="88"/>
+      <c r="AH4" s="88"/>
+      <c r="AI4" s="88"/>
+      <c r="AJ4" s="88"/>
+      <c r="AK4" s="88"/>
+      <c r="AL4" s="88"/>
+      <c r="AM4" s="88"/>
+      <c r="AN4" s="88"/>
+      <c r="AO4" s="88"/>
+      <c r="AP4" s="88"/>
+      <c r="AQ4" s="88"/>
+      <c r="AR4" s="88"/>
+      <c r="AS4" s="88"/>
+      <c r="AT4" s="88"/>
+      <c r="AU4" s="88"/>
+      <c r="AV4" s="88"/>
+      <c r="AW4" s="88"/>
+      <c r="AX4" s="88"/>
+      <c r="AY4" s="88"/>
+      <c r="AZ4" s="88"/>
+      <c r="BA4" s="88"/>
+      <c r="BB4" s="88"/>
+      <c r="BC4" s="88"/>
+      <c r="BD4" s="88"/>
+      <c r="BE4" s="88"/>
+      <c r="BF4" s="88"/>
+      <c r="BG4" s="88"/>
+      <c r="BH4" s="88"/>
+      <c r="BI4" s="88"/>
     </row>
     <row r="5" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="71" t="s">
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="88" t="s">
+        <v>80</v>
+      </c>
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="88"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="88"/>
+      <c r="S5" s="88"/>
+      <c r="T5" s="88"/>
+      <c r="U5" s="88"/>
+      <c r="V5" s="88"/>
+      <c r="W5" s="88"/>
+      <c r="X5" s="88"/>
+      <c r="Y5" s="88"/>
+      <c r="Z5" s="88"/>
+      <c r="AA5" s="88"/>
+      <c r="AB5" s="88"/>
+      <c r="AC5" s="88"/>
+      <c r="AD5" s="88"/>
+      <c r="AE5" s="88"/>
+      <c r="AF5" s="88"/>
+      <c r="AG5" s="88"/>
+      <c r="AH5" s="88"/>
+      <c r="AI5" s="88"/>
+      <c r="AJ5" s="88"/>
+      <c r="AK5" s="88"/>
+      <c r="AL5" s="88"/>
+      <c r="AM5" s="88"/>
+      <c r="AN5" s="88"/>
+      <c r="AO5" s="88"/>
+      <c r="AP5" s="88"/>
+      <c r="AQ5" s="88"/>
+      <c r="AR5" s="88"/>
+      <c r="AS5" s="88"/>
+      <c r="AT5" s="88"/>
+      <c r="AU5" s="88"/>
+      <c r="AV5" s="88"/>
+      <c r="AW5" s="88"/>
+      <c r="AX5" s="88"/>
+      <c r="AY5" s="88"/>
+      <c r="AZ5" s="88"/>
+      <c r="BA5" s="88"/>
+      <c r="BB5" s="88"/>
+      <c r="BC5" s="88"/>
+      <c r="BD5" s="88"/>
+      <c r="BE5" s="88"/>
+      <c r="BF5" s="88"/>
+      <c r="BG5" s="88"/>
+      <c r="BH5" s="88"/>
+      <c r="BI5" s="88"/>
+    </row>
+    <row r="6" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="88" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="88"/>
+      <c r="N6" s="88"/>
+      <c r="O6" s="88"/>
+      <c r="P6" s="88"/>
+      <c r="Q6" s="88"/>
+      <c r="R6" s="88"/>
+      <c r="S6" s="88"/>
+      <c r="T6" s="88"/>
+      <c r="U6" s="88"/>
+      <c r="V6" s="88"/>
+      <c r="W6" s="88"/>
+      <c r="X6" s="88"/>
+      <c r="Y6" s="88"/>
+      <c r="Z6" s="88"/>
+      <c r="AA6" s="88"/>
+      <c r="AB6" s="88"/>
+      <c r="AC6" s="88"/>
+      <c r="AD6" s="87" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE6" s="87"/>
+      <c r="AF6" s="87"/>
+      <c r="AG6" s="87"/>
+      <c r="AH6" s="87"/>
+      <c r="AI6" s="87"/>
+      <c r="AJ6" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="71"/>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="71"/>
-      <c r="T5" s="71"/>
-      <c r="U5" s="71"/>
-      <c r="V5" s="71"/>
-      <c r="W5" s="71"/>
-      <c r="X5" s="71"/>
-      <c r="Y5" s="71"/>
-      <c r="Z5" s="71"/>
-      <c r="AA5" s="71"/>
-      <c r="AB5" s="71"/>
-      <c r="AC5" s="71"/>
-      <c r="AD5" s="71"/>
-      <c r="AE5" s="71"/>
-      <c r="AF5" s="71"/>
-      <c r="AG5" s="71"/>
-      <c r="AH5" s="71"/>
-      <c r="AI5" s="71"/>
-      <c r="AJ5" s="71"/>
-      <c r="AK5" s="71"/>
-      <c r="AL5" s="71"/>
-      <c r="AM5" s="71"/>
-      <c r="AN5" s="71"/>
-      <c r="AO5" s="71"/>
-      <c r="AP5" s="71"/>
-      <c r="AQ5" s="71"/>
-      <c r="AR5" s="71"/>
-      <c r="AS5" s="71"/>
-      <c r="AT5" s="71"/>
-      <c r="AU5" s="71"/>
-      <c r="AV5" s="71"/>
-      <c r="AW5" s="71"/>
-      <c r="AX5" s="71"/>
-      <c r="AY5" s="71"/>
-      <c r="AZ5" s="71"/>
-      <c r="BA5" s="71"/>
-      <c r="BB5" s="71"/>
-      <c r="BC5" s="71"/>
-      <c r="BD5" s="71"/>
-      <c r="BE5" s="71"/>
-      <c r="BF5" s="71"/>
-      <c r="BG5" s="71"/>
-      <c r="BH5" s="71"/>
-      <c r="BI5" s="71"/>
+      <c r="AK6" s="88"/>
+      <c r="AL6" s="88"/>
+      <c r="AM6" s="88"/>
+      <c r="AN6" s="88"/>
+      <c r="AO6" s="88"/>
+      <c r="AP6" s="88"/>
+      <c r="AQ6" s="88"/>
+      <c r="AR6" s="88"/>
+      <c r="AS6" s="88"/>
+      <c r="AT6" s="88"/>
+      <c r="AU6" s="88"/>
+      <c r="AV6" s="88"/>
+      <c r="AW6" s="88"/>
+      <c r="AX6" s="88"/>
+      <c r="AY6" s="88"/>
+      <c r="AZ6" s="88"/>
+      <c r="BA6" s="88"/>
+      <c r="BB6" s="88"/>
+      <c r="BC6" s="88"/>
+      <c r="BD6" s="88"/>
+      <c r="BE6" s="88"/>
+      <c r="BF6" s="88"/>
+      <c r="BG6" s="88"/>
+      <c r="BH6" s="88"/>
+      <c r="BI6" s="88"/>
     </row>
-    <row r="6" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="70" t="s">
-        <v>26</v>
+    <row r="8" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="87" t="s">
+        <v>12</v>
       </c>
-      <c r="B6" s="70"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="71" t="s">
-        <v>11</v>
+      <c r="B8" s="87"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="87"/>
+      <c r="J8" s="87"/>
+      <c r="K8" s="87" t="s">
+        <v>13</v>
       </c>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="71"/>
-      <c r="N6" s="71"/>
-      <c r="O6" s="71"/>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="71"/>
-      <c r="R6" s="71"/>
-      <c r="S6" s="71"/>
-      <c r="T6" s="71"/>
-      <c r="U6" s="71"/>
-      <c r="V6" s="71"/>
-      <c r="W6" s="71"/>
-      <c r="X6" s="71"/>
-      <c r="Y6" s="71"/>
-      <c r="Z6" s="71"/>
-      <c r="AA6" s="71"/>
-      <c r="AB6" s="71"/>
-      <c r="AC6" s="71"/>
-      <c r="AD6" s="70" t="s">
-        <v>27</v>
+      <c r="L8" s="87"/>
+      <c r="M8" s="87"/>
+      <c r="N8" s="87"/>
+      <c r="O8" s="87"/>
+      <c r="P8" s="87"/>
+      <c r="Q8" s="87"/>
+      <c r="R8" s="87"/>
+      <c r="S8" s="87"/>
+      <c r="T8" s="87"/>
+      <c r="U8" s="87" t="s">
+        <v>14</v>
       </c>
-      <c r="AE6" s="70"/>
-      <c r="AF6" s="70"/>
-      <c r="AG6" s="70"/>
-      <c r="AH6" s="70"/>
-      <c r="AI6" s="70"/>
-      <c r="AJ6" s="71" t="s">
+      <c r="V8" s="87"/>
+      <c r="W8" s="87"/>
+      <c r="X8" s="87"/>
+      <c r="Y8" s="87"/>
+      <c r="Z8" s="87"/>
+      <c r="AA8" s="87"/>
+      <c r="AB8" s="87"/>
+      <c r="AC8" s="87"/>
+      <c r="AD8" s="87"/>
+      <c r="AE8" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF8" s="87"/>
+      <c r="AG8" s="87"/>
+      <c r="AH8" s="87"/>
+      <c r="AI8" s="87"/>
+      <c r="AJ8" s="87"/>
+      <c r="AK8" s="87"/>
+      <c r="AL8" s="87"/>
+      <c r="AM8" s="87"/>
+      <c r="AN8" s="87"/>
+      <c r="AO8" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="AP8" s="87"/>
+      <c r="AQ8" s="87"/>
+      <c r="AR8" s="87"/>
+      <c r="AS8" s="87"/>
+      <c r="AT8" s="87"/>
+      <c r="AU8" s="87"/>
+      <c r="AV8" s="87"/>
+      <c r="AW8" s="87"/>
+      <c r="AX8" s="87"/>
+      <c r="AY8" s="87"/>
+      <c r="AZ8" s="87"/>
+      <c r="BA8" s="87"/>
+      <c r="BB8" s="87"/>
+      <c r="BC8" s="87"/>
+      <c r="BD8" s="87"/>
+      <c r="BE8" s="87"/>
+      <c r="BF8" s="87"/>
+      <c r="BG8" s="87"/>
+      <c r="BH8" s="87"/>
+      <c r="BI8" s="87"/>
+    </row>
+    <row r="9" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="91" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" s="91"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="91"/>
+      <c r="I9" s="91"/>
+      <c r="J9" s="91"/>
+      <c r="K9" s="91" t="s">
+        <v>112</v>
+      </c>
+      <c r="L9" s="91"/>
+      <c r="M9" s="91"/>
+      <c r="N9" s="91"/>
+      <c r="O9" s="91"/>
+      <c r="P9" s="91"/>
+      <c r="Q9" s="91"/>
+      <c r="R9" s="91"/>
+      <c r="S9" s="91"/>
+      <c r="T9" s="91"/>
+      <c r="U9" s="91" t="s">
+        <v>113</v>
+      </c>
+      <c r="V9" s="91"/>
+      <c r="W9" s="91"/>
+      <c r="X9" s="91"/>
+      <c r="Y9" s="91"/>
+      <c r="Z9" s="91"/>
+      <c r="AA9" s="91"/>
+      <c r="AB9" s="91"/>
+      <c r="AC9" s="91"/>
+      <c r="AD9" s="91"/>
+      <c r="AE9" s="91" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF9" s="91"/>
+      <c r="AG9" s="91"/>
+      <c r="AH9" s="91"/>
+      <c r="AI9" s="91"/>
+      <c r="AJ9" s="91"/>
+      <c r="AK9" s="91"/>
+      <c r="AL9" s="91"/>
+      <c r="AM9" s="91"/>
+      <c r="AN9" s="91"/>
+      <c r="AO9" s="91"/>
+      <c r="AP9" s="91"/>
+      <c r="AQ9" s="91"/>
+      <c r="AR9" s="91"/>
+      <c r="AS9" s="91"/>
+      <c r="AT9" s="91"/>
+      <c r="AU9" s="91"/>
+      <c r="AV9" s="91"/>
+      <c r="AW9" s="91"/>
+      <c r="AX9" s="91"/>
+      <c r="AY9" s="91"/>
+      <c r="AZ9" s="91"/>
+      <c r="BA9" s="91"/>
+      <c r="BB9" s="91"/>
+      <c r="BC9" s="91"/>
+      <c r="BD9" s="91"/>
+      <c r="BE9" s="91"/>
+      <c r="BF9" s="91"/>
+      <c r="BG9" s="91"/>
+      <c r="BH9" s="91"/>
+      <c r="BI9" s="91"/>
+    </row>
+    <row r="10" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="91"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="91"/>
+      <c r="I10" s="91"/>
+      <c r="J10" s="91"/>
+      <c r="K10" s="91"/>
+      <c r="L10" s="91"/>
+      <c r="M10" s="91"/>
+      <c r="N10" s="91"/>
+      <c r="O10" s="91"/>
+      <c r="P10" s="91"/>
+      <c r="Q10" s="91"/>
+      <c r="R10" s="91"/>
+      <c r="S10" s="91"/>
+      <c r="T10" s="91"/>
+      <c r="U10" s="91"/>
+      <c r="V10" s="91"/>
+      <c r="W10" s="91"/>
+      <c r="X10" s="91"/>
+      <c r="Y10" s="91"/>
+      <c r="Z10" s="91"/>
+      <c r="AA10" s="91"/>
+      <c r="AB10" s="91"/>
+      <c r="AC10" s="91"/>
+      <c r="AD10" s="91"/>
+      <c r="AE10" s="91"/>
+      <c r="AF10" s="91"/>
+      <c r="AG10" s="91"/>
+      <c r="AH10" s="91"/>
+      <c r="AI10" s="91"/>
+      <c r="AJ10" s="91"/>
+      <c r="AK10" s="91"/>
+      <c r="AL10" s="91"/>
+      <c r="AM10" s="91"/>
+      <c r="AN10" s="91"/>
+      <c r="AO10" s="91"/>
+      <c r="AP10" s="91"/>
+      <c r="AQ10" s="91"/>
+      <c r="AR10" s="91"/>
+      <c r="AS10" s="91"/>
+      <c r="AT10" s="91"/>
+      <c r="AU10" s="91"/>
+      <c r="AV10" s="91"/>
+      <c r="AW10" s="91"/>
+      <c r="AX10" s="91"/>
+      <c r="AY10" s="91"/>
+      <c r="AZ10" s="91"/>
+      <c r="BA10" s="91"/>
+      <c r="BB10" s="91"/>
+      <c r="BC10" s="91"/>
+      <c r="BD10" s="91"/>
+      <c r="BE10" s="91"/>
+      <c r="BF10" s="91"/>
+      <c r="BG10" s="91"/>
+      <c r="BH10" s="91"/>
+      <c r="BI10" s="91"/>
+    </row>
+    <row r="11" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="91"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="91"/>
+      <c r="I11" s="91"/>
+      <c r="J11" s="91"/>
+      <c r="K11" s="91"/>
+      <c r="L11" s="91"/>
+      <c r="M11" s="91"/>
+      <c r="N11" s="91"/>
+      <c r="O11" s="91"/>
+      <c r="P11" s="91"/>
+      <c r="Q11" s="91"/>
+      <c r="R11" s="91"/>
+      <c r="S11" s="91"/>
+      <c r="T11" s="91"/>
+      <c r="U11" s="91"/>
+      <c r="V11" s="91"/>
+      <c r="W11" s="91"/>
+      <c r="X11" s="91"/>
+      <c r="Y11" s="91"/>
+      <c r="Z11" s="91"/>
+      <c r="AA11" s="91"/>
+      <c r="AB11" s="91"/>
+      <c r="AC11" s="91"/>
+      <c r="AD11" s="91"/>
+      <c r="AE11" s="91"/>
+      <c r="AF11" s="91"/>
+      <c r="AG11" s="91"/>
+      <c r="AH11" s="91"/>
+      <c r="AI11" s="91"/>
+      <c r="AJ11" s="91"/>
+      <c r="AK11" s="91"/>
+      <c r="AL11" s="91"/>
+      <c r="AM11" s="91"/>
+      <c r="AN11" s="91"/>
+      <c r="AO11" s="91"/>
+      <c r="AP11" s="91"/>
+      <c r="AQ11" s="91"/>
+      <c r="AR11" s="91"/>
+      <c r="AS11" s="91"/>
+      <c r="AT11" s="91"/>
+      <c r="AU11" s="91"/>
+      <c r="AV11" s="91"/>
+      <c r="AW11" s="91"/>
+      <c r="AX11" s="91"/>
+      <c r="AY11" s="91"/>
+      <c r="AZ11" s="91"/>
+      <c r="BA11" s="91"/>
+      <c r="BB11" s="91"/>
+      <c r="BC11" s="91"/>
+      <c r="BD11" s="91"/>
+      <c r="BE11" s="91"/>
+      <c r="BF11" s="91"/>
+      <c r="BG11" s="91"/>
+      <c r="BH11" s="91"/>
+      <c r="BI11" s="91"/>
+    </row>
+    <row r="13" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="87" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="87"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="87"/>
+      <c r="L13" s="87"/>
+      <c r="M13" s="87"/>
+      <c r="N13" s="87"/>
+      <c r="O13" s="87"/>
+      <c r="P13" s="87"/>
+      <c r="Q13" s="87"/>
+      <c r="R13" s="87"/>
+      <c r="S13" s="87"/>
+      <c r="T13" s="87"/>
+      <c r="U13" s="87"/>
+      <c r="V13" s="87"/>
+      <c r="W13" s="87"/>
+      <c r="X13" s="87"/>
+      <c r="Y13" s="87"/>
+      <c r="Z13" s="87"/>
+      <c r="AA13" s="87"/>
+      <c r="AB13" s="87"/>
+      <c r="AC13" s="87"/>
+      <c r="AD13" s="87"/>
+      <c r="AE13" s="87"/>
+      <c r="AF13" s="87"/>
+      <c r="AG13" s="87"/>
+      <c r="AH13" s="87"/>
+      <c r="AI13" s="87"/>
+      <c r="AJ13" s="87"/>
+      <c r="AK13" s="87"/>
+      <c r="AL13" s="87"/>
+      <c r="AM13" s="87"/>
+      <c r="AN13" s="87"/>
+      <c r="AO13" s="87"/>
+      <c r="AP13" s="87"/>
+      <c r="AQ13" s="87"/>
+      <c r="AR13" s="87"/>
+      <c r="AS13" s="87"/>
+      <c r="AT13" s="87"/>
+      <c r="AU13" s="87"/>
+      <c r="AV13" s="87"/>
+      <c r="AW13" s="87"/>
+      <c r="AX13" s="87"/>
+      <c r="AY13" s="87"/>
+      <c r="AZ13" s="87"/>
+      <c r="BA13" s="87"/>
+      <c r="BB13" s="87"/>
+      <c r="BC13" s="87"/>
+      <c r="BD13" s="87"/>
+      <c r="BE13" s="87"/>
+      <c r="BF13" s="87"/>
+      <c r="BG13" s="87"/>
+      <c r="BH13" s="87"/>
+      <c r="BI13" s="87"/>
+    </row>
+    <row r="14" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="AK6" s="71"/>
-      <c r="AL6" s="71"/>
-      <c r="AM6" s="71"/>
-      <c r="AN6" s="71"/>
-      <c r="AO6" s="71"/>
-      <c r="AP6" s="71"/>
-      <c r="AQ6" s="71"/>
-      <c r="AR6" s="71"/>
-      <c r="AS6" s="71"/>
-      <c r="AT6" s="71"/>
-      <c r="AU6" s="71"/>
-      <c r="AV6" s="71"/>
-      <c r="AW6" s="71"/>
-      <c r="AX6" s="71"/>
-      <c r="AY6" s="71"/>
-      <c r="AZ6" s="71"/>
-      <c r="BA6" s="71"/>
-      <c r="BB6" s="71"/>
-      <c r="BC6" s="71"/>
-      <c r="BD6" s="71"/>
-      <c r="BE6" s="71"/>
-      <c r="BF6" s="71"/>
-      <c r="BG6" s="71"/>
-      <c r="BH6" s="71"/>
-      <c r="BI6" s="71"/>
-    </row>
-    <row r="8" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="L8" s="70"/>
-      <c r="M8" s="70"/>
-      <c r="N8" s="70"/>
-      <c r="O8" s="70"/>
-      <c r="P8" s="70"/>
-      <c r="Q8" s="70"/>
-      <c r="R8" s="70"/>
-      <c r="S8" s="70"/>
-      <c r="T8" s="70"/>
-      <c r="U8" s="70" t="s">
-        <v>14</v>
-      </c>
-      <c r="V8" s="70"/>
-      <c r="W8" s="70"/>
-      <c r="X8" s="70"/>
-      <c r="Y8" s="70"/>
-      <c r="Z8" s="70"/>
-      <c r="AA8" s="70"/>
-      <c r="AB8" s="70"/>
-      <c r="AC8" s="70"/>
-      <c r="AD8" s="70"/>
-      <c r="AE8" s="70" t="s">
-        <v>15</v>
-      </c>
-      <c r="AF8" s="70"/>
-      <c r="AG8" s="70"/>
-      <c r="AH8" s="70"/>
-      <c r="AI8" s="70"/>
-      <c r="AJ8" s="70"/>
-      <c r="AK8" s="70"/>
-      <c r="AL8" s="70"/>
-      <c r="AM8" s="70"/>
-      <c r="AN8" s="70"/>
-      <c r="AO8" s="70" t="s">
-        <v>16</v>
-      </c>
-      <c r="AP8" s="70"/>
-      <c r="AQ8" s="70"/>
-      <c r="AR8" s="70"/>
-      <c r="AS8" s="70"/>
-      <c r="AT8" s="70"/>
-      <c r="AU8" s="70"/>
-      <c r="AV8" s="70"/>
-      <c r="AW8" s="70"/>
-      <c r="AX8" s="70"/>
-      <c r="AY8" s="70"/>
-      <c r="AZ8" s="70"/>
-      <c r="BA8" s="70"/>
-      <c r="BB8" s="70"/>
-      <c r="BC8" s="70"/>
-      <c r="BD8" s="70"/>
-      <c r="BE8" s="70"/>
-      <c r="BF8" s="70"/>
-      <c r="BG8" s="70"/>
-      <c r="BH8" s="70"/>
-      <c r="BI8" s="70"/>
-    </row>
-    <row r="9" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="74"/>
-      <c r="B9" s="74"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="74"/>
-      <c r="M9" s="74"/>
-      <c r="N9" s="74"/>
-      <c r="O9" s="74"/>
-      <c r="P9" s="74"/>
-      <c r="Q9" s="74"/>
-      <c r="R9" s="74"/>
-      <c r="S9" s="74"/>
-      <c r="T9" s="74"/>
-      <c r="U9" s="74"/>
-      <c r="V9" s="74"/>
-      <c r="W9" s="74"/>
-      <c r="X9" s="74"/>
-      <c r="Y9" s="74"/>
-      <c r="Z9" s="74"/>
-      <c r="AA9" s="74"/>
-      <c r="AB9" s="74"/>
-      <c r="AC9" s="74"/>
-      <c r="AD9" s="74"/>
-      <c r="AE9" s="74"/>
-      <c r="AF9" s="74"/>
-      <c r="AG9" s="74"/>
-      <c r="AH9" s="74"/>
-      <c r="AI9" s="74"/>
-      <c r="AJ9" s="74"/>
-      <c r="AK9" s="74"/>
-      <c r="AL9" s="74"/>
-      <c r="AM9" s="74"/>
-      <c r="AN9" s="74"/>
-      <c r="AO9" s="74"/>
-      <c r="AP9" s="74"/>
-      <c r="AQ9" s="74"/>
-      <c r="AR9" s="74"/>
-      <c r="AS9" s="74"/>
-      <c r="AT9" s="74"/>
-      <c r="AU9" s="74"/>
-      <c r="AV9" s="74"/>
-      <c r="AW9" s="74"/>
-      <c r="AX9" s="74"/>
-      <c r="AY9" s="74"/>
-      <c r="AZ9" s="74"/>
-      <c r="BA9" s="74"/>
-      <c r="BB9" s="74"/>
-      <c r="BC9" s="74"/>
-      <c r="BD9" s="74"/>
-      <c r="BE9" s="74"/>
-      <c r="BF9" s="74"/>
-      <c r="BG9" s="74"/>
-      <c r="BH9" s="74"/>
-      <c r="BI9" s="74"/>
-    </row>
-    <row r="10" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="74"/>
-      <c r="B10" s="74"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="74"/>
-      <c r="L10" s="74"/>
-      <c r="M10" s="74"/>
-      <c r="N10" s="74"/>
-      <c r="O10" s="74"/>
-      <c r="P10" s="74"/>
-      <c r="Q10" s="74"/>
-      <c r="R10" s="74"/>
-      <c r="S10" s="74"/>
-      <c r="T10" s="74"/>
-      <c r="U10" s="74"/>
-      <c r="V10" s="74"/>
-      <c r="W10" s="74"/>
-      <c r="X10" s="74"/>
-      <c r="Y10" s="74"/>
-      <c r="Z10" s="74"/>
-      <c r="AA10" s="74"/>
-      <c r="AB10" s="74"/>
-      <c r="AC10" s="74"/>
-      <c r="AD10" s="74"/>
-      <c r="AE10" s="74"/>
-      <c r="AF10" s="74"/>
-      <c r="AG10" s="74"/>
-      <c r="AH10" s="74"/>
-      <c r="AI10" s="74"/>
-      <c r="AJ10" s="74"/>
-      <c r="AK10" s="74"/>
-      <c r="AL10" s="74"/>
-      <c r="AM10" s="74"/>
-      <c r="AN10" s="74"/>
-      <c r="AO10" s="74"/>
-      <c r="AP10" s="74"/>
-      <c r="AQ10" s="74"/>
-      <c r="AR10" s="74"/>
-      <c r="AS10" s="74"/>
-      <c r="AT10" s="74"/>
-      <c r="AU10" s="74"/>
-      <c r="AV10" s="74"/>
-      <c r="AW10" s="74"/>
-      <c r="AX10" s="74"/>
-      <c r="AY10" s="74"/>
-      <c r="AZ10" s="74"/>
-      <c r="BA10" s="74"/>
-      <c r="BB10" s="74"/>
-      <c r="BC10" s="74"/>
-      <c r="BD10" s="74"/>
-      <c r="BE10" s="74"/>
-      <c r="BF10" s="74"/>
-      <c r="BG10" s="74"/>
-      <c r="BH10" s="74"/>
-      <c r="BI10" s="74"/>
-    </row>
-    <row r="11" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="74"/>
-      <c r="B11" s="74"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="74"/>
-      <c r="I11" s="74"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="74"/>
-      <c r="M11" s="74"/>
-      <c r="N11" s="74"/>
-      <c r="O11" s="74"/>
-      <c r="P11" s="74"/>
-      <c r="Q11" s="74"/>
-      <c r="R11" s="74"/>
-      <c r="S11" s="74"/>
-      <c r="T11" s="74"/>
-      <c r="U11" s="74"/>
-      <c r="V11" s="74"/>
-      <c r="W11" s="74"/>
-      <c r="X11" s="74"/>
-      <c r="Y11" s="74"/>
-      <c r="Z11" s="74"/>
-      <c r="AA11" s="74"/>
-      <c r="AB11" s="74"/>
-      <c r="AC11" s="74"/>
-      <c r="AD11" s="74"/>
-      <c r="AE11" s="74"/>
-      <c r="AF11" s="74"/>
-      <c r="AG11" s="74"/>
-      <c r="AH11" s="74"/>
-      <c r="AI11" s="74"/>
-      <c r="AJ11" s="74"/>
-      <c r="AK11" s="74"/>
-      <c r="AL11" s="74"/>
-      <c r="AM11" s="74"/>
-      <c r="AN11" s="74"/>
-      <c r="AO11" s="74"/>
-      <c r="AP11" s="74"/>
-      <c r="AQ11" s="74"/>
-      <c r="AR11" s="74"/>
-      <c r="AS11" s="74"/>
-      <c r="AT11" s="74"/>
-      <c r="AU11" s="74"/>
-      <c r="AV11" s="74"/>
-      <c r="AW11" s="74"/>
-      <c r="AX11" s="74"/>
-      <c r="AY11" s="74"/>
-      <c r="AZ11" s="74"/>
-      <c r="BA11" s="74"/>
-      <c r="BB11" s="74"/>
-      <c r="BC11" s="74"/>
-      <c r="BD11" s="74"/>
-      <c r="BE11" s="74"/>
-      <c r="BF11" s="74"/>
-      <c r="BG11" s="74"/>
-      <c r="BH11" s="74"/>
-      <c r="BI11" s="74"/>
-    </row>
-    <row r="13" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="70" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="70"/>
-      <c r="N13" s="70"/>
-      <c r="O13" s="70"/>
-      <c r="P13" s="70"/>
-      <c r="Q13" s="70"/>
-      <c r="R13" s="70"/>
-      <c r="S13" s="70"/>
-      <c r="T13" s="70"/>
-      <c r="U13" s="70"/>
-      <c r="V13" s="70"/>
-      <c r="W13" s="70"/>
-      <c r="X13" s="70"/>
-      <c r="Y13" s="70"/>
-      <c r="Z13" s="70"/>
-      <c r="AA13" s="70"/>
-      <c r="AB13" s="70"/>
-      <c r="AC13" s="70"/>
-      <c r="AD13" s="70"/>
-      <c r="AE13" s="70"/>
-      <c r="AF13" s="70"/>
-      <c r="AG13" s="70"/>
-      <c r="AH13" s="70"/>
-      <c r="AI13" s="70"/>
-      <c r="AJ13" s="70"/>
-      <c r="AK13" s="70"/>
-      <c r="AL13" s="70"/>
-      <c r="AM13" s="70"/>
-      <c r="AN13" s="70"/>
-      <c r="AO13" s="70"/>
-      <c r="AP13" s="70"/>
-      <c r="AQ13" s="70"/>
-      <c r="AR13" s="70"/>
-      <c r="AS13" s="70"/>
-      <c r="AT13" s="70"/>
-      <c r="AU13" s="70"/>
-      <c r="AV13" s="70"/>
-      <c r="AW13" s="70"/>
-      <c r="AX13" s="70"/>
-      <c r="AY13" s="70"/>
-      <c r="AZ13" s="70"/>
-      <c r="BA13" s="70"/>
-      <c r="BB13" s="70"/>
-      <c r="BC13" s="70"/>
-      <c r="BD13" s="70"/>
-      <c r="BE13" s="70"/>
-      <c r="BF13" s="70"/>
-      <c r="BG13" s="70"/>
-      <c r="BH13" s="70"/>
-      <c r="BI13" s="70"/>
-    </row>
-    <row r="14" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="71" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="74"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="74"/>
-      <c r="K14" s="74"/>
-      <c r="L14" s="74"/>
-      <c r="M14" s="74"/>
-      <c r="N14" s="74"/>
-      <c r="O14" s="74"/>
-      <c r="P14" s="74"/>
-      <c r="Q14" s="74"/>
-      <c r="R14" s="74"/>
-      <c r="S14" s="74"/>
-      <c r="T14" s="74"/>
-      <c r="U14" s="74"/>
-      <c r="V14" s="74"/>
-      <c r="W14" s="74"/>
-      <c r="X14" s="74"/>
-      <c r="Y14" s="74"/>
-      <c r="Z14" s="74"/>
-      <c r="AA14" s="74"/>
-      <c r="AB14" s="74"/>
-      <c r="AC14" s="74"/>
-      <c r="AD14" s="74"/>
-      <c r="AE14" s="74"/>
-      <c r="AF14" s="74"/>
-      <c r="AG14" s="74"/>
-      <c r="AH14" s="74"/>
-      <c r="AI14" s="74"/>
-      <c r="AJ14" s="74"/>
-      <c r="AK14" s="74"/>
-      <c r="AL14" s="74"/>
-      <c r="AM14" s="74"/>
-      <c r="AN14" s="74"/>
-      <c r="AO14" s="74"/>
-      <c r="AP14" s="74"/>
-      <c r="AQ14" s="74"/>
-      <c r="AR14" s="74"/>
-      <c r="AS14" s="74"/>
-      <c r="AT14" s="74"/>
-      <c r="AU14" s="74"/>
-      <c r="AV14" s="74"/>
-      <c r="AW14" s="74"/>
-      <c r="AX14" s="74"/>
-      <c r="AY14" s="74"/>
-      <c r="AZ14" s="74"/>
-      <c r="BA14" s="74"/>
-      <c r="BB14" s="74"/>
-      <c r="BC14" s="74"/>
-      <c r="BD14" s="74"/>
-      <c r="BE14" s="74"/>
-      <c r="BF14" s="74"/>
-      <c r="BG14" s="74"/>
-      <c r="BH14" s="74"/>
-      <c r="BI14" s="74"/>
+      <c r="B14" s="91"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="91"/>
+      <c r="J14" s="91"/>
+      <c r="K14" s="91"/>
+      <c r="L14" s="91"/>
+      <c r="M14" s="91"/>
+      <c r="N14" s="91"/>
+      <c r="O14" s="91"/>
+      <c r="P14" s="91"/>
+      <c r="Q14" s="91"/>
+      <c r="R14" s="91"/>
+      <c r="S14" s="91"/>
+      <c r="T14" s="91"/>
+      <c r="U14" s="91"/>
+      <c r="V14" s="91"/>
+      <c r="W14" s="91"/>
+      <c r="X14" s="91"/>
+      <c r="Y14" s="91"/>
+      <c r="Z14" s="91"/>
+      <c r="AA14" s="91"/>
+      <c r="AB14" s="91"/>
+      <c r="AC14" s="91"/>
+      <c r="AD14" s="91"/>
+      <c r="AE14" s="91"/>
+      <c r="AF14" s="91"/>
+      <c r="AG14" s="91"/>
+      <c r="AH14" s="91"/>
+      <c r="AI14" s="91"/>
+      <c r="AJ14" s="91"/>
+      <c r="AK14" s="91"/>
+      <c r="AL14" s="91"/>
+      <c r="AM14" s="91"/>
+      <c r="AN14" s="91"/>
+      <c r="AO14" s="91"/>
+      <c r="AP14" s="91"/>
+      <c r="AQ14" s="91"/>
+      <c r="AR14" s="91"/>
+      <c r="AS14" s="91"/>
+      <c r="AT14" s="91"/>
+      <c r="AU14" s="91"/>
+      <c r="AV14" s="91"/>
+      <c r="AW14" s="91"/>
+      <c r="AX14" s="91"/>
+      <c r="AY14" s="91"/>
+      <c r="AZ14" s="91"/>
+      <c r="BA14" s="91"/>
+      <c r="BB14" s="91"/>
+      <c r="BC14" s="91"/>
+      <c r="BD14" s="91"/>
+      <c r="BE14" s="91"/>
+      <c r="BF14" s="91"/>
+      <c r="BG14" s="91"/>
+      <c r="BH14" s="91"/>
+      <c r="BI14" s="91"/>
     </row>
     <row r="15" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="74"/>
-      <c r="B15" s="74"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="74"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="74"/>
-      <c r="K15" s="74"/>
-      <c r="L15" s="74"/>
-      <c r="M15" s="74"/>
-      <c r="N15" s="74"/>
-      <c r="O15" s="74"/>
-      <c r="P15" s="74"/>
-      <c r="Q15" s="74"/>
-      <c r="R15" s="74"/>
-      <c r="S15" s="74"/>
-      <c r="T15" s="74"/>
-      <c r="U15" s="74"/>
-      <c r="V15" s="74"/>
-      <c r="W15" s="74"/>
-      <c r="X15" s="74"/>
-      <c r="Y15" s="74"/>
-      <c r="Z15" s="74"/>
-      <c r="AA15" s="74"/>
-      <c r="AB15" s="74"/>
-      <c r="AC15" s="74"/>
-      <c r="AD15" s="74"/>
-      <c r="AE15" s="74"/>
-      <c r="AF15" s="74"/>
-      <c r="AG15" s="74"/>
-      <c r="AH15" s="74"/>
-      <c r="AI15" s="74"/>
-      <c r="AJ15" s="74"/>
-      <c r="AK15" s="74"/>
-      <c r="AL15" s="74"/>
-      <c r="AM15" s="74"/>
-      <c r="AN15" s="74"/>
-      <c r="AO15" s="74"/>
-      <c r="AP15" s="74"/>
-      <c r="AQ15" s="74"/>
-      <c r="AR15" s="74"/>
-      <c r="AS15" s="74"/>
-      <c r="AT15" s="74"/>
-      <c r="AU15" s="74"/>
-      <c r="AV15" s="74"/>
-      <c r="AW15" s="74"/>
-      <c r="AX15" s="74"/>
-      <c r="AY15" s="74"/>
-      <c r="AZ15" s="74"/>
-      <c r="BA15" s="74"/>
-      <c r="BB15" s="74"/>
-      <c r="BC15" s="74"/>
-      <c r="BD15" s="74"/>
-      <c r="BE15" s="74"/>
-      <c r="BF15" s="74"/>
-      <c r="BG15" s="74"/>
-      <c r="BH15" s="74"/>
-      <c r="BI15" s="74"/>
+      <c r="A15" s="91"/>
+      <c r="B15" s="91"/>
+      <c r="C15" s="91"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="91"/>
+      <c r="I15" s="91"/>
+      <c r="J15" s="91"/>
+      <c r="K15" s="91"/>
+      <c r="L15" s="91"/>
+      <c r="M15" s="91"/>
+      <c r="N15" s="91"/>
+      <c r="O15" s="91"/>
+      <c r="P15" s="91"/>
+      <c r="Q15" s="91"/>
+      <c r="R15" s="91"/>
+      <c r="S15" s="91"/>
+      <c r="T15" s="91"/>
+      <c r="U15" s="91"/>
+      <c r="V15" s="91"/>
+      <c r="W15" s="91"/>
+      <c r="X15" s="91"/>
+      <c r="Y15" s="91"/>
+      <c r="Z15" s="91"/>
+      <c r="AA15" s="91"/>
+      <c r="AB15" s="91"/>
+      <c r="AC15" s="91"/>
+      <c r="AD15" s="91"/>
+      <c r="AE15" s="91"/>
+      <c r="AF15" s="91"/>
+      <c r="AG15" s="91"/>
+      <c r="AH15" s="91"/>
+      <c r="AI15" s="91"/>
+      <c r="AJ15" s="91"/>
+      <c r="AK15" s="91"/>
+      <c r="AL15" s="91"/>
+      <c r="AM15" s="91"/>
+      <c r="AN15" s="91"/>
+      <c r="AO15" s="91"/>
+      <c r="AP15" s="91"/>
+      <c r="AQ15" s="91"/>
+      <c r="AR15" s="91"/>
+      <c r="AS15" s="91"/>
+      <c r="AT15" s="91"/>
+      <c r="AU15" s="91"/>
+      <c r="AV15" s="91"/>
+      <c r="AW15" s="91"/>
+      <c r="AX15" s="91"/>
+      <c r="AY15" s="91"/>
+      <c r="AZ15" s="91"/>
+      <c r="BA15" s="91"/>
+      <c r="BB15" s="91"/>
+      <c r="BC15" s="91"/>
+      <c r="BD15" s="91"/>
+      <c r="BE15" s="91"/>
+      <c r="BF15" s="91"/>
+      <c r="BG15" s="91"/>
+      <c r="BH15" s="91"/>
+      <c r="BI15" s="91"/>
     </row>
     <row r="16" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="74"/>
-      <c r="B16" s="74"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="74"/>
-      <c r="I16" s="74"/>
-      <c r="J16" s="74"/>
-      <c r="K16" s="74"/>
-      <c r="L16" s="74"/>
-      <c r="M16" s="74"/>
-      <c r="N16" s="74"/>
-      <c r="O16" s="74"/>
-      <c r="P16" s="74"/>
-      <c r="Q16" s="74"/>
-      <c r="R16" s="74"/>
-      <c r="S16" s="74"/>
-      <c r="T16" s="74"/>
-      <c r="U16" s="74"/>
-      <c r="V16" s="74"/>
-      <c r="W16" s="74"/>
-      <c r="X16" s="74"/>
-      <c r="Y16" s="74"/>
-      <c r="Z16" s="74"/>
-      <c r="AA16" s="74"/>
-      <c r="AB16" s="74"/>
-      <c r="AC16" s="74"/>
-      <c r="AD16" s="74"/>
-      <c r="AE16" s="74"/>
-      <c r="AF16" s="74"/>
-      <c r="AG16" s="74"/>
-      <c r="AH16" s="74"/>
-      <c r="AI16" s="74"/>
-      <c r="AJ16" s="74"/>
-      <c r="AK16" s="74"/>
-      <c r="AL16" s="74"/>
-      <c r="AM16" s="74"/>
-      <c r="AN16" s="74"/>
-      <c r="AO16" s="74"/>
-      <c r="AP16" s="74"/>
-      <c r="AQ16" s="74"/>
-      <c r="AR16" s="74"/>
-      <c r="AS16" s="74"/>
-      <c r="AT16" s="74"/>
-      <c r="AU16" s="74"/>
-      <c r="AV16" s="74"/>
-      <c r="AW16" s="74"/>
-      <c r="AX16" s="74"/>
-      <c r="AY16" s="74"/>
-      <c r="AZ16" s="74"/>
-      <c r="BA16" s="74"/>
-      <c r="BB16" s="74"/>
-      <c r="BC16" s="74"/>
-      <c r="BD16" s="74"/>
-      <c r="BE16" s="74"/>
-      <c r="BF16" s="74"/>
-      <c r="BG16" s="74"/>
-      <c r="BH16" s="74"/>
-      <c r="BI16" s="74"/>
+      <c r="A16" s="91"/>
+      <c r="B16" s="91"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="91"/>
+      <c r="I16" s="91"/>
+      <c r="J16" s="91"/>
+      <c r="K16" s="91"/>
+      <c r="L16" s="91"/>
+      <c r="M16" s="91"/>
+      <c r="N16" s="91"/>
+      <c r="O16" s="91"/>
+      <c r="P16" s="91"/>
+      <c r="Q16" s="91"/>
+      <c r="R16" s="91"/>
+      <c r="S16" s="91"/>
+      <c r="T16" s="91"/>
+      <c r="U16" s="91"/>
+      <c r="V16" s="91"/>
+      <c r="W16" s="91"/>
+      <c r="X16" s="91"/>
+      <c r="Y16" s="91"/>
+      <c r="Z16" s="91"/>
+      <c r="AA16" s="91"/>
+      <c r="AB16" s="91"/>
+      <c r="AC16" s="91"/>
+      <c r="AD16" s="91"/>
+      <c r="AE16" s="91"/>
+      <c r="AF16" s="91"/>
+      <c r="AG16" s="91"/>
+      <c r="AH16" s="91"/>
+      <c r="AI16" s="91"/>
+      <c r="AJ16" s="91"/>
+      <c r="AK16" s="91"/>
+      <c r="AL16" s="91"/>
+      <c r="AM16" s="91"/>
+      <c r="AN16" s="91"/>
+      <c r="AO16" s="91"/>
+      <c r="AP16" s="91"/>
+      <c r="AQ16" s="91"/>
+      <c r="AR16" s="91"/>
+      <c r="AS16" s="91"/>
+      <c r="AT16" s="91"/>
+      <c r="AU16" s="91"/>
+      <c r="AV16" s="91"/>
+      <c r="AW16" s="91"/>
+      <c r="AX16" s="91"/>
+      <c r="AY16" s="91"/>
+      <c r="AZ16" s="91"/>
+      <c r="BA16" s="91"/>
+      <c r="BB16" s="91"/>
+      <c r="BC16" s="91"/>
+      <c r="BD16" s="91"/>
+      <c r="BE16" s="91"/>
+      <c r="BF16" s="91"/>
+      <c r="BG16" s="91"/>
+      <c r="BH16" s="91"/>
+      <c r="BI16" s="91"/>
     </row>
     <row r="17" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="74"/>
-      <c r="B17" s="74"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="74"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="74"/>
-      <c r="J17" s="74"/>
-      <c r="K17" s="74"/>
-      <c r="L17" s="74"/>
-      <c r="M17" s="74"/>
-      <c r="N17" s="74"/>
-      <c r="O17" s="74"/>
-      <c r="P17" s="74"/>
-      <c r="Q17" s="74"/>
-      <c r="R17" s="74"/>
-      <c r="S17" s="74"/>
-      <c r="T17" s="74"/>
-      <c r="U17" s="74"/>
-      <c r="V17" s="74"/>
-      <c r="W17" s="74"/>
-      <c r="X17" s="74"/>
-      <c r="Y17" s="74"/>
-      <c r="Z17" s="74"/>
-      <c r="AA17" s="74"/>
-      <c r="AB17" s="74"/>
-      <c r="AC17" s="74"/>
-      <c r="AD17" s="74"/>
-      <c r="AE17" s="74"/>
-      <c r="AF17" s="74"/>
-      <c r="AG17" s="74"/>
-      <c r="AH17" s="74"/>
-      <c r="AI17" s="74"/>
-      <c r="AJ17" s="74"/>
-      <c r="AK17" s="74"/>
-      <c r="AL17" s="74"/>
-      <c r="AM17" s="74"/>
-      <c r="AN17" s="74"/>
-      <c r="AO17" s="74"/>
-      <c r="AP17" s="74"/>
-      <c r="AQ17" s="74"/>
-      <c r="AR17" s="74"/>
-      <c r="AS17" s="74"/>
-      <c r="AT17" s="74"/>
-      <c r="AU17" s="74"/>
-      <c r="AV17" s="74"/>
-      <c r="AW17" s="74"/>
-      <c r="AX17" s="74"/>
-      <c r="AY17" s="74"/>
-      <c r="AZ17" s="74"/>
-      <c r="BA17" s="74"/>
-      <c r="BB17" s="74"/>
-      <c r="BC17" s="74"/>
-      <c r="BD17" s="74"/>
-      <c r="BE17" s="74"/>
-      <c r="BF17" s="74"/>
-      <c r="BG17" s="74"/>
-      <c r="BH17" s="74"/>
-      <c r="BI17" s="74"/>
+      <c r="A17" s="91"/>
+      <c r="B17" s="91"/>
+      <c r="C17" s="91"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="91"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="91"/>
+      <c r="I17" s="91"/>
+      <c r="J17" s="91"/>
+      <c r="K17" s="91"/>
+      <c r="L17" s="91"/>
+      <c r="M17" s="91"/>
+      <c r="N17" s="91"/>
+      <c r="O17" s="91"/>
+      <c r="P17" s="91"/>
+      <c r="Q17" s="91"/>
+      <c r="R17" s="91"/>
+      <c r="S17" s="91"/>
+      <c r="T17" s="91"/>
+      <c r="U17" s="91"/>
+      <c r="V17" s="91"/>
+      <c r="W17" s="91"/>
+      <c r="X17" s="91"/>
+      <c r="Y17" s="91"/>
+      <c r="Z17" s="91"/>
+      <c r="AA17" s="91"/>
+      <c r="AB17" s="91"/>
+      <c r="AC17" s="91"/>
+      <c r="AD17" s="91"/>
+      <c r="AE17" s="91"/>
+      <c r="AF17" s="91"/>
+      <c r="AG17" s="91"/>
+      <c r="AH17" s="91"/>
+      <c r="AI17" s="91"/>
+      <c r="AJ17" s="91"/>
+      <c r="AK17" s="91"/>
+      <c r="AL17" s="91"/>
+      <c r="AM17" s="91"/>
+      <c r="AN17" s="91"/>
+      <c r="AO17" s="91"/>
+      <c r="AP17" s="91"/>
+      <c r="AQ17" s="91"/>
+      <c r="AR17" s="91"/>
+      <c r="AS17" s="91"/>
+      <c r="AT17" s="91"/>
+      <c r="AU17" s="91"/>
+      <c r="AV17" s="91"/>
+      <c r="AW17" s="91"/>
+      <c r="AX17" s="91"/>
+      <c r="AY17" s="91"/>
+      <c r="AZ17" s="91"/>
+      <c r="BA17" s="91"/>
+      <c r="BB17" s="91"/>
+      <c r="BC17" s="91"/>
+      <c r="BD17" s="91"/>
+      <c r="BE17" s="91"/>
+      <c r="BF17" s="91"/>
+      <c r="BG17" s="91"/>
+      <c r="BH17" s="91"/>
+      <c r="BI17" s="91"/>
     </row>
     <row r="18" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="74"/>
-      <c r="B18" s="74"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="74"/>
-      <c r="I18" s="74"/>
-      <c r="J18" s="74"/>
-      <c r="K18" s="74"/>
-      <c r="L18" s="74"/>
-      <c r="M18" s="74"/>
-      <c r="N18" s="74"/>
-      <c r="O18" s="74"/>
-      <c r="P18" s="74"/>
-      <c r="Q18" s="74"/>
-      <c r="R18" s="74"/>
-      <c r="S18" s="74"/>
-      <c r="T18" s="74"/>
-      <c r="U18" s="74"/>
-      <c r="V18" s="74"/>
-      <c r="W18" s="74"/>
-      <c r="X18" s="74"/>
-      <c r="Y18" s="74"/>
-      <c r="Z18" s="74"/>
-      <c r="AA18" s="74"/>
-      <c r="AB18" s="74"/>
-      <c r="AC18" s="74"/>
-      <c r="AD18" s="74"/>
-      <c r="AE18" s="74"/>
-      <c r="AF18" s="74"/>
-      <c r="AG18" s="74"/>
-      <c r="AH18" s="74"/>
-      <c r="AI18" s="74"/>
-      <c r="AJ18" s="74"/>
-      <c r="AK18" s="74"/>
-      <c r="AL18" s="74"/>
-      <c r="AM18" s="74"/>
-      <c r="AN18" s="74"/>
-      <c r="AO18" s="74"/>
-      <c r="AP18" s="74"/>
-      <c r="AQ18" s="74"/>
-      <c r="AR18" s="74"/>
-      <c r="AS18" s="74"/>
-      <c r="AT18" s="74"/>
-      <c r="AU18" s="74"/>
-      <c r="AV18" s="74"/>
-      <c r="AW18" s="74"/>
-      <c r="AX18" s="74"/>
-      <c r="AY18" s="74"/>
-      <c r="AZ18" s="74"/>
-      <c r="BA18" s="74"/>
-      <c r="BB18" s="74"/>
-      <c r="BC18" s="74"/>
-      <c r="BD18" s="74"/>
-      <c r="BE18" s="74"/>
-      <c r="BF18" s="74"/>
-      <c r="BG18" s="74"/>
-      <c r="BH18" s="74"/>
-      <c r="BI18" s="74"/>
+      <c r="A18" s="91"/>
+      <c r="B18" s="91"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="91"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="91"/>
+      <c r="H18" s="91"/>
+      <c r="I18" s="91"/>
+      <c r="J18" s="91"/>
+      <c r="K18" s="91"/>
+      <c r="L18" s="91"/>
+      <c r="M18" s="91"/>
+      <c r="N18" s="91"/>
+      <c r="O18" s="91"/>
+      <c r="P18" s="91"/>
+      <c r="Q18" s="91"/>
+      <c r="R18" s="91"/>
+      <c r="S18" s="91"/>
+      <c r="T18" s="91"/>
+      <c r="U18" s="91"/>
+      <c r="V18" s="91"/>
+      <c r="W18" s="91"/>
+      <c r="X18" s="91"/>
+      <c r="Y18" s="91"/>
+      <c r="Z18" s="91"/>
+      <c r="AA18" s="91"/>
+      <c r="AB18" s="91"/>
+      <c r="AC18" s="91"/>
+      <c r="AD18" s="91"/>
+      <c r="AE18" s="91"/>
+      <c r="AF18" s="91"/>
+      <c r="AG18" s="91"/>
+      <c r="AH18" s="91"/>
+      <c r="AI18" s="91"/>
+      <c r="AJ18" s="91"/>
+      <c r="AK18" s="91"/>
+      <c r="AL18" s="91"/>
+      <c r="AM18" s="91"/>
+      <c r="AN18" s="91"/>
+      <c r="AO18" s="91"/>
+      <c r="AP18" s="91"/>
+      <c r="AQ18" s="91"/>
+      <c r="AR18" s="91"/>
+      <c r="AS18" s="91"/>
+      <c r="AT18" s="91"/>
+      <c r="AU18" s="91"/>
+      <c r="AV18" s="91"/>
+      <c r="AW18" s="91"/>
+      <c r="AX18" s="91"/>
+      <c r="AY18" s="91"/>
+      <c r="AZ18" s="91"/>
+      <c r="BA18" s="91"/>
+      <c r="BB18" s="91"/>
+      <c r="BC18" s="91"/>
+      <c r="BD18" s="91"/>
+      <c r="BE18" s="91"/>
+      <c r="BF18" s="91"/>
+      <c r="BG18" s="91"/>
+      <c r="BH18" s="91"/>
+      <c r="BI18" s="91"/>
     </row>
     <row r="19" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="74"/>
-      <c r="B19" s="74"/>
-      <c r="C19" s="74"/>
-      <c r="D19" s="74"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="74"/>
-      <c r="H19" s="74"/>
-      <c r="I19" s="74"/>
-      <c r="J19" s="74"/>
-      <c r="K19" s="74"/>
-      <c r="L19" s="74"/>
-      <c r="M19" s="74"/>
-      <c r="N19" s="74"/>
-      <c r="O19" s="74"/>
-      <c r="P19" s="74"/>
-      <c r="Q19" s="74"/>
-      <c r="R19" s="74"/>
-      <c r="S19" s="74"/>
-      <c r="T19" s="74"/>
-      <c r="U19" s="74"/>
-      <c r="V19" s="74"/>
-      <c r="W19" s="74"/>
-      <c r="X19" s="74"/>
-      <c r="Y19" s="74"/>
-      <c r="Z19" s="74"/>
-      <c r="AA19" s="74"/>
-      <c r="AB19" s="74"/>
-      <c r="AC19" s="74"/>
-      <c r="AD19" s="74"/>
-      <c r="AE19" s="74"/>
-      <c r="AF19" s="74"/>
-      <c r="AG19" s="74"/>
-      <c r="AH19" s="74"/>
-      <c r="AI19" s="74"/>
-      <c r="AJ19" s="74"/>
-      <c r="AK19" s="74"/>
-      <c r="AL19" s="74"/>
-      <c r="AM19" s="74"/>
-      <c r="AN19" s="74"/>
-      <c r="AO19" s="74"/>
-      <c r="AP19" s="74"/>
-      <c r="AQ19" s="74"/>
-      <c r="AR19" s="74"/>
-      <c r="AS19" s="74"/>
-      <c r="AT19" s="74"/>
-      <c r="AU19" s="74"/>
-      <c r="AV19" s="74"/>
-      <c r="AW19" s="74"/>
-      <c r="AX19" s="74"/>
-      <c r="AY19" s="74"/>
-      <c r="AZ19" s="74"/>
-      <c r="BA19" s="74"/>
-      <c r="BB19" s="74"/>
-      <c r="BC19" s="74"/>
-      <c r="BD19" s="74"/>
-      <c r="BE19" s="74"/>
-      <c r="BF19" s="74"/>
-      <c r="BG19" s="74"/>
-      <c r="BH19" s="74"/>
-      <c r="BI19" s="74"/>
+      <c r="A19" s="91"/>
+      <c r="B19" s="91"/>
+      <c r="C19" s="91"/>
+      <c r="D19" s="91"/>
+      <c r="E19" s="91"/>
+      <c r="F19" s="91"/>
+      <c r="G19" s="91"/>
+      <c r="H19" s="91"/>
+      <c r="I19" s="91"/>
+      <c r="J19" s="91"/>
+      <c r="K19" s="91"/>
+      <c r="L19" s="91"/>
+      <c r="M19" s="91"/>
+      <c r="N19" s="91"/>
+      <c r="O19" s="91"/>
+      <c r="P19" s="91"/>
+      <c r="Q19" s="91"/>
+      <c r="R19" s="91"/>
+      <c r="S19" s="91"/>
+      <c r="T19" s="91"/>
+      <c r="U19" s="91"/>
+      <c r="V19" s="91"/>
+      <c r="W19" s="91"/>
+      <c r="X19" s="91"/>
+      <c r="Y19" s="91"/>
+      <c r="Z19" s="91"/>
+      <c r="AA19" s="91"/>
+      <c r="AB19" s="91"/>
+      <c r="AC19" s="91"/>
+      <c r="AD19" s="91"/>
+      <c r="AE19" s="91"/>
+      <c r="AF19" s="91"/>
+      <c r="AG19" s="91"/>
+      <c r="AH19" s="91"/>
+      <c r="AI19" s="91"/>
+      <c r="AJ19" s="91"/>
+      <c r="AK19" s="91"/>
+      <c r="AL19" s="91"/>
+      <c r="AM19" s="91"/>
+      <c r="AN19" s="91"/>
+      <c r="AO19" s="91"/>
+      <c r="AP19" s="91"/>
+      <c r="AQ19" s="91"/>
+      <c r="AR19" s="91"/>
+      <c r="AS19" s="91"/>
+      <c r="AT19" s="91"/>
+      <c r="AU19" s="91"/>
+      <c r="AV19" s="91"/>
+      <c r="AW19" s="91"/>
+      <c r="AX19" s="91"/>
+      <c r="AY19" s="91"/>
+      <c r="AZ19" s="91"/>
+      <c r="BA19" s="91"/>
+      <c r="BB19" s="91"/>
+      <c r="BC19" s="91"/>
+      <c r="BD19" s="91"/>
+      <c r="BE19" s="91"/>
+      <c r="BF19" s="91"/>
+      <c r="BG19" s="91"/>
+      <c r="BH19" s="91"/>
+      <c r="BI19" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="47">
@@ -3443,7 +3557,7 @@
   <dimension ref="A1:IX35"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3452,85 +3566,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="81" t="s">
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="80" t="s">
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="97" t="s">
+        <v>47</v>
+      </c>
+      <c r="S1" s="97"/>
+      <c r="T1" s="97"/>
+      <c r="U1" s="97"/>
+      <c r="V1" s="97"/>
+      <c r="W1" s="97"/>
+      <c r="X1" s="97"/>
+      <c r="Y1" s="97"/>
+      <c r="Z1" s="97"/>
+      <c r="AA1" s="97"/>
+      <c r="AB1" s="98" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC1" s="98"/>
+      <c r="AD1" s="98"/>
+      <c r="AE1" s="97" t="s">
         <v>49</v>
       </c>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
-      <c r="W1" s="80"/>
-      <c r="X1" s="80"/>
-      <c r="Y1" s="80"/>
-      <c r="Z1" s="80"/>
-      <c r="AA1" s="80"/>
-      <c r="AB1" s="81" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC1" s="81"/>
-      <c r="AD1" s="81"/>
-      <c r="AE1" s="80" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF1" s="80"/>
-      <c r="AG1" s="80"/>
-      <c r="AH1" s="80"/>
-      <c r="AI1" s="80"/>
-      <c r="AJ1" s="80"/>
-      <c r="AK1" s="80"/>
-      <c r="AL1" s="80"/>
-      <c r="AM1" s="80"/>
-      <c r="AN1" s="80"/>
-      <c r="AO1" s="80"/>
-      <c r="AP1" s="80"/>
-      <c r="AQ1" s="81" t="s">
+      <c r="AF1" s="97"/>
+      <c r="AG1" s="97"/>
+      <c r="AH1" s="97"/>
+      <c r="AI1" s="97"/>
+      <c r="AJ1" s="97"/>
+      <c r="AK1" s="97"/>
+      <c r="AL1" s="97"/>
+      <c r="AM1" s="97"/>
+      <c r="AN1" s="97"/>
+      <c r="AO1" s="97"/>
+      <c r="AP1" s="97"/>
+      <c r="AQ1" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="AR1" s="81"/>
-      <c r="AS1" s="81"/>
-      <c r="AT1" s="80" t="s">
-        <v>53</v>
+      <c r="AR1" s="98"/>
+      <c r="AS1" s="98"/>
+      <c r="AT1" s="97" t="s">
+        <v>50</v>
       </c>
-      <c r="AU1" s="80"/>
-      <c r="AV1" s="80"/>
-      <c r="AW1" s="80"/>
-      <c r="AX1" s="80"/>
-      <c r="AY1" s="80"/>
-      <c r="AZ1" s="80"/>
-      <c r="BA1" s="81" t="s">
+      <c r="AU1" s="97"/>
+      <c r="AV1" s="97"/>
+      <c r="AW1" s="97"/>
+      <c r="AX1" s="97"/>
+      <c r="AY1" s="97"/>
+      <c r="AZ1" s="97"/>
+      <c r="BA1" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="BB1" s="81"/>
-      <c r="BC1" s="81"/>
-      <c r="BD1" s="78">
+      <c r="BB1" s="98"/>
+      <c r="BC1" s="98"/>
+      <c r="BD1" s="96">
         <v>45537</v>
       </c>
-      <c r="BE1" s="78"/>
-      <c r="BF1" s="78"/>
-      <c r="BG1" s="78"/>
-      <c r="BH1" s="78"/>
-      <c r="BI1" s="78"/>
+      <c r="BE1" s="96"/>
+      <c r="BF1" s="96"/>
+      <c r="BG1" s="96"/>
+      <c r="BH1" s="96"/>
+      <c r="BI1" s="96"/>
       <c r="BJ1"/>
       <c r="BK1"/>
       <c r="BL1"/>
@@ -3730,81 +3844,81 @@
       <c r="IX1"/>
     </row>
     <row r="2" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="83"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="81" t="s">
+      <c r="A2" s="100"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="81"/>
-      <c r="O2" s="81"/>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="82"/>
-      <c r="S2" s="82"/>
-      <c r="T2" s="82"/>
-      <c r="U2" s="82"/>
-      <c r="V2" s="82"/>
-      <c r="W2" s="82"/>
-      <c r="X2" s="82"/>
-      <c r="Y2" s="82"/>
-      <c r="Z2" s="82"/>
-      <c r="AA2" s="82"/>
-      <c r="AB2" s="81" t="s">
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="99"/>
+      <c r="S2" s="99"/>
+      <c r="T2" s="99"/>
+      <c r="U2" s="99"/>
+      <c r="V2" s="99"/>
+      <c r="W2" s="99"/>
+      <c r="X2" s="99"/>
+      <c r="Y2" s="99"/>
+      <c r="Z2" s="99"/>
+      <c r="AA2" s="99"/>
+      <c r="AB2" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="AC2" s="81"/>
-      <c r="AD2" s="81"/>
-      <c r="AE2" s="80" t="s">
-        <v>52</v>
+      <c r="AC2" s="98"/>
+      <c r="AD2" s="98"/>
+      <c r="AE2" s="97" t="s">
+        <v>83</v>
       </c>
-      <c r="AF2" s="80"/>
-      <c r="AG2" s="80"/>
-      <c r="AH2" s="80"/>
-      <c r="AI2" s="80"/>
-      <c r="AJ2" s="80"/>
-      <c r="AK2" s="80"/>
-      <c r="AL2" s="80"/>
-      <c r="AM2" s="80"/>
-      <c r="AN2" s="80"/>
-      <c r="AO2" s="80"/>
-      <c r="AP2" s="80"/>
-      <c r="AQ2" s="81" t="s">
+      <c r="AF2" s="97"/>
+      <c r="AG2" s="97"/>
+      <c r="AH2" s="97"/>
+      <c r="AI2" s="97"/>
+      <c r="AJ2" s="97"/>
+      <c r="AK2" s="97"/>
+      <c r="AL2" s="97"/>
+      <c r="AM2" s="97"/>
+      <c r="AN2" s="97"/>
+      <c r="AO2" s="97"/>
+      <c r="AP2" s="97"/>
+      <c r="AQ2" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="AR2" s="81"/>
-      <c r="AS2" s="81"/>
-      <c r="AT2" s="80" t="s">
-        <v>53</v>
+      <c r="AR2" s="98"/>
+      <c r="AS2" s="98"/>
+      <c r="AT2" s="97" t="s">
+        <v>50</v>
       </c>
-      <c r="AU2" s="80"/>
-      <c r="AV2" s="80"/>
-      <c r="AW2" s="80"/>
-      <c r="AX2" s="80"/>
-      <c r="AY2" s="80"/>
-      <c r="AZ2" s="80"/>
-      <c r="BA2" s="81" t="s">
+      <c r="AU2" s="97"/>
+      <c r="AV2" s="97"/>
+      <c r="AW2" s="97"/>
+      <c r="AX2" s="97"/>
+      <c r="AY2" s="97"/>
+      <c r="AZ2" s="97"/>
+      <c r="BA2" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="BB2" s="81"/>
-      <c r="BC2" s="81"/>
-      <c r="BD2" s="78">
-        <v>45561</v>
+      <c r="BB2" s="98"/>
+      <c r="BC2" s="98"/>
+      <c r="BD2" s="96">
+        <v>45566</v>
       </c>
-      <c r="BE2" s="78"/>
-      <c r="BF2" s="78"/>
-      <c r="BG2" s="78"/>
-      <c r="BH2" s="78"/>
-      <c r="BI2" s="78"/>
+      <c r="BE2" s="96"/>
+      <c r="BF2" s="96"/>
+      <c r="BG2" s="96"/>
+      <c r="BH2" s="96"/>
+      <c r="BI2" s="96"/>
       <c r="BJ2"/>
       <c r="BK2"/>
       <c r="BL2"/>
@@ -4004,71 +4118,71 @@
       <c r="IX2"/>
     </row>
     <row r="4" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="79" t="s">
-        <v>50</v>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="95" t="s">
+        <v>48</v>
       </c>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="79"/>
-      <c r="L4" s="79"/>
-      <c r="M4" s="79"/>
-      <c r="N4" s="79"/>
-      <c r="O4" s="79"/>
-      <c r="P4" s="79"/>
-      <c r="Q4" s="79"/>
-      <c r="R4" s="79"/>
-      <c r="S4" s="79"/>
-      <c r="T4" s="79"/>
-      <c r="U4" s="79"/>
-      <c r="V4" s="79"/>
-      <c r="W4" s="79"/>
-      <c r="X4" s="79"/>
-      <c r="Y4" s="79"/>
-      <c r="Z4" s="79"/>
-      <c r="AA4" s="79"/>
-      <c r="AB4" s="79"/>
-      <c r="AC4" s="79"/>
-      <c r="AD4" s="79"/>
-      <c r="AE4" s="79"/>
-      <c r="AF4" s="79"/>
-      <c r="AG4" s="79"/>
-      <c r="AH4" s="79"/>
-      <c r="AI4" s="79"/>
-      <c r="AJ4" s="79"/>
-      <c r="AK4" s="79"/>
-      <c r="AL4" s="79"/>
-      <c r="AM4" s="79"/>
-      <c r="AN4" s="79"/>
-      <c r="AO4" s="79"/>
-      <c r="AP4" s="79"/>
-      <c r="AQ4" s="79"/>
-      <c r="AR4" s="79"/>
-      <c r="AS4" s="79"/>
-      <c r="AT4" s="79"/>
-      <c r="AU4" s="79"/>
-      <c r="AV4" s="79"/>
-      <c r="AW4" s="79"/>
-      <c r="AX4" s="79"/>
-      <c r="AY4" s="79"/>
-      <c r="AZ4" s="79"/>
-      <c r="BA4" s="79"/>
-      <c r="BB4" s="79"/>
-      <c r="BC4" s="79"/>
-      <c r="BD4" s="79"/>
-      <c r="BE4" s="79"/>
-      <c r="BF4" s="79"/>
-      <c r="BG4" s="79"/>
-      <c r="BH4" s="79"/>
-      <c r="BI4" s="79"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="95"/>
+      <c r="Q4" s="95"/>
+      <c r="R4" s="95"/>
+      <c r="S4" s="95"/>
+      <c r="T4" s="95"/>
+      <c r="U4" s="95"/>
+      <c r="V4" s="95"/>
+      <c r="W4" s="95"/>
+      <c r="X4" s="95"/>
+      <c r="Y4" s="95"/>
+      <c r="Z4" s="95"/>
+      <c r="AA4" s="95"/>
+      <c r="AB4" s="95"/>
+      <c r="AC4" s="95"/>
+      <c r="AD4" s="95"/>
+      <c r="AE4" s="95"/>
+      <c r="AF4" s="95"/>
+      <c r="AG4" s="95"/>
+      <c r="AH4" s="95"/>
+      <c r="AI4" s="95"/>
+      <c r="AJ4" s="95"/>
+      <c r="AK4" s="95"/>
+      <c r="AL4" s="95"/>
+      <c r="AM4" s="95"/>
+      <c r="AN4" s="95"/>
+      <c r="AO4" s="95"/>
+      <c r="AP4" s="95"/>
+      <c r="AQ4" s="95"/>
+      <c r="AR4" s="95"/>
+      <c r="AS4" s="95"/>
+      <c r="AT4" s="95"/>
+      <c r="AU4" s="95"/>
+      <c r="AV4" s="95"/>
+      <c r="AW4" s="95"/>
+      <c r="AX4" s="95"/>
+      <c r="AY4" s="95"/>
+      <c r="AZ4" s="95"/>
+      <c r="BA4" s="95"/>
+      <c r="BB4" s="95"/>
+      <c r="BC4" s="95"/>
+      <c r="BD4" s="95"/>
+      <c r="BE4" s="95"/>
+      <c r="BF4" s="95"/>
+      <c r="BG4" s="95"/>
+      <c r="BH4" s="95"/>
+      <c r="BI4" s="95"/>
       <c r="BJ4"/>
       <c r="BK4"/>
       <c r="BL4"/>
@@ -4268,71 +4382,71 @@
       <c r="IX4"/>
     </row>
     <row r="5" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="79" t="s">
-        <v>52</v>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="95" t="s">
+        <v>83</v>
       </c>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="79"/>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="79"/>
-      <c r="T5" s="79"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
-      <c r="W5" s="79"/>
-      <c r="X5" s="79"/>
-      <c r="Y5" s="79"/>
-      <c r="Z5" s="79"/>
-      <c r="AA5" s="79"/>
-      <c r="AB5" s="79"/>
-      <c r="AC5" s="79"/>
-      <c r="AD5" s="79"/>
-      <c r="AE5" s="79"/>
-      <c r="AF5" s="79"/>
-      <c r="AG5" s="79"/>
-      <c r="AH5" s="79"/>
-      <c r="AI5" s="79"/>
-      <c r="AJ5" s="79"/>
-      <c r="AK5" s="79"/>
-      <c r="AL5" s="79"/>
-      <c r="AM5" s="79"/>
-      <c r="AN5" s="79"/>
-      <c r="AO5" s="79"/>
-      <c r="AP5" s="79"/>
-      <c r="AQ5" s="79"/>
-      <c r="AR5" s="79"/>
-      <c r="AS5" s="79"/>
-      <c r="AT5" s="79"/>
-      <c r="AU5" s="79"/>
-      <c r="AV5" s="79"/>
-      <c r="AW5" s="79"/>
-      <c r="AX5" s="79"/>
-      <c r="AY5" s="79"/>
-      <c r="AZ5" s="79"/>
-      <c r="BA5" s="79"/>
-      <c r="BB5" s="79"/>
-      <c r="BC5" s="79"/>
-      <c r="BD5" s="79"/>
-      <c r="BE5" s="79"/>
-      <c r="BF5" s="79"/>
-      <c r="BG5" s="79"/>
-      <c r="BH5" s="79"/>
-      <c r="BI5" s="79"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="95"/>
+      <c r="L5" s="95"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="95"/>
+      <c r="Q5" s="95"/>
+      <c r="R5" s="95"/>
+      <c r="S5" s="95"/>
+      <c r="T5" s="95"/>
+      <c r="U5" s="95"/>
+      <c r="V5" s="95"/>
+      <c r="W5" s="95"/>
+      <c r="X5" s="95"/>
+      <c r="Y5" s="95"/>
+      <c r="Z5" s="95"/>
+      <c r="AA5" s="95"/>
+      <c r="AB5" s="95"/>
+      <c r="AC5" s="95"/>
+      <c r="AD5" s="95"/>
+      <c r="AE5" s="95"/>
+      <c r="AF5" s="95"/>
+      <c r="AG5" s="95"/>
+      <c r="AH5" s="95"/>
+      <c r="AI5" s="95"/>
+      <c r="AJ5" s="95"/>
+      <c r="AK5" s="95"/>
+      <c r="AL5" s="95"/>
+      <c r="AM5" s="95"/>
+      <c r="AN5" s="95"/>
+      <c r="AO5" s="95"/>
+      <c r="AP5" s="95"/>
+      <c r="AQ5" s="95"/>
+      <c r="AR5" s="95"/>
+      <c r="AS5" s="95"/>
+      <c r="AT5" s="95"/>
+      <c r="AU5" s="95"/>
+      <c r="AV5" s="95"/>
+      <c r="AW5" s="95"/>
+      <c r="AX5" s="95"/>
+      <c r="AY5" s="95"/>
+      <c r="AZ5" s="95"/>
+      <c r="BA5" s="95"/>
+      <c r="BB5" s="95"/>
+      <c r="BC5" s="95"/>
+      <c r="BD5" s="95"/>
+      <c r="BE5" s="95"/>
+      <c r="BF5" s="95"/>
+      <c r="BG5" s="95"/>
+      <c r="BH5" s="95"/>
+      <c r="BI5" s="95"/>
       <c r="BJ5"/>
       <c r="BK5"/>
       <c r="BL5"/>
@@ -4731,75 +4845,75 @@
       <c r="IX6"/>
     </row>
     <row r="7" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="75" t="s">
+      <c r="A7" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="75"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75" t="s">
+      <c r="B7" s="94"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="75"/>
-      <c r="L7" s="75"/>
-      <c r="M7" s="75"/>
-      <c r="N7" s="75"/>
-      <c r="O7" s="75"/>
-      <c r="P7" s="75" t="s">
+      <c r="E7" s="94"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="94"/>
+      <c r="H7" s="94"/>
+      <c r="I7" s="94"/>
+      <c r="J7" s="94"/>
+      <c r="K7" s="94"/>
+      <c r="L7" s="94"/>
+      <c r="M7" s="94"/>
+      <c r="N7" s="94"/>
+      <c r="O7" s="94"/>
+      <c r="P7" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="Q7" s="75"/>
-      <c r="R7" s="75"/>
-      <c r="S7" s="75"/>
-      <c r="T7" s="75"/>
-      <c r="U7" s="75"/>
-      <c r="V7" s="75"/>
-      <c r="W7" s="75"/>
-      <c r="X7" s="75"/>
-      <c r="Y7" s="75"/>
-      <c r="Z7" s="75"/>
-      <c r="AA7" s="75"/>
-      <c r="AB7" s="75"/>
-      <c r="AC7" s="75"/>
-      <c r="AD7" s="75"/>
-      <c r="AE7" s="75" t="s">
+      <c r="Q7" s="94"/>
+      <c r="R7" s="94"/>
+      <c r="S7" s="94"/>
+      <c r="T7" s="94"/>
+      <c r="U7" s="94"/>
+      <c r="V7" s="94"/>
+      <c r="W7" s="94"/>
+      <c r="X7" s="94"/>
+      <c r="Y7" s="94"/>
+      <c r="Z7" s="94"/>
+      <c r="AA7" s="94"/>
+      <c r="AB7" s="94"/>
+      <c r="AC7" s="94"/>
+      <c r="AD7" s="94"/>
+      <c r="AE7" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="AF7" s="75"/>
-      <c r="AG7" s="75"/>
-      <c r="AH7" s="75"/>
-      <c r="AI7" s="75"/>
-      <c r="AJ7" s="75"/>
-      <c r="AK7" s="75"/>
-      <c r="AL7" s="75"/>
-      <c r="AM7" s="75"/>
-      <c r="AN7" s="75"/>
-      <c r="AO7" s="75"/>
-      <c r="AP7" s="75"/>
-      <c r="AQ7" s="75"/>
-      <c r="AR7" s="75"/>
-      <c r="AS7" s="75"/>
-      <c r="AT7" s="75"/>
-      <c r="AU7" s="75"/>
-      <c r="AV7" s="75"/>
-      <c r="AW7" s="75"/>
-      <c r="AX7" s="75"/>
-      <c r="AY7" s="75"/>
-      <c r="AZ7" s="75"/>
-      <c r="BA7" s="75"/>
-      <c r="BB7" s="75"/>
-      <c r="BC7" s="75"/>
-      <c r="BD7" s="75"/>
-      <c r="BE7" s="75"/>
-      <c r="BF7" s="75"/>
-      <c r="BG7" s="75"/>
-      <c r="BH7" s="75"/>
-      <c r="BI7" s="75"/>
+      <c r="AF7" s="94"/>
+      <c r="AG7" s="94"/>
+      <c r="AH7" s="94"/>
+      <c r="AI7" s="94"/>
+      <c r="AJ7" s="94"/>
+      <c r="AK7" s="94"/>
+      <c r="AL7" s="94"/>
+      <c r="AM7" s="94"/>
+      <c r="AN7" s="94"/>
+      <c r="AO7" s="94"/>
+      <c r="AP7" s="94"/>
+      <c r="AQ7" s="94"/>
+      <c r="AR7" s="94"/>
+      <c r="AS7" s="94"/>
+      <c r="AT7" s="94"/>
+      <c r="AU7" s="94"/>
+      <c r="AV7" s="94"/>
+      <c r="AW7" s="94"/>
+      <c r="AX7" s="94"/>
+      <c r="AY7" s="94"/>
+      <c r="AZ7" s="94"/>
+      <c r="BA7" s="94"/>
+      <c r="BB7" s="94"/>
+      <c r="BC7" s="94"/>
+      <c r="BD7" s="94"/>
+      <c r="BE7" s="94"/>
+      <c r="BF7" s="94"/>
+      <c r="BG7" s="94"/>
+      <c r="BH7" s="94"/>
+      <c r="BI7" s="94"/>
       <c r="BJ7"/>
       <c r="BK7"/>
       <c r="BL7"/>
@@ -4999,75 +5113,75 @@
       <c r="IX7"/>
     </row>
     <row r="8" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="76"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="77" t="s">
-        <v>54</v>
+      <c r="B8" s="92"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="93" t="s">
+        <v>51</v>
       </c>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="77"/>
-      <c r="L8" s="77"/>
-      <c r="M8" s="77"/>
-      <c r="N8" s="77"/>
-      <c r="O8" s="77"/>
-      <c r="P8" s="77" t="s">
-        <v>55</v>
+      <c r="E8" s="93"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="93"/>
+      <c r="J8" s="93"/>
+      <c r="K8" s="93"/>
+      <c r="L8" s="93"/>
+      <c r="M8" s="93"/>
+      <c r="N8" s="93"/>
+      <c r="O8" s="93"/>
+      <c r="P8" s="93" t="s">
+        <v>52</v>
       </c>
-      <c r="Q8" s="77"/>
-      <c r="R8" s="77"/>
-      <c r="S8" s="77"/>
-      <c r="T8" s="77"/>
-      <c r="U8" s="77"/>
-      <c r="V8" s="77"/>
-      <c r="W8" s="77"/>
-      <c r="X8" s="77"/>
-      <c r="Y8" s="77"/>
-      <c r="Z8" s="77"/>
-      <c r="AA8" s="77"/>
-      <c r="AB8" s="77"/>
-      <c r="AC8" s="77"/>
-      <c r="AD8" s="77"/>
-      <c r="AE8" s="77" t="s">
-        <v>56</v>
+      <c r="Q8" s="93"/>
+      <c r="R8" s="93"/>
+      <c r="S8" s="93"/>
+      <c r="T8" s="93"/>
+      <c r="U8" s="93"/>
+      <c r="V8" s="93"/>
+      <c r="W8" s="93"/>
+      <c r="X8" s="93"/>
+      <c r="Y8" s="93"/>
+      <c r="Z8" s="93"/>
+      <c r="AA8" s="93"/>
+      <c r="AB8" s="93"/>
+      <c r="AC8" s="93"/>
+      <c r="AD8" s="93"/>
+      <c r="AE8" s="93" t="s">
+        <v>82</v>
       </c>
-      <c r="AF8" s="77"/>
-      <c r="AG8" s="77"/>
-      <c r="AH8" s="77"/>
-      <c r="AI8" s="77"/>
-      <c r="AJ8" s="77"/>
-      <c r="AK8" s="77"/>
-      <c r="AL8" s="77"/>
-      <c r="AM8" s="77"/>
-      <c r="AN8" s="77"/>
-      <c r="AO8" s="77"/>
-      <c r="AP8" s="77"/>
-      <c r="AQ8" s="77"/>
-      <c r="AR8" s="77"/>
-      <c r="AS8" s="77"/>
-      <c r="AT8" s="77"/>
-      <c r="AU8" s="77"/>
-      <c r="AV8" s="77"/>
-      <c r="AW8" s="77"/>
-      <c r="AX8" s="77"/>
-      <c r="AY8" s="77"/>
-      <c r="AZ8" s="77"/>
-      <c r="BA8" s="77"/>
-      <c r="BB8" s="77"/>
-      <c r="BC8" s="77"/>
-      <c r="BD8" s="77"/>
-      <c r="BE8" s="77"/>
-      <c r="BF8" s="77"/>
-      <c r="BG8" s="77"/>
-      <c r="BH8" s="77"/>
-      <c r="BI8" s="77"/>
+      <c r="AF8" s="93"/>
+      <c r="AG8" s="93"/>
+      <c r="AH8" s="93"/>
+      <c r="AI8" s="93"/>
+      <c r="AJ8" s="93"/>
+      <c r="AK8" s="93"/>
+      <c r="AL8" s="93"/>
+      <c r="AM8" s="93"/>
+      <c r="AN8" s="93"/>
+      <c r="AO8" s="93"/>
+      <c r="AP8" s="93"/>
+      <c r="AQ8" s="93"/>
+      <c r="AR8" s="93"/>
+      <c r="AS8" s="93"/>
+      <c r="AT8" s="93"/>
+      <c r="AU8" s="93"/>
+      <c r="AV8" s="93"/>
+      <c r="AW8" s="93"/>
+      <c r="AX8" s="93"/>
+      <c r="AY8" s="93"/>
+      <c r="AZ8" s="93"/>
+      <c r="BA8" s="93"/>
+      <c r="BB8" s="93"/>
+      <c r="BC8" s="93"/>
+      <c r="BD8" s="93"/>
+      <c r="BE8" s="93"/>
+      <c r="BF8" s="93"/>
+      <c r="BG8" s="93"/>
+      <c r="BH8" s="93"/>
+      <c r="BI8" s="93"/>
       <c r="BJ8"/>
       <c r="BK8"/>
       <c r="BL8"/>
@@ -5267,67 +5381,67 @@
       <c r="IX8"/>
     </row>
     <row r="9" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="76"/>
-      <c r="B9" s="76"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="77"/>
-      <c r="M9" s="77"/>
-      <c r="N9" s="77"/>
-      <c r="O9" s="77"/>
-      <c r="P9" s="77"/>
-      <c r="Q9" s="77"/>
-      <c r="R9" s="77"/>
-      <c r="S9" s="77"/>
-      <c r="T9" s="77"/>
-      <c r="U9" s="77"/>
-      <c r="V9" s="77"/>
-      <c r="W9" s="77"/>
-      <c r="X9" s="77"/>
-      <c r="Y9" s="77"/>
-      <c r="Z9" s="77"/>
-      <c r="AA9" s="77"/>
-      <c r="AB9" s="77"/>
-      <c r="AC9" s="77"/>
-      <c r="AD9" s="77"/>
-      <c r="AE9" s="77"/>
-      <c r="AF9" s="77"/>
-      <c r="AG9" s="77"/>
-      <c r="AH9" s="77"/>
-      <c r="AI9" s="77"/>
-      <c r="AJ9" s="77"/>
-      <c r="AK9" s="77"/>
-      <c r="AL9" s="77"/>
-      <c r="AM9" s="77"/>
-      <c r="AN9" s="77"/>
-      <c r="AO9" s="77"/>
-      <c r="AP9" s="77"/>
-      <c r="AQ9" s="77"/>
-      <c r="AR9" s="77"/>
-      <c r="AS9" s="77"/>
-      <c r="AT9" s="77"/>
-      <c r="AU9" s="77"/>
-      <c r="AV9" s="77"/>
-      <c r="AW9" s="77"/>
-      <c r="AX9" s="77"/>
-      <c r="AY9" s="77"/>
-      <c r="AZ9" s="77"/>
-      <c r="BA9" s="77"/>
-      <c r="BB9" s="77"/>
-      <c r="BC9" s="77"/>
-      <c r="BD9" s="77"/>
-      <c r="BE9" s="77"/>
-      <c r="BF9" s="77"/>
-      <c r="BG9" s="77"/>
-      <c r="BH9" s="77"/>
-      <c r="BI9" s="77"/>
+      <c r="A9" s="92"/>
+      <c r="B9" s="92"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="93"/>
+      <c r="K9" s="93"/>
+      <c r="L9" s="93"/>
+      <c r="M9" s="93"/>
+      <c r="N9" s="93"/>
+      <c r="O9" s="93"/>
+      <c r="P9" s="93"/>
+      <c r="Q9" s="93"/>
+      <c r="R9" s="93"/>
+      <c r="S9" s="93"/>
+      <c r="T9" s="93"/>
+      <c r="U9" s="93"/>
+      <c r="V9" s="93"/>
+      <c r="W9" s="93"/>
+      <c r="X9" s="93"/>
+      <c r="Y9" s="93"/>
+      <c r="Z9" s="93"/>
+      <c r="AA9" s="93"/>
+      <c r="AB9" s="93"/>
+      <c r="AC9" s="93"/>
+      <c r="AD9" s="93"/>
+      <c r="AE9" s="93"/>
+      <c r="AF9" s="93"/>
+      <c r="AG9" s="93"/>
+      <c r="AH9" s="93"/>
+      <c r="AI9" s="93"/>
+      <c r="AJ9" s="93"/>
+      <c r="AK9" s="93"/>
+      <c r="AL9" s="93"/>
+      <c r="AM9" s="93"/>
+      <c r="AN9" s="93"/>
+      <c r="AO9" s="93"/>
+      <c r="AP9" s="93"/>
+      <c r="AQ9" s="93"/>
+      <c r="AR9" s="93"/>
+      <c r="AS9" s="93"/>
+      <c r="AT9" s="93"/>
+      <c r="AU9" s="93"/>
+      <c r="AV9" s="93"/>
+      <c r="AW9" s="93"/>
+      <c r="AX9" s="93"/>
+      <c r="AY9" s="93"/>
+      <c r="AZ9" s="93"/>
+      <c r="BA9" s="93"/>
+      <c r="BB9" s="93"/>
+      <c r="BC9" s="93"/>
+      <c r="BD9" s="93"/>
+      <c r="BE9" s="93"/>
+      <c r="BF9" s="93"/>
+      <c r="BG9" s="93"/>
+      <c r="BH9" s="93"/>
+      <c r="BI9" s="93"/>
       <c r="BJ9"/>
       <c r="BK9"/>
       <c r="BL9"/>
@@ -5527,67 +5641,67 @@
       <c r="IX9"/>
     </row>
     <row r="10" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="76"/>
-      <c r="B10" s="76"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="76"/>
-      <c r="L10" s="76"/>
-      <c r="M10" s="76"/>
-      <c r="N10" s="76"/>
-      <c r="O10" s="76"/>
-      <c r="P10" s="76"/>
-      <c r="Q10" s="76"/>
-      <c r="R10" s="76"/>
-      <c r="S10" s="76"/>
-      <c r="T10" s="76"/>
-      <c r="U10" s="76"/>
-      <c r="V10" s="76"/>
-      <c r="W10" s="76"/>
-      <c r="X10" s="76"/>
-      <c r="Y10" s="76"/>
-      <c r="Z10" s="76"/>
-      <c r="AA10" s="76"/>
-      <c r="AB10" s="76"/>
-      <c r="AC10" s="76"/>
-      <c r="AD10" s="76"/>
-      <c r="AE10" s="76"/>
-      <c r="AF10" s="76"/>
-      <c r="AG10" s="76"/>
-      <c r="AH10" s="76"/>
-      <c r="AI10" s="76"/>
-      <c r="AJ10" s="76"/>
-      <c r="AK10" s="76"/>
-      <c r="AL10" s="76"/>
-      <c r="AM10" s="76"/>
-      <c r="AN10" s="76"/>
-      <c r="AO10" s="76"/>
-      <c r="AP10" s="76"/>
-      <c r="AQ10" s="76"/>
-      <c r="AR10" s="76"/>
-      <c r="AS10" s="76"/>
-      <c r="AT10" s="76"/>
-      <c r="AU10" s="76"/>
-      <c r="AV10" s="76"/>
-      <c r="AW10" s="76"/>
-      <c r="AX10" s="76"/>
-      <c r="AY10" s="76"/>
-      <c r="AZ10" s="76"/>
-      <c r="BA10" s="76"/>
-      <c r="BB10" s="76"/>
-      <c r="BC10" s="76"/>
-      <c r="BD10" s="76"/>
-      <c r="BE10" s="76"/>
-      <c r="BF10" s="76"/>
-      <c r="BG10" s="76"/>
-      <c r="BH10" s="76"/>
-      <c r="BI10" s="76"/>
+      <c r="A10" s="92"/>
+      <c r="B10" s="92"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="92"/>
+      <c r="J10" s="92"/>
+      <c r="K10" s="92"/>
+      <c r="L10" s="92"/>
+      <c r="M10" s="92"/>
+      <c r="N10" s="92"/>
+      <c r="O10" s="92"/>
+      <c r="P10" s="92"/>
+      <c r="Q10" s="92"/>
+      <c r="R10" s="92"/>
+      <c r="S10" s="92"/>
+      <c r="T10" s="92"/>
+      <c r="U10" s="92"/>
+      <c r="V10" s="92"/>
+      <c r="W10" s="92"/>
+      <c r="X10" s="92"/>
+      <c r="Y10" s="92"/>
+      <c r="Z10" s="92"/>
+      <c r="AA10" s="92"/>
+      <c r="AB10" s="92"/>
+      <c r="AC10" s="92"/>
+      <c r="AD10" s="92"/>
+      <c r="AE10" s="92"/>
+      <c r="AF10" s="92"/>
+      <c r="AG10" s="92"/>
+      <c r="AH10" s="92"/>
+      <c r="AI10" s="92"/>
+      <c r="AJ10" s="92"/>
+      <c r="AK10" s="92"/>
+      <c r="AL10" s="92"/>
+      <c r="AM10" s="92"/>
+      <c r="AN10" s="92"/>
+      <c r="AO10" s="92"/>
+      <c r="AP10" s="92"/>
+      <c r="AQ10" s="92"/>
+      <c r="AR10" s="92"/>
+      <c r="AS10" s="92"/>
+      <c r="AT10" s="92"/>
+      <c r="AU10" s="92"/>
+      <c r="AV10" s="92"/>
+      <c r="AW10" s="92"/>
+      <c r="AX10" s="92"/>
+      <c r="AY10" s="92"/>
+      <c r="AZ10" s="92"/>
+      <c r="BA10" s="92"/>
+      <c r="BB10" s="92"/>
+      <c r="BC10" s="92"/>
+      <c r="BD10" s="92"/>
+      <c r="BE10" s="92"/>
+      <c r="BF10" s="92"/>
+      <c r="BG10" s="92"/>
+      <c r="BH10" s="92"/>
+      <c r="BI10" s="92"/>
       <c r="BJ10"/>
       <c r="BK10"/>
       <c r="BL10"/>
@@ -5787,67 +5901,67 @@
       <c r="IX10"/>
     </row>
     <row r="11" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="76"/>
-      <c r="B11" s="76"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="76"/>
-      <c r="K11" s="76"/>
-      <c r="L11" s="76"/>
-      <c r="M11" s="76"/>
-      <c r="N11" s="76"/>
-      <c r="O11" s="76"/>
-      <c r="P11" s="76"/>
-      <c r="Q11" s="76"/>
-      <c r="R11" s="76"/>
-      <c r="S11" s="76"/>
-      <c r="T11" s="76"/>
-      <c r="U11" s="76"/>
-      <c r="V11" s="76"/>
-      <c r="W11" s="76"/>
-      <c r="X11" s="76"/>
-      <c r="Y11" s="76"/>
-      <c r="Z11" s="76"/>
-      <c r="AA11" s="76"/>
-      <c r="AB11" s="76"/>
-      <c r="AC11" s="76"/>
-      <c r="AD11" s="76"/>
-      <c r="AE11" s="76"/>
-      <c r="AF11" s="76"/>
-      <c r="AG11" s="76"/>
-      <c r="AH11" s="76"/>
-      <c r="AI11" s="76"/>
-      <c r="AJ11" s="76"/>
-      <c r="AK11" s="76"/>
-      <c r="AL11" s="76"/>
-      <c r="AM11" s="76"/>
-      <c r="AN11" s="76"/>
-      <c r="AO11" s="76"/>
-      <c r="AP11" s="76"/>
-      <c r="AQ11" s="76"/>
-      <c r="AR11" s="76"/>
-      <c r="AS11" s="76"/>
-      <c r="AT11" s="76"/>
-      <c r="AU11" s="76"/>
-      <c r="AV11" s="76"/>
-      <c r="AW11" s="76"/>
-      <c r="AX11" s="76"/>
-      <c r="AY11" s="76"/>
-      <c r="AZ11" s="76"/>
-      <c r="BA11" s="76"/>
-      <c r="BB11" s="76"/>
-      <c r="BC11" s="76"/>
-      <c r="BD11" s="76"/>
-      <c r="BE11" s="76"/>
-      <c r="BF11" s="76"/>
-      <c r="BG11" s="76"/>
-      <c r="BH11" s="76"/>
-      <c r="BI11" s="76"/>
+      <c r="A11" s="92"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="92"/>
+      <c r="J11" s="92"/>
+      <c r="K11" s="92"/>
+      <c r="L11" s="92"/>
+      <c r="M11" s="92"/>
+      <c r="N11" s="92"/>
+      <c r="O11" s="92"/>
+      <c r="P11" s="92"/>
+      <c r="Q11" s="92"/>
+      <c r="R11" s="92"/>
+      <c r="S11" s="92"/>
+      <c r="T11" s="92"/>
+      <c r="U11" s="92"/>
+      <c r="V11" s="92"/>
+      <c r="W11" s="92"/>
+      <c r="X11" s="92"/>
+      <c r="Y11" s="92"/>
+      <c r="Z11" s="92"/>
+      <c r="AA11" s="92"/>
+      <c r="AB11" s="92"/>
+      <c r="AC11" s="92"/>
+      <c r="AD11" s="92"/>
+      <c r="AE11" s="92"/>
+      <c r="AF11" s="92"/>
+      <c r="AG11" s="92"/>
+      <c r="AH11" s="92"/>
+      <c r="AI11" s="92"/>
+      <c r="AJ11" s="92"/>
+      <c r="AK11" s="92"/>
+      <c r="AL11" s="92"/>
+      <c r="AM11" s="92"/>
+      <c r="AN11" s="92"/>
+      <c r="AO11" s="92"/>
+      <c r="AP11" s="92"/>
+      <c r="AQ11" s="92"/>
+      <c r="AR11" s="92"/>
+      <c r="AS11" s="92"/>
+      <c r="AT11" s="92"/>
+      <c r="AU11" s="92"/>
+      <c r="AV11" s="92"/>
+      <c r="AW11" s="92"/>
+      <c r="AX11" s="92"/>
+      <c r="AY11" s="92"/>
+      <c r="AZ11" s="92"/>
+      <c r="BA11" s="92"/>
+      <c r="BB11" s="92"/>
+      <c r="BC11" s="92"/>
+      <c r="BD11" s="92"/>
+      <c r="BE11" s="92"/>
+      <c r="BF11" s="92"/>
+      <c r="BG11" s="92"/>
+      <c r="BH11" s="92"/>
+      <c r="BI11" s="92"/>
       <c r="BJ11"/>
       <c r="BK11"/>
       <c r="BL11"/>
@@ -6453,73 +6567,73 @@
       <c r="IX13"/>
     </row>
     <row r="14" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="75" t="s">
+      <c r="A14" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="75"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="75"/>
-      <c r="J14" s="75"/>
-      <c r="K14" s="75"/>
-      <c r="L14" s="75"/>
-      <c r="M14" s="75"/>
-      <c r="N14" s="75"/>
-      <c r="O14" s="75"/>
-      <c r="P14" s="75" t="s">
+      <c r="B14" s="94"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="94"/>
+      <c r="H14" s="94"/>
+      <c r="I14" s="94"/>
+      <c r="J14" s="94"/>
+      <c r="K14" s="94"/>
+      <c r="L14" s="94"/>
+      <c r="M14" s="94"/>
+      <c r="N14" s="94"/>
+      <c r="O14" s="94"/>
+      <c r="P14" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="Q14" s="75"/>
-      <c r="R14" s="75"/>
-      <c r="S14" s="75"/>
-      <c r="T14" s="75"/>
-      <c r="U14" s="75"/>
-      <c r="V14" s="75"/>
-      <c r="W14" s="75"/>
-      <c r="X14" s="75"/>
-      <c r="Y14" s="75"/>
-      <c r="Z14" s="75"/>
-      <c r="AA14" s="75"/>
-      <c r="AB14" s="75"/>
-      <c r="AC14" s="75"/>
-      <c r="AD14" s="75"/>
-      <c r="AE14" s="75"/>
-      <c r="AF14" s="75"/>
-      <c r="AG14" s="75"/>
-      <c r="AH14" s="75"/>
-      <c r="AI14" s="75"/>
-      <c r="AJ14" s="75"/>
-      <c r="AK14" s="75"/>
-      <c r="AL14" s="75"/>
-      <c r="AM14" s="75"/>
-      <c r="AN14" s="75"/>
-      <c r="AO14" s="75"/>
-      <c r="AP14" s="75"/>
-      <c r="AQ14" s="75"/>
-      <c r="AR14" s="75"/>
-      <c r="AS14" s="75"/>
-      <c r="AT14" s="75" t="s">
+      <c r="Q14" s="94"/>
+      <c r="R14" s="94"/>
+      <c r="S14" s="94"/>
+      <c r="T14" s="94"/>
+      <c r="U14" s="94"/>
+      <c r="V14" s="94"/>
+      <c r="W14" s="94"/>
+      <c r="X14" s="94"/>
+      <c r="Y14" s="94"/>
+      <c r="Z14" s="94"/>
+      <c r="AA14" s="94"/>
+      <c r="AB14" s="94"/>
+      <c r="AC14" s="94"/>
+      <c r="AD14" s="94"/>
+      <c r="AE14" s="94"/>
+      <c r="AF14" s="94"/>
+      <c r="AG14" s="94"/>
+      <c r="AH14" s="94"/>
+      <c r="AI14" s="94"/>
+      <c r="AJ14" s="94"/>
+      <c r="AK14" s="94"/>
+      <c r="AL14" s="94"/>
+      <c r="AM14" s="94"/>
+      <c r="AN14" s="94"/>
+      <c r="AO14" s="94"/>
+      <c r="AP14" s="94"/>
+      <c r="AQ14" s="94"/>
+      <c r="AR14" s="94"/>
+      <c r="AS14" s="94"/>
+      <c r="AT14" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="AU14" s="75"/>
-      <c r="AV14" s="75"/>
-      <c r="AW14" s="75"/>
-      <c r="AX14" s="75"/>
-      <c r="AY14" s="75"/>
-      <c r="AZ14" s="75"/>
-      <c r="BA14" s="75"/>
-      <c r="BB14" s="75"/>
-      <c r="BC14" s="75"/>
-      <c r="BD14" s="75"/>
-      <c r="BE14" s="75"/>
-      <c r="BF14" s="75"/>
-      <c r="BG14" s="75"/>
-      <c r="BH14" s="75"/>
-      <c r="BI14" s="75"/>
+      <c r="AU14" s="94"/>
+      <c r="AV14" s="94"/>
+      <c r="AW14" s="94"/>
+      <c r="AX14" s="94"/>
+      <c r="AY14" s="94"/>
+      <c r="AZ14" s="94"/>
+      <c r="BA14" s="94"/>
+      <c r="BB14" s="94"/>
+      <c r="BC14" s="94"/>
+      <c r="BD14" s="94"/>
+      <c r="BE14" s="94"/>
+      <c r="BF14" s="94"/>
+      <c r="BG14" s="94"/>
+      <c r="BH14" s="94"/>
+      <c r="BI14" s="94"/>
       <c r="BJ14"/>
       <c r="BK14"/>
       <c r="BL14"/>
@@ -6720,7 +6834,7 @@
     </row>
     <row r="15" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B15" s="26"/>
       <c r="C15" s="26"/>
@@ -6737,7 +6851,7 @@
       <c r="N15" s="26"/>
       <c r="O15" s="27"/>
       <c r="P15" s="25" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="Q15" s="26"/>
       <c r="R15" s="28"/>
@@ -6999,7 +7113,7 @@
       <c r="O16" s="34"/>
       <c r="P16" s="35"/>
       <c r="Q16" s="33" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R16" s="36"/>
       <c r="S16" s="36"/>
@@ -7260,7 +7374,7 @@
       <c r="O17" s="34"/>
       <c r="P17" s="35"/>
       <c r="Q17" s="39" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="S17" s="40"/>
       <c r="T17" s="36"/>
@@ -12060,27 +12174,23 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="A1:L2"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="BD2:BI2"/>
     <mergeCell ref="R1:AA1"/>
     <mergeCell ref="AB1:AD1"/>
     <mergeCell ref="AE1:AP1"/>
     <mergeCell ref="AQ1:AS1"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:O7"/>
-    <mergeCell ref="P7:AD7"/>
-    <mergeCell ref="AE7:BI7"/>
     <mergeCell ref="AT1:AZ1"/>
     <mergeCell ref="BA1:BC1"/>
     <mergeCell ref="BD1:BI1"/>
-    <mergeCell ref="M2:Q2"/>
     <mergeCell ref="R2:AA2"/>
     <mergeCell ref="AB2:AD2"/>
     <mergeCell ref="AE2:AP2"/>
     <mergeCell ref="AQ2:AS2"/>
     <mergeCell ref="AT2:AZ2"/>
     <mergeCell ref="BA2:BC2"/>
-    <mergeCell ref="A1:L2"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="BD2:BI2"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="G4:BI4"/>
     <mergeCell ref="A5:F5"/>
@@ -12089,6 +12199,10 @@
     <mergeCell ref="D8:O8"/>
     <mergeCell ref="P8:AD8"/>
     <mergeCell ref="AE8:BI8"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:O7"/>
+    <mergeCell ref="P7:AD7"/>
+    <mergeCell ref="AE7:BI7"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="D9:O9"/>
     <mergeCell ref="P9:AD9"/>
@@ -12123,10 +12237,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:IX48"/>
+  <dimension ref="A1:IX51"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12135,85 +12249,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="67" t="s">
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="68" t="s">
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="85" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
+      <c r="W1" s="85"/>
+      <c r="X1" s="85"/>
+      <c r="Y1" s="85"/>
+      <c r="Z1" s="85"/>
+      <c r="AA1" s="85"/>
+      <c r="AB1" s="84" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC1" s="84"/>
+      <c r="AD1" s="84"/>
+      <c r="AE1" s="85" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF1" s="85"/>
+      <c r="AG1" s="85"/>
+      <c r="AH1" s="85"/>
+      <c r="AI1" s="85"/>
+      <c r="AJ1" s="85"/>
+      <c r="AK1" s="85"/>
+      <c r="AL1" s="85"/>
+      <c r="AM1" s="85"/>
+      <c r="AN1" s="85"/>
+      <c r="AO1" s="85"/>
+      <c r="AP1" s="85"/>
+      <c r="AQ1" s="84" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR1" s="84"/>
+      <c r="AS1" s="84"/>
+      <c r="AT1" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
-      <c r="W1" s="68"/>
-      <c r="X1" s="68"/>
-      <c r="Y1" s="68"/>
-      <c r="Z1" s="68"/>
-      <c r="AA1" s="68"/>
-      <c r="AB1" s="67" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC1" s="67"/>
-      <c r="AD1" s="67"/>
-      <c r="AE1" s="68" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF1" s="68"/>
-      <c r="AG1" s="68"/>
-      <c r="AH1" s="68"/>
-      <c r="AI1" s="68"/>
-      <c r="AJ1" s="68"/>
-      <c r="AK1" s="68"/>
-      <c r="AL1" s="68"/>
-      <c r="AM1" s="68"/>
-      <c r="AN1" s="68"/>
-      <c r="AO1" s="68"/>
-      <c r="AP1" s="68"/>
-      <c r="AQ1" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR1" s="67"/>
-      <c r="AS1" s="67"/>
-      <c r="AT1" s="68" t="s">
-        <v>37</v>
-      </c>
-      <c r="AU1" s="68"/>
-      <c r="AV1" s="68"/>
-      <c r="AW1" s="68"/>
-      <c r="AX1" s="68"/>
-      <c r="AY1" s="68"/>
-      <c r="AZ1" s="68"/>
-      <c r="BA1" s="67" t="s">
+      <c r="AU1" s="85"/>
+      <c r="AV1" s="85"/>
+      <c r="AW1" s="85"/>
+      <c r="AX1" s="85"/>
+      <c r="AY1" s="85"/>
+      <c r="AZ1" s="85"/>
+      <c r="BA1" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="BB1" s="67"/>
-      <c r="BC1" s="67"/>
-      <c r="BD1" s="69">
+      <c r="BB1" s="84"/>
+      <c r="BC1" s="84"/>
+      <c r="BD1" s="86">
         <v>45537</v>
       </c>
-      <c r="BE1" s="69"/>
-      <c r="BF1" s="69"/>
-      <c r="BG1" s="69"/>
-      <c r="BH1" s="69"/>
-      <c r="BI1" s="69"/>
+      <c r="BE1" s="86"/>
+      <c r="BF1" s="86"/>
+      <c r="BG1" s="86"/>
+      <c r="BH1" s="86"/>
+      <c r="BI1" s="86"/>
       <c r="BJ1" s="1"/>
       <c r="BK1" s="1"/>
       <c r="BL1" s="1"/>
@@ -12413,82 +12527,82 @@
       <c r="IX1" s="1"/>
     </row>
     <row r="2" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="72"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="67" t="s">
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="73"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="73"/>
-      <c r="V2" s="73"/>
-      <c r="W2" s="73"/>
-      <c r="X2" s="73"/>
-      <c r="Y2" s="73"/>
-      <c r="Z2" s="73"/>
-      <c r="AA2" s="73"/>
-      <c r="AB2" s="67" t="s">
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="90"/>
+      <c r="S2" s="90"/>
+      <c r="T2" s="90"/>
+      <c r="U2" s="90"/>
+      <c r="V2" s="90"/>
+      <c r="W2" s="90"/>
+      <c r="X2" s="90"/>
+      <c r="Y2" s="90"/>
+      <c r="Z2" s="90"/>
+      <c r="AA2" s="90"/>
+      <c r="AB2" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="AC2" s="67"/>
-      <c r="AD2" s="67"/>
-      <c r="AE2" s="68" t="str">
+      <c r="AC2" s="84"/>
+      <c r="AD2" s="84"/>
+      <c r="AE2" s="85" t="str">
         <f>クラス仕様!G5</f>
-        <v>SearchResultServiceImpl</v>
+        <v>SearchResultService</v>
       </c>
-      <c r="AF2" s="68"/>
-      <c r="AG2" s="68"/>
-      <c r="AH2" s="68"/>
-      <c r="AI2" s="68"/>
-      <c r="AJ2" s="68"/>
-      <c r="AK2" s="68"/>
-      <c r="AL2" s="68"/>
-      <c r="AM2" s="68"/>
-      <c r="AN2" s="68"/>
-      <c r="AO2" s="68"/>
-      <c r="AP2" s="68"/>
-      <c r="AQ2" s="67" t="s">
+      <c r="AF2" s="85"/>
+      <c r="AG2" s="85"/>
+      <c r="AH2" s="85"/>
+      <c r="AI2" s="85"/>
+      <c r="AJ2" s="85"/>
+      <c r="AK2" s="85"/>
+      <c r="AL2" s="85"/>
+      <c r="AM2" s="85"/>
+      <c r="AN2" s="85"/>
+      <c r="AO2" s="85"/>
+      <c r="AP2" s="85"/>
+      <c r="AQ2" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="AR2" s="67"/>
-      <c r="AS2" s="67"/>
-      <c r="AT2" s="68" t="s">
-        <v>37</v>
+      <c r="AR2" s="84"/>
+      <c r="AS2" s="84"/>
+      <c r="AT2" s="85" t="s">
+        <v>36</v>
       </c>
-      <c r="AU2" s="68"/>
-      <c r="AV2" s="68"/>
-      <c r="AW2" s="68"/>
-      <c r="AX2" s="68"/>
-      <c r="AY2" s="68"/>
-      <c r="AZ2" s="68"/>
-      <c r="BA2" s="67" t="s">
+      <c r="AU2" s="85"/>
+      <c r="AV2" s="85"/>
+      <c r="AW2" s="85"/>
+      <c r="AX2" s="85"/>
+      <c r="AY2" s="85"/>
+      <c r="AZ2" s="85"/>
+      <c r="BA2" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="BB2" s="67"/>
-      <c r="BC2" s="67"/>
-      <c r="BD2" s="84">
-        <v>45559</v>
+      <c r="BB2" s="84"/>
+      <c r="BC2" s="84"/>
+      <c r="BD2" s="101">
+        <v>45566</v>
       </c>
-      <c r="BE2" s="85"/>
-      <c r="BF2" s="85"/>
-      <c r="BG2" s="85"/>
-      <c r="BH2" s="85"/>
-      <c r="BI2" s="86"/>
+      <c r="BE2" s="102"/>
+      <c r="BF2" s="102"/>
+      <c r="BG2" s="102"/>
+      <c r="BH2" s="102"/>
+      <c r="BI2" s="103"/>
       <c r="BJ2" s="1"/>
       <c r="BK2" s="1"/>
       <c r="BL2" s="1"/>
@@ -12751,71 +12865,71 @@
       <c r="BI3" s="3"/>
     </row>
     <row r="4" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="71" t="s">
-        <v>38</v>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="88" t="s">
+        <v>84</v>
       </c>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="71"/>
-      <c r="Q4" s="71"/>
-      <c r="R4" s="71"/>
-      <c r="S4" s="71"/>
-      <c r="T4" s="71"/>
-      <c r="U4" s="71"/>
-      <c r="V4" s="71"/>
-      <c r="W4" s="71"/>
-      <c r="X4" s="71"/>
-      <c r="Y4" s="71"/>
-      <c r="Z4" s="71"/>
-      <c r="AA4" s="71"/>
-      <c r="AB4" s="71"/>
-      <c r="AC4" s="71"/>
-      <c r="AD4" s="71"/>
-      <c r="AE4" s="71"/>
-      <c r="AF4" s="71"/>
-      <c r="AG4" s="71"/>
-      <c r="AH4" s="71"/>
-      <c r="AI4" s="71"/>
-      <c r="AJ4" s="71"/>
-      <c r="AK4" s="71"/>
-      <c r="AL4" s="71"/>
-      <c r="AM4" s="71"/>
-      <c r="AN4" s="71"/>
-      <c r="AO4" s="71"/>
-      <c r="AP4" s="71"/>
-      <c r="AQ4" s="71"/>
-      <c r="AR4" s="71"/>
-      <c r="AS4" s="71"/>
-      <c r="AT4" s="71"/>
-      <c r="AU4" s="71"/>
-      <c r="AV4" s="71"/>
-      <c r="AW4" s="71"/>
-      <c r="AX4" s="71"/>
-      <c r="AY4" s="71"/>
-      <c r="AZ4" s="71"/>
-      <c r="BA4" s="71"/>
-      <c r="BB4" s="71"/>
-      <c r="BC4" s="71"/>
-      <c r="BD4" s="71"/>
-      <c r="BE4" s="71"/>
-      <c r="BF4" s="71"/>
-      <c r="BG4" s="71"/>
-      <c r="BH4" s="71"/>
-      <c r="BI4" s="71"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="88"/>
+      <c r="P4" s="88"/>
+      <c r="Q4" s="88"/>
+      <c r="R4" s="88"/>
+      <c r="S4" s="88"/>
+      <c r="T4" s="88"/>
+      <c r="U4" s="88"/>
+      <c r="V4" s="88"/>
+      <c r="W4" s="88"/>
+      <c r="X4" s="88"/>
+      <c r="Y4" s="88"/>
+      <c r="Z4" s="88"/>
+      <c r="AA4" s="88"/>
+      <c r="AB4" s="88"/>
+      <c r="AC4" s="88"/>
+      <c r="AD4" s="88"/>
+      <c r="AE4" s="88"/>
+      <c r="AF4" s="88"/>
+      <c r="AG4" s="88"/>
+      <c r="AH4" s="88"/>
+      <c r="AI4" s="88"/>
+      <c r="AJ4" s="88"/>
+      <c r="AK4" s="88"/>
+      <c r="AL4" s="88"/>
+      <c r="AM4" s="88"/>
+      <c r="AN4" s="88"/>
+      <c r="AO4" s="88"/>
+      <c r="AP4" s="88"/>
+      <c r="AQ4" s="88"/>
+      <c r="AR4" s="88"/>
+      <c r="AS4" s="88"/>
+      <c r="AT4" s="88"/>
+      <c r="AU4" s="88"/>
+      <c r="AV4" s="88"/>
+      <c r="AW4" s="88"/>
+      <c r="AX4" s="88"/>
+      <c r="AY4" s="88"/>
+      <c r="AZ4" s="88"/>
+      <c r="BA4" s="88"/>
+      <c r="BB4" s="88"/>
+      <c r="BC4" s="88"/>
+      <c r="BD4" s="88"/>
+      <c r="BE4" s="88"/>
+      <c r="BF4" s="88"/>
+      <c r="BG4" s="88"/>
+      <c r="BH4" s="88"/>
+      <c r="BI4" s="88"/>
       <c r="BJ4" s="1"/>
       <c r="BK4" s="1"/>
       <c r="BL4" s="1"/>
@@ -13015,71 +13129,71 @@
       <c r="IX4" s="1"/>
     </row>
     <row r="5" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="71" t="s">
-        <v>33</v>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="88" t="s">
+        <v>80</v>
       </c>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="71"/>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="71"/>
-      <c r="T5" s="71"/>
-      <c r="U5" s="71"/>
-      <c r="V5" s="71"/>
-      <c r="W5" s="71"/>
-      <c r="X5" s="71"/>
-      <c r="Y5" s="71"/>
-      <c r="Z5" s="71"/>
-      <c r="AA5" s="71"/>
-      <c r="AB5" s="71"/>
-      <c r="AC5" s="71"/>
-      <c r="AD5" s="71"/>
-      <c r="AE5" s="71"/>
-      <c r="AF5" s="71"/>
-      <c r="AG5" s="71"/>
-      <c r="AH5" s="71"/>
-      <c r="AI5" s="71"/>
-      <c r="AJ5" s="71"/>
-      <c r="AK5" s="71"/>
-      <c r="AL5" s="71"/>
-      <c r="AM5" s="71"/>
-      <c r="AN5" s="71"/>
-      <c r="AO5" s="71"/>
-      <c r="AP5" s="71"/>
-      <c r="AQ5" s="71"/>
-      <c r="AR5" s="71"/>
-      <c r="AS5" s="71"/>
-      <c r="AT5" s="71"/>
-      <c r="AU5" s="71"/>
-      <c r="AV5" s="71"/>
-      <c r="AW5" s="71"/>
-      <c r="AX5" s="71"/>
-      <c r="AY5" s="71"/>
-      <c r="AZ5" s="71"/>
-      <c r="BA5" s="71"/>
-      <c r="BB5" s="71"/>
-      <c r="BC5" s="71"/>
-      <c r="BD5" s="71"/>
-      <c r="BE5" s="71"/>
-      <c r="BF5" s="71"/>
-      <c r="BG5" s="71"/>
-      <c r="BH5" s="71"/>
-      <c r="BI5" s="71"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="88"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="88"/>
+      <c r="S5" s="88"/>
+      <c r="T5" s="88"/>
+      <c r="U5" s="88"/>
+      <c r="V5" s="88"/>
+      <c r="W5" s="88"/>
+      <c r="X5" s="88"/>
+      <c r="Y5" s="88"/>
+      <c r="Z5" s="88"/>
+      <c r="AA5" s="88"/>
+      <c r="AB5" s="88"/>
+      <c r="AC5" s="88"/>
+      <c r="AD5" s="88"/>
+      <c r="AE5" s="88"/>
+      <c r="AF5" s="88"/>
+      <c r="AG5" s="88"/>
+      <c r="AH5" s="88"/>
+      <c r="AI5" s="88"/>
+      <c r="AJ5" s="88"/>
+      <c r="AK5" s="88"/>
+      <c r="AL5" s="88"/>
+      <c r="AM5" s="88"/>
+      <c r="AN5" s="88"/>
+      <c r="AO5" s="88"/>
+      <c r="AP5" s="88"/>
+      <c r="AQ5" s="88"/>
+      <c r="AR5" s="88"/>
+      <c r="AS5" s="88"/>
+      <c r="AT5" s="88"/>
+      <c r="AU5" s="88"/>
+      <c r="AV5" s="88"/>
+      <c r="AW5" s="88"/>
+      <c r="AX5" s="88"/>
+      <c r="AY5" s="88"/>
+      <c r="AZ5" s="88"/>
+      <c r="BA5" s="88"/>
+      <c r="BB5" s="88"/>
+      <c r="BC5" s="88"/>
+      <c r="BD5" s="88"/>
+      <c r="BE5" s="88"/>
+      <c r="BF5" s="88"/>
+      <c r="BG5" s="88"/>
+      <c r="BH5" s="88"/>
+      <c r="BI5" s="88"/>
       <c r="BJ5" s="1"/>
       <c r="BK5" s="1"/>
       <c r="BL5" s="1"/>
@@ -13539,75 +13653,75 @@
       <c r="IX6" s="1"/>
     </row>
     <row r="7" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="75" t="s">
+      <c r="A7" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="75"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75" t="s">
+      <c r="B7" s="94"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="75"/>
-      <c r="L7" s="75"/>
-      <c r="M7" s="75"/>
-      <c r="N7" s="75"/>
-      <c r="O7" s="75"/>
-      <c r="P7" s="75" t="s">
+      <c r="E7" s="94"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="94"/>
+      <c r="H7" s="94"/>
+      <c r="I7" s="94"/>
+      <c r="J7" s="94"/>
+      <c r="K7" s="94"/>
+      <c r="L7" s="94"/>
+      <c r="M7" s="94"/>
+      <c r="N7" s="94"/>
+      <c r="O7" s="94"/>
+      <c r="P7" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="Q7" s="75"/>
-      <c r="R7" s="75"/>
-      <c r="S7" s="75"/>
-      <c r="T7" s="75"/>
-      <c r="U7" s="75"/>
-      <c r="V7" s="75"/>
-      <c r="W7" s="75"/>
-      <c r="X7" s="75"/>
-      <c r="Y7" s="75"/>
-      <c r="Z7" s="75"/>
-      <c r="AA7" s="75"/>
-      <c r="AB7" s="75"/>
-      <c r="AC7" s="75"/>
-      <c r="AD7" s="75"/>
-      <c r="AE7" s="75" t="s">
+      <c r="Q7" s="94"/>
+      <c r="R7" s="94"/>
+      <c r="S7" s="94"/>
+      <c r="T7" s="94"/>
+      <c r="U7" s="94"/>
+      <c r="V7" s="94"/>
+      <c r="W7" s="94"/>
+      <c r="X7" s="94"/>
+      <c r="Y7" s="94"/>
+      <c r="Z7" s="94"/>
+      <c r="AA7" s="94"/>
+      <c r="AB7" s="94"/>
+      <c r="AC7" s="94"/>
+      <c r="AD7" s="94"/>
+      <c r="AE7" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="AF7" s="75"/>
-      <c r="AG7" s="75"/>
-      <c r="AH7" s="75"/>
-      <c r="AI7" s="75"/>
-      <c r="AJ7" s="75"/>
-      <c r="AK7" s="75"/>
-      <c r="AL7" s="75"/>
-      <c r="AM7" s="75"/>
-      <c r="AN7" s="75"/>
-      <c r="AO7" s="75"/>
-      <c r="AP7" s="75"/>
-      <c r="AQ7" s="75"/>
-      <c r="AR7" s="75"/>
-      <c r="AS7" s="75"/>
-      <c r="AT7" s="75"/>
-      <c r="AU7" s="75"/>
-      <c r="AV7" s="75"/>
-      <c r="AW7" s="75"/>
-      <c r="AX7" s="75"/>
-      <c r="AY7" s="75"/>
-      <c r="AZ7" s="75"/>
-      <c r="BA7" s="75"/>
-      <c r="BB7" s="75"/>
-      <c r="BC7" s="75"/>
-      <c r="BD7" s="75"/>
-      <c r="BE7" s="75"/>
-      <c r="BF7" s="75"/>
-      <c r="BG7" s="75"/>
-      <c r="BH7" s="75"/>
-      <c r="BI7" s="75"/>
+      <c r="AF7" s="94"/>
+      <c r="AG7" s="94"/>
+      <c r="AH7" s="94"/>
+      <c r="AI7" s="94"/>
+      <c r="AJ7" s="94"/>
+      <c r="AK7" s="94"/>
+      <c r="AL7" s="94"/>
+      <c r="AM7" s="94"/>
+      <c r="AN7" s="94"/>
+      <c r="AO7" s="94"/>
+      <c r="AP7" s="94"/>
+      <c r="AQ7" s="94"/>
+      <c r="AR7" s="94"/>
+      <c r="AS7" s="94"/>
+      <c r="AT7" s="94"/>
+      <c r="AU7" s="94"/>
+      <c r="AV7" s="94"/>
+      <c r="AW7" s="94"/>
+      <c r="AX7" s="94"/>
+      <c r="AY7" s="94"/>
+      <c r="AZ7" s="94"/>
+      <c r="BA7" s="94"/>
+      <c r="BB7" s="94"/>
+      <c r="BC7" s="94"/>
+      <c r="BD7" s="94"/>
+      <c r="BE7" s="94"/>
+      <c r="BF7" s="94"/>
+      <c r="BG7" s="94"/>
+      <c r="BH7" s="94"/>
+      <c r="BI7" s="94"/>
       <c r="BJ7" s="1"/>
       <c r="BK7" s="1"/>
       <c r="BL7" s="1"/>
@@ -13807,73 +13921,73 @@
       <c r="IX7" s="1"/>
     </row>
     <row r="8" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="87" t="s">
+      <c r="A8" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="88"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="87" t="s">
+      <c r="B8" s="105"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="104" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="105"/>
+      <c r="N8" s="105"/>
+      <c r="O8" s="106"/>
+      <c r="P8" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="88"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="88"/>
-      <c r="J8" s="88"/>
-      <c r="K8" s="88"/>
-      <c r="L8" s="88"/>
-      <c r="M8" s="88"/>
-      <c r="N8" s="88"/>
-      <c r="O8" s="89"/>
-      <c r="P8" s="87" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q8" s="88"/>
-      <c r="R8" s="88"/>
-      <c r="S8" s="88"/>
-      <c r="T8" s="88"/>
-      <c r="U8" s="88"/>
-      <c r="V8" s="88"/>
-      <c r="W8" s="88"/>
-      <c r="X8" s="88"/>
-      <c r="Y8" s="88"/>
-      <c r="Z8" s="88"/>
-      <c r="AA8" s="88"/>
-      <c r="AB8" s="88"/>
-      <c r="AC8" s="88"/>
-      <c r="AD8" s="89"/>
-      <c r="AE8" s="87"/>
-      <c r="AF8" s="88"/>
-      <c r="AG8" s="88"/>
-      <c r="AH8" s="88"/>
-      <c r="AI8" s="88"/>
-      <c r="AJ8" s="88"/>
-      <c r="AK8" s="88"/>
-      <c r="AL8" s="88"/>
-      <c r="AM8" s="88"/>
-      <c r="AN8" s="88"/>
-      <c r="AO8" s="88"/>
-      <c r="AP8" s="88"/>
-      <c r="AQ8" s="88"/>
-      <c r="AR8" s="88"/>
-      <c r="AS8" s="88"/>
-      <c r="AT8" s="88"/>
-      <c r="AU8" s="88"/>
-      <c r="AV8" s="88"/>
-      <c r="AW8" s="88"/>
-      <c r="AX8" s="88"/>
-      <c r="AY8" s="88"/>
-      <c r="AZ8" s="88"/>
-      <c r="BA8" s="88"/>
-      <c r="BB8" s="88"/>
-      <c r="BC8" s="88"/>
-      <c r="BD8" s="88"/>
-      <c r="BE8" s="88"/>
-      <c r="BF8" s="88"/>
-      <c r="BG8" s="88"/>
-      <c r="BH8" s="88"/>
-      <c r="BI8" s="89"/>
+      <c r="Q8" s="105"/>
+      <c r="R8" s="105"/>
+      <c r="S8" s="105"/>
+      <c r="T8" s="105"/>
+      <c r="U8" s="105"/>
+      <c r="V8" s="105"/>
+      <c r="W8" s="105"/>
+      <c r="X8" s="105"/>
+      <c r="Y8" s="105"/>
+      <c r="Z8" s="105"/>
+      <c r="AA8" s="105"/>
+      <c r="AB8" s="105"/>
+      <c r="AC8" s="105"/>
+      <c r="AD8" s="106"/>
+      <c r="AE8" s="104"/>
+      <c r="AF8" s="105"/>
+      <c r="AG8" s="105"/>
+      <c r="AH8" s="105"/>
+      <c r="AI8" s="105"/>
+      <c r="AJ8" s="105"/>
+      <c r="AK8" s="105"/>
+      <c r="AL8" s="105"/>
+      <c r="AM8" s="105"/>
+      <c r="AN8" s="105"/>
+      <c r="AO8" s="105"/>
+      <c r="AP8" s="105"/>
+      <c r="AQ8" s="105"/>
+      <c r="AR8" s="105"/>
+      <c r="AS8" s="105"/>
+      <c r="AT8" s="105"/>
+      <c r="AU8" s="105"/>
+      <c r="AV8" s="105"/>
+      <c r="AW8" s="105"/>
+      <c r="AX8" s="105"/>
+      <c r="AY8" s="105"/>
+      <c r="AZ8" s="105"/>
+      <c r="BA8" s="105"/>
+      <c r="BB8" s="105"/>
+      <c r="BC8" s="105"/>
+      <c r="BD8" s="105"/>
+      <c r="BE8" s="105"/>
+      <c r="BF8" s="105"/>
+      <c r="BG8" s="105"/>
+      <c r="BH8" s="105"/>
+      <c r="BI8" s="106"/>
       <c r="BJ8" s="1"/>
       <c r="BK8" s="1"/>
       <c r="BL8" s="1"/>
@@ -14073,73 +14187,73 @@
       <c r="IX8" s="1"/>
     </row>
     <row r="9" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="90" t="s">
+      <c r="A9" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="90"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="91" t="s">
-        <v>40</v>
+      <c r="B9" s="107"/>
+      <c r="C9" s="107"/>
+      <c r="D9" s="108" t="s">
+        <v>38</v>
       </c>
-      <c r="E9" s="91"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="91"/>
-      <c r="H9" s="91"/>
-      <c r="I9" s="91"/>
-      <c r="J9" s="91"/>
-      <c r="K9" s="91"/>
-      <c r="L9" s="91"/>
-      <c r="M9" s="91"/>
-      <c r="N9" s="91"/>
-      <c r="O9" s="91"/>
-      <c r="P9" s="91" t="s">
-        <v>41</v>
+      <c r="E9" s="108"/>
+      <c r="F9" s="108"/>
+      <c r="G9" s="108"/>
+      <c r="H9" s="108"/>
+      <c r="I9" s="108"/>
+      <c r="J9" s="108"/>
+      <c r="K9" s="108"/>
+      <c r="L9" s="108"/>
+      <c r="M9" s="108"/>
+      <c r="N9" s="108"/>
+      <c r="O9" s="108"/>
+      <c r="P9" s="108" t="s">
+        <v>39</v>
       </c>
-      <c r="Q9" s="91"/>
-      <c r="R9" s="91"/>
-      <c r="S9" s="91"/>
-      <c r="T9" s="91"/>
-      <c r="U9" s="91"/>
-      <c r="V9" s="91"/>
-      <c r="W9" s="91"/>
-      <c r="X9" s="91"/>
-      <c r="Y9" s="91"/>
-      <c r="Z9" s="91"/>
-      <c r="AA9" s="91"/>
-      <c r="AB9" s="91"/>
-      <c r="AC9" s="91"/>
-      <c r="AD9" s="91"/>
-      <c r="AE9" s="91"/>
-      <c r="AF9" s="91"/>
-      <c r="AG9" s="91"/>
-      <c r="AH9" s="91"/>
-      <c r="AI9" s="91"/>
-      <c r="AJ9" s="91"/>
-      <c r="AK9" s="91"/>
-      <c r="AL9" s="91"/>
-      <c r="AM9" s="91"/>
-      <c r="AN9" s="91"/>
-      <c r="AO9" s="91"/>
-      <c r="AP9" s="91"/>
-      <c r="AQ9" s="91"/>
-      <c r="AR9" s="91"/>
-      <c r="AS9" s="91"/>
-      <c r="AT9" s="91"/>
-      <c r="AU9" s="91"/>
-      <c r="AV9" s="91"/>
-      <c r="AW9" s="91"/>
-      <c r="AX9" s="91"/>
-      <c r="AY9" s="91"/>
-      <c r="AZ9" s="91"/>
-      <c r="BA9" s="91"/>
-      <c r="BB9" s="91"/>
-      <c r="BC9" s="91"/>
-      <c r="BD9" s="91"/>
-      <c r="BE9" s="91"/>
-      <c r="BF9" s="91"/>
-      <c r="BG9" s="91"/>
-      <c r="BH9" s="91"/>
-      <c r="BI9" s="91"/>
+      <c r="Q9" s="108"/>
+      <c r="R9" s="108"/>
+      <c r="S9" s="108"/>
+      <c r="T9" s="108"/>
+      <c r="U9" s="108"/>
+      <c r="V9" s="108"/>
+      <c r="W9" s="108"/>
+      <c r="X9" s="108"/>
+      <c r="Y9" s="108"/>
+      <c r="Z9" s="108"/>
+      <c r="AA9" s="108"/>
+      <c r="AB9" s="108"/>
+      <c r="AC9" s="108"/>
+      <c r="AD9" s="108"/>
+      <c r="AE9" s="108"/>
+      <c r="AF9" s="108"/>
+      <c r="AG9" s="108"/>
+      <c r="AH9" s="108"/>
+      <c r="AI9" s="108"/>
+      <c r="AJ9" s="108"/>
+      <c r="AK9" s="108"/>
+      <c r="AL9" s="108"/>
+      <c r="AM9" s="108"/>
+      <c r="AN9" s="108"/>
+      <c r="AO9" s="108"/>
+      <c r="AP9" s="108"/>
+      <c r="AQ9" s="108"/>
+      <c r="AR9" s="108"/>
+      <c r="AS9" s="108"/>
+      <c r="AT9" s="108"/>
+      <c r="AU9" s="108"/>
+      <c r="AV9" s="108"/>
+      <c r="AW9" s="108"/>
+      <c r="AX9" s="108"/>
+      <c r="AY9" s="108"/>
+      <c r="AZ9" s="108"/>
+      <c r="BA9" s="108"/>
+      <c r="BB9" s="108"/>
+      <c r="BC9" s="108"/>
+      <c r="BD9" s="108"/>
+      <c r="BE9" s="108"/>
+      <c r="BF9" s="108"/>
+      <c r="BG9" s="108"/>
+      <c r="BH9" s="108"/>
+      <c r="BI9" s="108"/>
       <c r="BJ9" s="1"/>
       <c r="BK9" s="1"/>
       <c r="BL9" s="1"/>
@@ -14339,73 +14453,73 @@
       <c r="IX9" s="1"/>
     </row>
     <row r="10" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="74" t="s">
+      <c r="A10" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="74"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74" t="s">
-        <v>42</v>
+      <c r="B10" s="91"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="91" t="s">
+        <v>40</v>
       </c>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="74"/>
-      <c r="L10" s="74"/>
-      <c r="M10" s="74"/>
-      <c r="N10" s="74"/>
-      <c r="O10" s="74"/>
-      <c r="P10" s="91" t="s">
-        <v>43</v>
+      <c r="E10" s="91"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="91"/>
+      <c r="I10" s="91"/>
+      <c r="J10" s="91"/>
+      <c r="K10" s="91"/>
+      <c r="L10" s="91"/>
+      <c r="M10" s="91"/>
+      <c r="N10" s="91"/>
+      <c r="O10" s="91"/>
+      <c r="P10" s="108" t="s">
+        <v>41</v>
       </c>
-      <c r="Q10" s="91"/>
-      <c r="R10" s="91"/>
-      <c r="S10" s="91"/>
-      <c r="T10" s="91"/>
-      <c r="U10" s="91"/>
-      <c r="V10" s="91"/>
-      <c r="W10" s="91"/>
-      <c r="X10" s="91"/>
-      <c r="Y10" s="91"/>
-      <c r="Z10" s="91"/>
-      <c r="AA10" s="91"/>
-      <c r="AB10" s="91"/>
-      <c r="AC10" s="91"/>
-      <c r="AD10" s="91"/>
-      <c r="AE10" s="91"/>
-      <c r="AF10" s="91"/>
-      <c r="AG10" s="91"/>
-      <c r="AH10" s="91"/>
-      <c r="AI10" s="91"/>
-      <c r="AJ10" s="91"/>
-      <c r="AK10" s="91"/>
-      <c r="AL10" s="91"/>
-      <c r="AM10" s="91"/>
-      <c r="AN10" s="91"/>
-      <c r="AO10" s="91"/>
-      <c r="AP10" s="91"/>
-      <c r="AQ10" s="91"/>
-      <c r="AR10" s="91"/>
-      <c r="AS10" s="91"/>
-      <c r="AT10" s="91"/>
-      <c r="AU10" s="91"/>
-      <c r="AV10" s="91"/>
-      <c r="AW10" s="91"/>
-      <c r="AX10" s="91"/>
-      <c r="AY10" s="91"/>
-      <c r="AZ10" s="91"/>
-      <c r="BA10" s="91"/>
-      <c r="BB10" s="91"/>
-      <c r="BC10" s="91"/>
-      <c r="BD10" s="91"/>
-      <c r="BE10" s="91"/>
-      <c r="BF10" s="91"/>
-      <c r="BG10" s="91"/>
-      <c r="BH10" s="91"/>
-      <c r="BI10" s="91"/>
+      <c r="Q10" s="108"/>
+      <c r="R10" s="108"/>
+      <c r="S10" s="108"/>
+      <c r="T10" s="108"/>
+      <c r="U10" s="108"/>
+      <c r="V10" s="108"/>
+      <c r="W10" s="108"/>
+      <c r="X10" s="108"/>
+      <c r="Y10" s="108"/>
+      <c r="Z10" s="108"/>
+      <c r="AA10" s="108"/>
+      <c r="AB10" s="108"/>
+      <c r="AC10" s="108"/>
+      <c r="AD10" s="108"/>
+      <c r="AE10" s="108"/>
+      <c r="AF10" s="108"/>
+      <c r="AG10" s="108"/>
+      <c r="AH10" s="108"/>
+      <c r="AI10" s="108"/>
+      <c r="AJ10" s="108"/>
+      <c r="AK10" s="108"/>
+      <c r="AL10" s="108"/>
+      <c r="AM10" s="108"/>
+      <c r="AN10" s="108"/>
+      <c r="AO10" s="108"/>
+      <c r="AP10" s="108"/>
+      <c r="AQ10" s="108"/>
+      <c r="AR10" s="108"/>
+      <c r="AS10" s="108"/>
+      <c r="AT10" s="108"/>
+      <c r="AU10" s="108"/>
+      <c r="AV10" s="108"/>
+      <c r="AW10" s="108"/>
+      <c r="AX10" s="108"/>
+      <c r="AY10" s="108"/>
+      <c r="AZ10" s="108"/>
+      <c r="BA10" s="108"/>
+      <c r="BB10" s="108"/>
+      <c r="BC10" s="108"/>
+      <c r="BD10" s="108"/>
+      <c r="BE10" s="108"/>
+      <c r="BF10" s="108"/>
+      <c r="BG10" s="108"/>
+      <c r="BH10" s="108"/>
+      <c r="BI10" s="108"/>
       <c r="BJ10" s="1"/>
       <c r="BK10" s="1"/>
       <c r="BL10" s="1"/>
@@ -14605,73 +14719,73 @@
       <c r="IX10" s="1"/>
     </row>
     <row r="11" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="90" t="s">
+      <c r="A11" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="90"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="91"/>
-      <c r="G11" s="91"/>
-      <c r="H11" s="91"/>
-      <c r="I11" s="91"/>
-      <c r="J11" s="91"/>
-      <c r="K11" s="91"/>
-      <c r="L11" s="91"/>
-      <c r="M11" s="91"/>
-      <c r="N11" s="91"/>
-      <c r="O11" s="91"/>
-      <c r="P11" s="91" t="s">
+      <c r="B11" s="107"/>
+      <c r="C11" s="107"/>
+      <c r="D11" s="108"/>
+      <c r="E11" s="108"/>
+      <c r="F11" s="108"/>
+      <c r="G11" s="108"/>
+      <c r="H11" s="108"/>
+      <c r="I11" s="108"/>
+      <c r="J11" s="108"/>
+      <c r="K11" s="108"/>
+      <c r="L11" s="108"/>
+      <c r="M11" s="108"/>
+      <c r="N11" s="108"/>
+      <c r="O11" s="108"/>
+      <c r="P11" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="Q11" s="91"/>
-      <c r="R11" s="91"/>
-      <c r="S11" s="91"/>
-      <c r="T11" s="91"/>
-      <c r="U11" s="91"/>
-      <c r="V11" s="91"/>
-      <c r="W11" s="91"/>
-      <c r="X11" s="91"/>
-      <c r="Y11" s="91"/>
-      <c r="Z11" s="91"/>
-      <c r="AA11" s="91"/>
-      <c r="AB11" s="91"/>
-      <c r="AC11" s="91"/>
-      <c r="AD11" s="91"/>
-      <c r="AE11" s="91" t="s">
+      <c r="Q11" s="108"/>
+      <c r="R11" s="108"/>
+      <c r="S11" s="108"/>
+      <c r="T11" s="108"/>
+      <c r="U11" s="108"/>
+      <c r="V11" s="108"/>
+      <c r="W11" s="108"/>
+      <c r="X11" s="108"/>
+      <c r="Y11" s="108"/>
+      <c r="Z11" s="108"/>
+      <c r="AA11" s="108"/>
+      <c r="AB11" s="108"/>
+      <c r="AC11" s="108"/>
+      <c r="AD11" s="108"/>
+      <c r="AE11" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="AF11" s="91"/>
-      <c r="AG11" s="91"/>
-      <c r="AH11" s="91"/>
-      <c r="AI11" s="91"/>
-      <c r="AJ11" s="91"/>
-      <c r="AK11" s="91"/>
-      <c r="AL11" s="91"/>
-      <c r="AM11" s="91"/>
-      <c r="AN11" s="91"/>
-      <c r="AO11" s="91"/>
-      <c r="AP11" s="91"/>
-      <c r="AQ11" s="91"/>
-      <c r="AR11" s="91"/>
-      <c r="AS11" s="91"/>
-      <c r="AT11" s="91"/>
-      <c r="AU11" s="91"/>
-      <c r="AV11" s="91"/>
-      <c r="AW11" s="91"/>
-      <c r="AX11" s="91"/>
-      <c r="AY11" s="91"/>
-      <c r="AZ11" s="91"/>
-      <c r="BA11" s="91"/>
-      <c r="BB11" s="91"/>
-      <c r="BC11" s="91"/>
-      <c r="BD11" s="91"/>
-      <c r="BE11" s="91"/>
-      <c r="BF11" s="91"/>
-      <c r="BG11" s="91"/>
-      <c r="BH11" s="91"/>
-      <c r="BI11" s="91"/>
+      <c r="AF11" s="108"/>
+      <c r="AG11" s="108"/>
+      <c r="AH11" s="108"/>
+      <c r="AI11" s="108"/>
+      <c r="AJ11" s="108"/>
+      <c r="AK11" s="108"/>
+      <c r="AL11" s="108"/>
+      <c r="AM11" s="108"/>
+      <c r="AN11" s="108"/>
+      <c r="AO11" s="108"/>
+      <c r="AP11" s="108"/>
+      <c r="AQ11" s="108"/>
+      <c r="AR11" s="108"/>
+      <c r="AS11" s="108"/>
+      <c r="AT11" s="108"/>
+      <c r="AU11" s="108"/>
+      <c r="AV11" s="108"/>
+      <c r="AW11" s="108"/>
+      <c r="AX11" s="108"/>
+      <c r="AY11" s="108"/>
+      <c r="AZ11" s="108"/>
+      <c r="BA11" s="108"/>
+      <c r="BB11" s="108"/>
+      <c r="BC11" s="108"/>
+      <c r="BD11" s="108"/>
+      <c r="BE11" s="108"/>
+      <c r="BF11" s="108"/>
+      <c r="BG11" s="108"/>
+      <c r="BH11" s="108"/>
+      <c r="BI11" s="108"/>
       <c r="BJ11" s="1"/>
       <c r="BK11" s="1"/>
       <c r="BL11" s="1"/>
@@ -15131,73 +15245,73 @@
       <c r="IX12" s="1"/>
     </row>
     <row r="13" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="75" t="s">
+      <c r="A13" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="75"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="75"/>
-      <c r="K13" s="75"/>
-      <c r="L13" s="75"/>
-      <c r="M13" s="75"/>
-      <c r="N13" s="75"/>
-      <c r="O13" s="75"/>
-      <c r="P13" s="75" t="s">
+      <c r="B13" s="94"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="94"/>
+      <c r="L13" s="94"/>
+      <c r="M13" s="94"/>
+      <c r="N13" s="94"/>
+      <c r="O13" s="94"/>
+      <c r="P13" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="Q13" s="75"/>
-      <c r="R13" s="75"/>
-      <c r="S13" s="75"/>
-      <c r="T13" s="75"/>
-      <c r="U13" s="75"/>
-      <c r="V13" s="75"/>
-      <c r="W13" s="75"/>
-      <c r="X13" s="75"/>
-      <c r="Y13" s="75"/>
-      <c r="Z13" s="75"/>
-      <c r="AA13" s="75"/>
-      <c r="AB13" s="75"/>
-      <c r="AC13" s="75"/>
-      <c r="AD13" s="75"/>
-      <c r="AE13" s="75"/>
-      <c r="AF13" s="75"/>
-      <c r="AG13" s="75"/>
-      <c r="AH13" s="75"/>
-      <c r="AI13" s="75"/>
-      <c r="AJ13" s="75"/>
-      <c r="AK13" s="75"/>
-      <c r="AL13" s="75"/>
-      <c r="AM13" s="75"/>
-      <c r="AN13" s="75"/>
-      <c r="AO13" s="75"/>
-      <c r="AP13" s="75"/>
-      <c r="AQ13" s="75"/>
-      <c r="AR13" s="75"/>
-      <c r="AS13" s="75"/>
-      <c r="AT13" s="75" t="s">
+      <c r="Q13" s="94"/>
+      <c r="R13" s="94"/>
+      <c r="S13" s="94"/>
+      <c r="T13" s="94"/>
+      <c r="U13" s="94"/>
+      <c r="V13" s="94"/>
+      <c r="W13" s="94"/>
+      <c r="X13" s="94"/>
+      <c r="Y13" s="94"/>
+      <c r="Z13" s="94"/>
+      <c r="AA13" s="94"/>
+      <c r="AB13" s="94"/>
+      <c r="AC13" s="94"/>
+      <c r="AD13" s="94"/>
+      <c r="AE13" s="94"/>
+      <c r="AF13" s="94"/>
+      <c r="AG13" s="94"/>
+      <c r="AH13" s="94"/>
+      <c r="AI13" s="94"/>
+      <c r="AJ13" s="94"/>
+      <c r="AK13" s="94"/>
+      <c r="AL13" s="94"/>
+      <c r="AM13" s="94"/>
+      <c r="AN13" s="94"/>
+      <c r="AO13" s="94"/>
+      <c r="AP13" s="94"/>
+      <c r="AQ13" s="94"/>
+      <c r="AR13" s="94"/>
+      <c r="AS13" s="94"/>
+      <c r="AT13" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="AU13" s="75"/>
-      <c r="AV13" s="75"/>
-      <c r="AW13" s="75"/>
-      <c r="AX13" s="75"/>
-      <c r="AY13" s="75"/>
-      <c r="AZ13" s="75"/>
-      <c r="BA13" s="75"/>
-      <c r="BB13" s="75"/>
-      <c r="BC13" s="75"/>
-      <c r="BD13" s="75"/>
-      <c r="BE13" s="75"/>
-      <c r="BF13" s="75"/>
-      <c r="BG13" s="75"/>
-      <c r="BH13" s="75"/>
-      <c r="BI13" s="75"/>
+      <c r="AU13" s="94"/>
+      <c r="AV13" s="94"/>
+      <c r="AW13" s="94"/>
+      <c r="AX13" s="94"/>
+      <c r="AY13" s="94"/>
+      <c r="AZ13" s="94"/>
+      <c r="BA13" s="94"/>
+      <c r="BB13" s="94"/>
+      <c r="BC13" s="94"/>
+      <c r="BD13" s="94"/>
+      <c r="BE13" s="94"/>
+      <c r="BF13" s="94"/>
+      <c r="BG13" s="94"/>
+      <c r="BH13" s="94"/>
+      <c r="BI13" s="94"/>
       <c r="BJ13" s="1"/>
       <c r="BK13" s="1"/>
       <c r="BL13" s="1"/>
@@ -15413,7 +15527,7 @@
       <c r="N14" s="7"/>
       <c r="O14" s="8"/>
       <c r="P14" s="9" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="Q14" s="10"/>
       <c r="R14" s="10"/>
@@ -15676,7 +15790,7 @@
       <c r="O15" s="14"/>
       <c r="P15" s="15"/>
       <c r="Q15" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R15" s="16"/>
       <c r="S15" s="16"/>
@@ -15938,7 +16052,7 @@
       <c r="O16" s="14"/>
       <c r="P16" s="15"/>
       <c r="Q16" s="19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="R16" s="19"/>
       <c r="S16" s="19"/>
@@ -16459,7 +16573,7 @@
       <c r="N18" s="13"/>
       <c r="O18" s="14"/>
       <c r="P18" s="15" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="Q18" s="19"/>
       <c r="R18" s="19"/>
@@ -16705,9 +16819,7 @@
       <c r="IX18" s="1"/>
     </row>
     <row r="19" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
-        <v>72</v>
-      </c>
+      <c r="A19" s="12"/>
       <c r="B19" s="18"/>
       <c r="C19" s="19"/>
       <c r="D19" s="13"/>
@@ -16724,7 +16836,7 @@
       <c r="O19" s="14"/>
       <c r="P19" s="15"/>
       <c r="Q19" s="19" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="R19" s="19"/>
       <c r="S19" s="19"/>
@@ -16754,9 +16866,7 @@
       <c r="AQ19" s="16"/>
       <c r="AR19" s="16"/>
       <c r="AS19" s="17"/>
-      <c r="AT19" s="12" t="s">
-        <v>47</v>
-      </c>
+      <c r="AT19" s="12"/>
       <c r="AU19" s="18"/>
       <c r="AV19" s="13"/>
       <c r="AW19" s="13"/>
@@ -16971,7 +17081,9 @@
       <c r="IX19" s="1"/>
     </row>
     <row r="20" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="12"/>
+      <c r="A20" s="12" t="s">
+        <v>85</v>
+      </c>
       <c r="B20" s="18"/>
       <c r="C20" s="19"/>
       <c r="D20" s="13"/>
@@ -16988,7 +17100,7 @@
       <c r="O20" s="14"/>
       <c r="P20" s="15"/>
       <c r="Q20" s="19" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="R20" s="19"/>
       <c r="S20" s="19"/>
@@ -17018,7 +17130,9 @@
       <c r="AQ20" s="16"/>
       <c r="AR20" s="16"/>
       <c r="AS20" s="17"/>
-      <c r="AT20" s="12"/>
+      <c r="AT20" s="12" t="s">
+        <v>45</v>
+      </c>
       <c r="AU20" s="18"/>
       <c r="AV20" s="13"/>
       <c r="AW20" s="13"/>
@@ -17249,10 +17363,9 @@
       <c r="N21" s="13"/>
       <c r="O21" s="14"/>
       <c r="P21" s="15"/>
-      <c r="Q21" s="19" t="s">
-        <v>59</v>
+      <c r="R21" s="19" t="s">
+        <v>54</v>
       </c>
-      <c r="R21" s="19"/>
       <c r="S21" s="19"/>
       <c r="T21" s="16"/>
       <c r="U21" s="16"/>
@@ -17511,6 +17624,9 @@
       <c r="N22" s="13"/>
       <c r="O22" s="14"/>
       <c r="P22" s="15"/>
+      <c r="R22" s="19" t="s">
+        <v>55</v>
+      </c>
       <c r="S22" s="19"/>
       <c r="T22" s="16"/>
       <c r="U22" s="16"/>
@@ -17768,10 +17884,7 @@
       <c r="M23" s="13"/>
       <c r="N23" s="13"/>
       <c r="O23" s="14"/>
-      <c r="P23" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q23" s="19"/>
+      <c r="P23" s="15"/>
       <c r="S23" s="19"/>
       <c r="T23" s="16"/>
       <c r="U23" s="16"/>
@@ -18029,10 +18142,10 @@
       <c r="M24" s="13"/>
       <c r="N24" s="13"/>
       <c r="O24" s="14"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="19" t="s">
-        <v>76</v>
+      <c r="P24" s="19" t="s">
+        <v>88</v>
       </c>
+      <c r="Q24" s="19"/>
       <c r="S24" s="19"/>
       <c r="T24" s="16"/>
       <c r="U24" s="16"/>
@@ -18291,13 +18404,13 @@
       <c r="N25" s="13"/>
       <c r="O25" s="14"/>
       <c r="P25" s="19"/>
-      <c r="R25" s="16" t="s">
-        <v>77</v>
+      <c r="Q25" s="19" t="s">
+        <v>89</v>
       </c>
       <c r="S25" s="19"/>
       <c r="T25" s="16"/>
       <c r="U25" s="16"/>
-      <c r="V25" s="19"/>
+      <c r="V25" s="16"/>
       <c r="W25" s="16"/>
       <c r="X25" s="16"/>
       <c r="Y25" s="16"/>
@@ -18536,14 +18649,12 @@
       <c r="IX25" s="1"/>
     </row>
     <row r="26" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="12" t="s">
-        <v>61</v>
-      </c>
+      <c r="A26" s="12"/>
       <c r="B26" s="18"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
@@ -18553,11 +18664,11 @@
       <c r="M26" s="13"/>
       <c r="N26" s="13"/>
       <c r="O26" s="14"/>
-      <c r="P26" s="16"/>
-      <c r="R26" s="16"/>
-      <c r="S26" s="16" t="s">
-        <v>78</v>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19" t="s">
+        <v>105</v>
       </c>
+      <c r="S26" s="19"/>
       <c r="T26" s="16"/>
       <c r="U26" s="16"/>
       <c r="V26" s="16"/>
@@ -18584,10 +18695,8 @@
       <c r="AQ26" s="16"/>
       <c r="AR26" s="16"/>
       <c r="AS26" s="17"/>
-      <c r="AT26" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="AU26" s="13"/>
+      <c r="AT26" s="12"/>
+      <c r="AU26" s="18"/>
       <c r="AV26" s="13"/>
       <c r="AW26" s="13"/>
       <c r="AX26" s="13"/>
@@ -18803,7 +18912,7 @@
     <row r="27" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12"/>
       <c r="B27" s="18"/>
-      <c r="C27" s="13"/>
+      <c r="C27" s="19"/>
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
@@ -18816,14 +18925,14 @@
       <c r="M27" s="13"/>
       <c r="N27" s="13"/>
       <c r="O27" s="14"/>
-      <c r="P27" s="16"/>
-      <c r="R27" s="16"/>
-      <c r="S27" s="22"/>
-      <c r="T27" s="19" t="s">
-        <v>60</v>
+      <c r="P27" s="19"/>
+      <c r="R27" s="16" t="s">
+        <v>64</v>
       </c>
-      <c r="U27" s="23"/>
-      <c r="V27" s="23"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="16"/>
+      <c r="U27" s="16"/>
+      <c r="V27" s="19"/>
       <c r="W27" s="16"/>
       <c r="X27" s="16"/>
       <c r="Y27" s="16"/>
@@ -18848,9 +18957,7 @@
       <c r="AR27" s="16"/>
       <c r="AS27" s="17"/>
       <c r="AT27" s="12"/>
-      <c r="AU27" s="13" t="s">
-        <v>62</v>
-      </c>
+      <c r="AU27" s="18"/>
       <c r="AV27" s="13"/>
       <c r="AW27" s="13"/>
       <c r="AX27" s="13"/>
@@ -19067,9 +19174,9 @@
       <c r="A28" s="12"/>
       <c r="B28" s="18"/>
       <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
@@ -19080,9 +19187,13 @@
       <c r="N28" s="13"/>
       <c r="O28" s="14"/>
       <c r="P28" s="16"/>
-      <c r="T28" s="19"/>
-      <c r="U28" s="23"/>
-      <c r="V28" s="23"/>
+      <c r="R28" s="16"/>
+      <c r="S28" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="T28" s="16"/>
+      <c r="U28" s="16"/>
+      <c r="V28" s="16"/>
       <c r="W28" s="16"/>
       <c r="X28" s="16"/>
       <c r="Y28" s="16"/>
@@ -19106,10 +19217,10 @@
       <c r="AQ28" s="16"/>
       <c r="AR28" s="16"/>
       <c r="AS28" s="17"/>
-      <c r="AT28" s="12"/>
-      <c r="AU28" s="13" t="s">
-        <v>63</v>
+      <c r="AT28" s="12" t="s">
+        <v>90</v>
       </c>
+      <c r="AU28" s="13"/>
       <c r="AV28" s="13"/>
       <c r="AW28" s="13"/>
       <c r="AX28" s="13"/>
@@ -19339,12 +19450,12 @@
       <c r="N29" s="13"/>
       <c r="O29" s="14"/>
       <c r="P29" s="16"/>
-      <c r="R29" s="2" t="s">
-        <v>79</v>
+      <c r="R29" s="16"/>
+      <c r="S29" s="19" t="s">
+        <v>56</v>
       </c>
-      <c r="T29" s="16"/>
-      <c r="U29" s="19"/>
-      <c r="V29" s="19"/>
+      <c r="U29" s="23"/>
+      <c r="V29" s="23"/>
       <c r="W29" s="16"/>
       <c r="X29" s="16"/>
       <c r="Y29" s="16"/>
@@ -19369,7 +19480,9 @@
       <c r="AR29" s="16"/>
       <c r="AS29" s="17"/>
       <c r="AT29" s="12"/>
-      <c r="AU29" s="13"/>
+      <c r="AU29" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AV29" s="13"/>
       <c r="AW29" s="13"/>
       <c r="AX29" s="13"/>
@@ -19583,9 +19696,7 @@
       <c r="IX29" s="1"/>
     </row>
     <row r="30" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="12" t="s">
-        <v>73</v>
-      </c>
+      <c r="A30" s="12"/>
       <c r="B30" s="18"/>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
@@ -19601,10 +19712,6 @@
       <c r="N30" s="13"/>
       <c r="O30" s="14"/>
       <c r="P30" s="16"/>
-      <c r="R30" s="16"/>
-      <c r="S30" s="19" t="s">
-        <v>80</v>
-      </c>
       <c r="T30" s="19"/>
       <c r="U30" s="23"/>
       <c r="V30" s="23"/>
@@ -19631,10 +19738,10 @@
       <c r="AQ30" s="16"/>
       <c r="AR30" s="16"/>
       <c r="AS30" s="17"/>
-      <c r="AT30" s="12" t="s">
-        <v>67</v>
+      <c r="AT30" s="12"/>
+      <c r="AU30" s="13" t="s">
+        <v>58</v>
       </c>
-      <c r="AU30" s="13"/>
       <c r="AV30" s="13"/>
       <c r="AW30" s="13"/>
       <c r="AX30" s="13"/>
@@ -19864,13 +19971,12 @@
       <c r="N31" s="13"/>
       <c r="O31" s="14"/>
       <c r="P31" s="16"/>
-      <c r="R31" s="16"/>
-      <c r="S31" s="19"/>
-      <c r="T31" s="19" t="s">
-        <v>65</v>
+      <c r="R31" s="2" t="s">
+        <v>102</v>
       </c>
-      <c r="U31" s="23"/>
-      <c r="V31" s="23"/>
+      <c r="T31" s="16"/>
+      <c r="U31" s="19"/>
+      <c r="V31" s="19"/>
       <c r="W31" s="16"/>
       <c r="X31" s="16"/>
       <c r="Y31" s="16"/>
@@ -20109,7 +20215,9 @@
       <c r="IX31" s="1"/>
     </row>
     <row r="32" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="12"/>
+      <c r="A32" s="12" t="s">
+        <v>92</v>
+      </c>
       <c r="B32" s="18"/>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
@@ -20124,14 +20232,14 @@
       <c r="M32" s="13"/>
       <c r="N32" s="13"/>
       <c r="O32" s="14"/>
-      <c r="P32" s="21"/>
-      <c r="R32" s="22"/>
-      <c r="S32" s="16"/>
-      <c r="T32" s="16" t="s">
-        <v>64</v>
+      <c r="P32" s="16"/>
+      <c r="R32" s="16"/>
+      <c r="S32" s="19" t="s">
+        <v>107</v>
       </c>
-      <c r="U32" s="19"/>
-      <c r="V32" s="19"/>
+      <c r="T32" s="19"/>
+      <c r="U32" s="23"/>
+      <c r="V32" s="23"/>
       <c r="W32" s="16"/>
       <c r="X32" s="16"/>
       <c r="Y32" s="16"/>
@@ -20155,7 +20263,9 @@
       <c r="AQ32" s="16"/>
       <c r="AR32" s="16"/>
       <c r="AS32" s="17"/>
-      <c r="AT32" s="12"/>
+      <c r="AT32" s="12" t="s">
+        <v>91</v>
+      </c>
       <c r="AU32" s="13"/>
       <c r="AV32" s="13"/>
       <c r="AW32" s="13"/>
@@ -20385,14 +20495,13 @@
       <c r="M33" s="13"/>
       <c r="N33" s="13"/>
       <c r="O33" s="14"/>
-      <c r="P33" s="21"/>
-      <c r="R33" s="22" t="s">
-        <v>81</v>
+      <c r="P33" s="16"/>
+      <c r="R33" s="16"/>
+      <c r="S33" s="19" t="s">
+        <v>60</v>
       </c>
-      <c r="S33" s="16"/>
-      <c r="T33" s="16"/>
-      <c r="U33" s="19"/>
-      <c r="V33" s="19"/>
+      <c r="U33" s="23"/>
+      <c r="V33" s="23"/>
       <c r="W33" s="16"/>
       <c r="X33" s="16"/>
       <c r="Y33" s="16"/>
@@ -20631,9 +20740,7 @@
       <c r="IX33" s="1"/>
     </row>
     <row r="34" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="12" t="s">
-        <v>74</v>
-      </c>
+      <c r="A34" s="12"/>
       <c r="B34" s="18"/>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
@@ -20651,9 +20758,8 @@
       <c r="P34" s="21"/>
       <c r="R34" s="22"/>
       <c r="S34" s="16" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
-      <c r="T34" s="16"/>
       <c r="U34" s="19"/>
       <c r="V34" s="19"/>
       <c r="W34" s="16"/>
@@ -20679,9 +20785,7 @@
       <c r="AQ34" s="16"/>
       <c r="AR34" s="16"/>
       <c r="AS34" s="17"/>
-      <c r="AT34" s="12" t="s">
-        <v>67</v>
-      </c>
+      <c r="AT34" s="12"/>
       <c r="AU34" s="13"/>
       <c r="AV34" s="13"/>
       <c r="AW34" s="13"/>
@@ -20912,11 +21016,11 @@
       <c r="N35" s="13"/>
       <c r="O35" s="14"/>
       <c r="P35" s="21"/>
-      <c r="R35" s="19"/>
+      <c r="R35" s="22" t="s">
+        <v>103</v>
+      </c>
       <c r="S35" s="16"/>
-      <c r="T35" s="16" t="s">
-        <v>65</v>
-      </c>
+      <c r="T35" s="16"/>
       <c r="U35" s="19"/>
       <c r="V35" s="19"/>
       <c r="W35" s="16"/>
@@ -21157,7 +21261,9 @@
       <c r="IX35" s="1"/>
     </row>
     <row r="36" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="12"/>
+      <c r="A36" s="12" t="s">
+        <v>93</v>
+      </c>
       <c r="B36" s="18"/>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
@@ -21172,10 +21278,12 @@
       <c r="M36" s="13"/>
       <c r="N36" s="13"/>
       <c r="O36" s="14"/>
-      <c r="S36" s="16"/>
-      <c r="T36" s="16" t="s">
-        <v>68</v>
+      <c r="P36" s="21"/>
+      <c r="R36" s="22"/>
+      <c r="S36" s="16" t="s">
+        <v>108</v>
       </c>
+      <c r="T36" s="16"/>
       <c r="U36" s="19"/>
       <c r="V36" s="19"/>
       <c r="W36" s="16"/>
@@ -21201,7 +21309,9 @@
       <c r="AQ36" s="16"/>
       <c r="AR36" s="16"/>
       <c r="AS36" s="17"/>
-      <c r="AT36" s="12"/>
+      <c r="AT36" s="12" t="s">
+        <v>91</v>
+      </c>
       <c r="AU36" s="13"/>
       <c r="AV36" s="13"/>
       <c r="AW36" s="13"/>
@@ -21431,13 +21541,13 @@
       <c r="M37" s="13"/>
       <c r="N37" s="13"/>
       <c r="O37" s="14"/>
-      <c r="R37" s="2" t="s">
-        <v>83</v>
+      <c r="P37" s="21"/>
+      <c r="R37" s="19"/>
+      <c r="S37" s="16" t="s">
+        <v>60</v>
       </c>
-      <c r="S37" s="16"/>
-      <c r="T37" s="16"/>
-      <c r="U37" s="16"/>
-      <c r="V37" s="16"/>
+      <c r="U37" s="19"/>
+      <c r="V37" s="19"/>
       <c r="W37" s="16"/>
       <c r="X37" s="16"/>
       <c r="Y37" s="16"/>
@@ -21676,9 +21786,7 @@
       <c r="IX37" s="1"/>
     </row>
     <row r="38" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="12" t="s">
-        <v>75</v>
-      </c>
+      <c r="A38" s="12"/>
       <c r="B38" s="18"/>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
@@ -21693,16 +21801,13 @@
       <c r="M38" s="13"/>
       <c r="N38" s="13"/>
       <c r="O38" s="14"/>
-      <c r="P38" s="15"/>
-      <c r="R38" s="16"/>
       <c r="S38" s="16" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
-      <c r="T38" s="16"/>
-      <c r="U38" s="16"/>
-      <c r="V38" s="16"/>
+      <c r="U38" s="19"/>
+      <c r="V38" s="19"/>
       <c r="W38" s="16"/>
-      <c r="X38" s="19"/>
+      <c r="X38" s="16"/>
       <c r="Y38" s="16"/>
       <c r="Z38" s="16"/>
       <c r="AA38" s="16"/>
@@ -21724,9 +21829,7 @@
       <c r="AQ38" s="16"/>
       <c r="AR38" s="16"/>
       <c r="AS38" s="17"/>
-      <c r="AT38" s="12" t="s">
-        <v>67</v>
-      </c>
+      <c r="AT38" s="12"/>
       <c r="AU38" s="13"/>
       <c r="AV38" s="13"/>
       <c r="AW38" s="13"/>
@@ -21956,12 +22059,11 @@
       <c r="M39" s="13"/>
       <c r="N39" s="13"/>
       <c r="O39" s="14"/>
-      <c r="P39" s="15"/>
-      <c r="R39" s="16"/>
+      <c r="R39" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="S39" s="16"/>
-      <c r="T39" s="16" t="s">
-        <v>65</v>
-      </c>
+      <c r="T39" s="16"/>
       <c r="U39" s="16"/>
       <c r="V39" s="16"/>
       <c r="W39" s="16"/>
@@ -22202,13 +22304,15 @@
       <c r="IX39" s="1"/>
     </row>
     <row r="40" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="12"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
+      <c r="A40" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B40" s="18"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
       <c r="H40" s="13"/>
       <c r="I40" s="13"/>
       <c r="J40" s="13"/>
@@ -22217,14 +22321,16 @@
       <c r="M40" s="13"/>
       <c r="N40" s="13"/>
       <c r="O40" s="14"/>
-      <c r="S40" s="16"/>
-      <c r="T40" s="16" t="s">
-        <v>64</v>
+      <c r="P40" s="15"/>
+      <c r="R40" s="16"/>
+      <c r="S40" s="16" t="s">
+        <v>109</v>
       </c>
+      <c r="T40" s="16"/>
       <c r="U40" s="16"/>
       <c r="V40" s="16"/>
       <c r="W40" s="16"/>
-      <c r="X40" s="16"/>
+      <c r="X40" s="19"/>
       <c r="Y40" s="16"/>
       <c r="Z40" s="16"/>
       <c r="AA40" s="16"/>
@@ -22246,8 +22352,11 @@
       <c r="AQ40" s="16"/>
       <c r="AR40" s="16"/>
       <c r="AS40" s="17"/>
+      <c r="AT40" s="12" t="s">
+        <v>91</v>
+      </c>
       <c r="AU40" s="13"/>
-      <c r="AV40" s="18"/>
+      <c r="AV40" s="13"/>
       <c r="AW40" s="13"/>
       <c r="AX40" s="13"/>
       <c r="AY40" s="13"/>
@@ -22461,7 +22570,7 @@
     </row>
     <row r="41" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="12"/>
-      <c r="B41" s="13"/>
+      <c r="B41" s="18"/>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
       <c r="E41" s="13"/>
@@ -22475,9 +22584,10 @@
       <c r="M41" s="13"/>
       <c r="N41" s="13"/>
       <c r="O41" s="14"/>
-      <c r="S41" s="16"/>
-      <c r="T41" s="16" t="s">
-        <v>69</v>
+      <c r="P41" s="15"/>
+      <c r="R41" s="16"/>
+      <c r="S41" s="16" t="s">
+        <v>60</v>
       </c>
       <c r="U41" s="16"/>
       <c r="V41" s="16"/>
@@ -22504,6 +22614,7 @@
       <c r="AQ41" s="16"/>
       <c r="AR41" s="16"/>
       <c r="AS41" s="17"/>
+      <c r="AT41" s="12"/>
       <c r="AU41" s="13"/>
       <c r="AV41" s="13"/>
       <c r="AW41" s="13"/>
@@ -22719,12 +22830,12 @@
     </row>
     <row r="42" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="12"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
       <c r="H42" s="13"/>
       <c r="I42" s="13"/>
       <c r="J42" s="13"/>
@@ -22733,9 +22844,9 @@
       <c r="M42" s="13"/>
       <c r="N42" s="13"/>
       <c r="O42" s="14"/>
-      <c r="R42" s="16"/>
-      <c r="S42" s="16"/>
-      <c r="T42" s="16"/>
+      <c r="S42" s="16" t="s">
+        <v>59</v>
+      </c>
       <c r="U42" s="16"/>
       <c r="V42" s="16"/>
       <c r="W42" s="16"/>
@@ -22761,9 +22872,8 @@
       <c r="AQ42" s="16"/>
       <c r="AR42" s="16"/>
       <c r="AS42" s="17"/>
-      <c r="AT42" s="12"/>
       <c r="AU42" s="13"/>
-      <c r="AV42" s="13"/>
+      <c r="AV42" s="18"/>
       <c r="AW42" s="13"/>
       <c r="AX42" s="13"/>
       <c r="AY42" s="13"/>
@@ -22991,13 +23101,9 @@
       <c r="M43" s="13"/>
       <c r="N43" s="13"/>
       <c r="O43" s="14"/>
-      <c r="P43" s="16" t="s">
-        <v>85</v>
+      <c r="S43" s="16" t="s">
+        <v>62</v>
       </c>
-      <c r="Q43" s="16"/>
-      <c r="R43" s="16"/>
-      <c r="S43" s="16"/>
-      <c r="T43" s="16"/>
       <c r="U43" s="16"/>
       <c r="V43" s="16"/>
       <c r="W43" s="16"/>
@@ -23252,10 +23358,6 @@
       <c r="M44" s="13"/>
       <c r="N44" s="13"/>
       <c r="O44" s="14"/>
-      <c r="P44" s="16"/>
-      <c r="Q44" s="16" t="s">
-        <v>86</v>
-      </c>
       <c r="R44" s="16"/>
       <c r="S44" s="16"/>
       <c r="T44" s="16"/>
@@ -23514,11 +23616,11 @@
       <c r="M45" s="13"/>
       <c r="N45" s="13"/>
       <c r="O45" s="14"/>
-      <c r="P45" s="16"/>
+      <c r="P45" s="16" t="s">
+        <v>95</v>
+      </c>
       <c r="Q45" s="16"/>
-      <c r="R45" s="16" t="s">
-        <v>102</v>
-      </c>
+      <c r="R45" s="16"/>
       <c r="S45" s="16"/>
       <c r="T45" s="16"/>
       <c r="U45" s="16"/>
@@ -23546,7 +23648,6 @@
       <c r="AQ45" s="16"/>
       <c r="AR45" s="16"/>
       <c r="AS45" s="17"/>
-      <c r="AT45" s="12"/>
       <c r="AU45" s="13"/>
       <c r="AV45" s="13"/>
       <c r="AW45" s="13"/>
@@ -23777,7 +23878,9 @@
       <c r="N46" s="13"/>
       <c r="O46" s="14"/>
       <c r="P46" s="16"/>
-      <c r="Q46" s="16"/>
+      <c r="Q46" s="16" t="s">
+        <v>96</v>
+      </c>
       <c r="R46" s="16"/>
       <c r="S46" s="16"/>
       <c r="T46" s="16"/>
@@ -24021,71 +24124,69 @@
       <c r="IX46" s="1"/>
     </row>
     <row r="47" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="62"/>
-      <c r="B47" s="63"/>
-      <c r="C47" s="63"/>
-      <c r="D47" s="63"/>
-      <c r="E47" s="63"/>
-      <c r="F47" s="63"/>
-      <c r="G47" s="63"/>
-      <c r="H47" s="63"/>
-      <c r="I47" s="63"/>
-      <c r="J47" s="63"/>
-      <c r="K47" s="63"/>
-      <c r="L47" s="63"/>
-      <c r="M47" s="63"/>
-      <c r="N47" s="63"/>
-      <c r="O47" s="64"/>
-      <c r="P47" s="65" t="s">
-        <v>87</v>
+      <c r="A47" s="12"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="13"/>
+      <c r="M47" s="13"/>
+      <c r="N47" s="13"/>
+      <c r="O47" s="14"/>
+      <c r="P47" s="16"/>
+      <c r="Q47" s="16"/>
+      <c r="R47" s="16" t="s">
+        <v>77</v>
       </c>
-      <c r="Q47" s="65"/>
-      <c r="R47" s="65"/>
-      <c r="S47" s="65"/>
-      <c r="T47" s="65"/>
-      <c r="U47" s="65"/>
-      <c r="V47" s="65"/>
-      <c r="W47" s="65"/>
-      <c r="X47" s="65"/>
-      <c r="Y47" s="65"/>
-      <c r="Z47" s="65"/>
-      <c r="AA47" s="65"/>
-      <c r="AB47" s="65"/>
-      <c r="AC47" s="65"/>
-      <c r="AD47" s="65"/>
-      <c r="AE47" s="65"/>
-      <c r="AF47" s="65"/>
-      <c r="AG47" s="65"/>
-      <c r="AH47" s="65"/>
-      <c r="AI47" s="65"/>
-      <c r="AJ47" s="65"/>
-      <c r="AK47" s="65"/>
-      <c r="AL47" s="65"/>
-      <c r="AM47" s="65"/>
-      <c r="AN47" s="65"/>
-      <c r="AO47" s="65"/>
-      <c r="AP47" s="65"/>
-      <c r="AQ47" s="65"/>
-      <c r="AR47" s="65"/>
-      <c r="AS47" s="66"/>
-      <c r="AT47" s="62" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU47" s="63"/>
-      <c r="AV47" s="63"/>
-      <c r="AW47" s="63"/>
-      <c r="AX47" s="63"/>
-      <c r="AY47" s="63"/>
-      <c r="AZ47" s="63"/>
-      <c r="BA47" s="63"/>
-      <c r="BB47" s="63"/>
-      <c r="BC47" s="63"/>
-      <c r="BD47" s="63"/>
-      <c r="BE47" s="63"/>
-      <c r="BF47" s="63"/>
-      <c r="BG47" s="63"/>
-      <c r="BH47" s="63"/>
-      <c r="BI47" s="64"/>
+      <c r="S47" s="16"/>
+      <c r="T47" s="16"/>
+      <c r="U47" s="16"/>
+      <c r="V47" s="16"/>
+      <c r="W47" s="16"/>
+      <c r="X47" s="16"/>
+      <c r="Y47" s="16"/>
+      <c r="Z47" s="16"/>
+      <c r="AA47" s="16"/>
+      <c r="AB47" s="16"/>
+      <c r="AC47" s="16"/>
+      <c r="AD47" s="16"/>
+      <c r="AE47" s="16"/>
+      <c r="AF47" s="16"/>
+      <c r="AG47" s="16"/>
+      <c r="AH47" s="16"/>
+      <c r="AI47" s="16"/>
+      <c r="AJ47" s="16"/>
+      <c r="AK47" s="16"/>
+      <c r="AL47" s="16"/>
+      <c r="AM47" s="16"/>
+      <c r="AN47" s="16"/>
+      <c r="AO47" s="16"/>
+      <c r="AP47" s="16"/>
+      <c r="AQ47" s="16"/>
+      <c r="AR47" s="16"/>
+      <c r="AS47" s="17"/>
+      <c r="AT47" s="12"/>
+      <c r="AU47" s="13"/>
+      <c r="AV47" s="13"/>
+      <c r="AW47" s="13"/>
+      <c r="AX47" s="13"/>
+      <c r="AY47" s="13"/>
+      <c r="AZ47" s="13"/>
+      <c r="BA47" s="13"/>
+      <c r="BB47" s="13"/>
+      <c r="BC47" s="13"/>
+      <c r="BD47" s="13"/>
+      <c r="BE47" s="13"/>
+      <c r="BF47" s="13"/>
+      <c r="BG47" s="13"/>
+      <c r="BH47" s="13"/>
+      <c r="BI47" s="14"/>
       <c r="BJ47" s="1"/>
       <c r="BK47" s="1"/>
       <c r="BL47" s="1"/>
@@ -24285,67 +24386,67 @@
       <c r="IX47" s="1"/>
     </row>
     <row r="48" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="5"/>
-      <c r="N48" s="5"/>
-      <c r="O48" s="5"/>
-      <c r="P48" s="5"/>
-      <c r="Q48" s="5"/>
-      <c r="R48" s="5"/>
-      <c r="S48" s="5"/>
-      <c r="T48" s="5"/>
-      <c r="U48" s="5"/>
-      <c r="V48" s="5"/>
-      <c r="W48" s="5"/>
-      <c r="X48" s="5"/>
-      <c r="Y48" s="5"/>
-      <c r="Z48" s="5"/>
-      <c r="AA48" s="5"/>
-      <c r="AB48" s="5"/>
-      <c r="AC48" s="5"/>
-      <c r="AD48" s="5"/>
-      <c r="AE48" s="5"/>
-      <c r="AF48" s="5"/>
-      <c r="AG48" s="5"/>
-      <c r="AH48" s="5"/>
-      <c r="AI48" s="5"/>
-      <c r="AJ48" s="5"/>
-      <c r="AK48" s="5"/>
-      <c r="AL48" s="5"/>
-      <c r="AM48" s="5"/>
-      <c r="AN48" s="5"/>
-      <c r="AO48" s="5"/>
-      <c r="AP48" s="5"/>
-      <c r="AQ48" s="5"/>
-      <c r="AR48" s="5"/>
-      <c r="AS48" s="5"/>
-      <c r="AT48" s="5"/>
-      <c r="AU48" s="5"/>
-      <c r="AV48" s="5"/>
-      <c r="AW48" s="5"/>
-      <c r="AX48" s="5"/>
-      <c r="AY48" s="5"/>
-      <c r="AZ48" s="5"/>
-      <c r="BA48" s="5"/>
-      <c r="BB48" s="5"/>
-      <c r="BC48" s="5"/>
-      <c r="BD48" s="5"/>
-      <c r="BE48" s="5"/>
-      <c r="BF48" s="5"/>
-      <c r="BG48" s="5"/>
-      <c r="BH48" s="5"/>
-      <c r="BI48" s="5"/>
+      <c r="A48" s="12"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="13"/>
+      <c r="N48" s="13"/>
+      <c r="O48" s="14"/>
+      <c r="P48" s="16"/>
+      <c r="Q48" s="16"/>
+      <c r="R48" s="16"/>
+      <c r="S48" s="16"/>
+      <c r="T48" s="16"/>
+      <c r="U48" s="16"/>
+      <c r="V48" s="16"/>
+      <c r="W48" s="16"/>
+      <c r="X48" s="16"/>
+      <c r="Y48" s="16"/>
+      <c r="Z48" s="16"/>
+      <c r="AA48" s="16"/>
+      <c r="AB48" s="16"/>
+      <c r="AC48" s="16"/>
+      <c r="AD48" s="16"/>
+      <c r="AE48" s="16"/>
+      <c r="AF48" s="16"/>
+      <c r="AG48" s="16"/>
+      <c r="AH48" s="16"/>
+      <c r="AI48" s="16"/>
+      <c r="AJ48" s="16"/>
+      <c r="AK48" s="16"/>
+      <c r="AL48" s="16"/>
+      <c r="AM48" s="16"/>
+      <c r="AN48" s="16"/>
+      <c r="AO48" s="16"/>
+      <c r="AP48" s="16"/>
+      <c r="AQ48" s="16"/>
+      <c r="AR48" s="16"/>
+      <c r="AS48" s="17"/>
+      <c r="AT48" s="12"/>
+      <c r="AU48" s="13"/>
+      <c r="AV48" s="13"/>
+      <c r="AW48" s="13"/>
+      <c r="AX48" s="13"/>
+      <c r="AY48" s="13"/>
+      <c r="AZ48" s="13"/>
+      <c r="BA48" s="13"/>
+      <c r="BB48" s="13"/>
+      <c r="BC48" s="13"/>
+      <c r="BD48" s="13"/>
+      <c r="BE48" s="13"/>
+      <c r="BF48" s="13"/>
+      <c r="BG48" s="13"/>
+      <c r="BH48" s="13"/>
+      <c r="BI48" s="14"/>
       <c r="BJ48" s="1"/>
       <c r="BK48" s="1"/>
       <c r="BL48" s="1"/>
@@ -24544,6 +24645,790 @@
       <c r="IW48" s="1"/>
       <c r="IX48" s="1"/>
     </row>
+    <row r="49" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="12"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="13"/>
+      <c r="M49" s="13"/>
+      <c r="N49" s="13"/>
+      <c r="O49" s="14"/>
+      <c r="P49" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q49" s="16"/>
+      <c r="R49" s="16"/>
+      <c r="S49" s="16"/>
+      <c r="T49" s="16"/>
+      <c r="U49" s="16"/>
+      <c r="V49" s="16"/>
+      <c r="W49" s="16"/>
+      <c r="X49" s="16"/>
+      <c r="Y49" s="16"/>
+      <c r="Z49" s="16"/>
+      <c r="AA49" s="16"/>
+      <c r="AB49" s="16"/>
+      <c r="AC49" s="16"/>
+      <c r="AD49" s="16"/>
+      <c r="AE49" s="16"/>
+      <c r="AF49" s="16"/>
+      <c r="AG49" s="16"/>
+      <c r="AH49" s="16"/>
+      <c r="AI49" s="16"/>
+      <c r="AJ49" s="16"/>
+      <c r="AK49" s="16"/>
+      <c r="AL49" s="16"/>
+      <c r="AM49" s="16"/>
+      <c r="AN49" s="16"/>
+      <c r="AO49" s="16"/>
+      <c r="AP49" s="16"/>
+      <c r="AQ49" s="16"/>
+      <c r="AR49" s="16"/>
+      <c r="AS49" s="17"/>
+      <c r="AT49" s="12"/>
+      <c r="AU49" s="13"/>
+      <c r="AV49" s="13"/>
+      <c r="AW49" s="13"/>
+      <c r="AX49" s="13"/>
+      <c r="AY49" s="13"/>
+      <c r="AZ49" s="13"/>
+      <c r="BA49" s="13"/>
+      <c r="BB49" s="13"/>
+      <c r="BC49" s="13"/>
+      <c r="BD49" s="13"/>
+      <c r="BE49" s="13"/>
+      <c r="BF49" s="13"/>
+      <c r="BG49" s="13"/>
+      <c r="BH49" s="13"/>
+      <c r="BI49" s="14"/>
+      <c r="BJ49" s="1"/>
+      <c r="BK49" s="1"/>
+      <c r="BL49" s="1"/>
+      <c r="BM49" s="1"/>
+      <c r="BN49" s="1"/>
+      <c r="BO49" s="1"/>
+      <c r="BP49" s="1"/>
+      <c r="BQ49" s="1"/>
+      <c r="BR49" s="1"/>
+      <c r="BS49" s="1"/>
+      <c r="BT49" s="1"/>
+      <c r="BU49" s="1"/>
+      <c r="BV49" s="1"/>
+      <c r="BW49" s="1"/>
+      <c r="BX49" s="1"/>
+      <c r="BY49" s="1"/>
+      <c r="BZ49" s="1"/>
+      <c r="CA49" s="1"/>
+      <c r="CB49" s="1"/>
+      <c r="CC49" s="1"/>
+      <c r="CD49" s="1"/>
+      <c r="CE49" s="1"/>
+      <c r="CF49" s="1"/>
+      <c r="CG49" s="1"/>
+      <c r="CH49" s="1"/>
+      <c r="CI49" s="1"/>
+      <c r="CJ49" s="1"/>
+      <c r="CK49" s="1"/>
+      <c r="CL49" s="1"/>
+      <c r="CM49" s="1"/>
+      <c r="CN49" s="1"/>
+      <c r="CO49" s="1"/>
+      <c r="CP49" s="1"/>
+      <c r="CQ49" s="1"/>
+      <c r="CR49" s="1"/>
+      <c r="CS49" s="1"/>
+      <c r="CT49" s="1"/>
+      <c r="CU49" s="1"/>
+      <c r="CV49" s="1"/>
+      <c r="CW49" s="1"/>
+      <c r="CX49" s="1"/>
+      <c r="CY49" s="1"/>
+      <c r="CZ49" s="1"/>
+      <c r="DA49" s="1"/>
+      <c r="DB49" s="1"/>
+      <c r="DC49" s="1"/>
+      <c r="DD49" s="1"/>
+      <c r="DE49" s="1"/>
+      <c r="DF49" s="1"/>
+      <c r="DG49" s="1"/>
+      <c r="DH49" s="1"/>
+      <c r="DI49" s="1"/>
+      <c r="DJ49" s="1"/>
+      <c r="DK49" s="1"/>
+      <c r="DL49" s="1"/>
+      <c r="DM49" s="1"/>
+      <c r="DN49" s="1"/>
+      <c r="DO49" s="1"/>
+      <c r="DP49" s="1"/>
+      <c r="DQ49" s="1"/>
+      <c r="DR49" s="1"/>
+      <c r="DS49" s="1"/>
+      <c r="DT49" s="1"/>
+      <c r="DU49" s="1"/>
+      <c r="DV49" s="1"/>
+      <c r="DW49" s="1"/>
+      <c r="DX49" s="1"/>
+      <c r="DY49" s="1"/>
+      <c r="DZ49" s="1"/>
+      <c r="EA49" s="1"/>
+      <c r="EB49" s="1"/>
+      <c r="EC49" s="1"/>
+      <c r="ED49" s="1"/>
+      <c r="EE49" s="1"/>
+      <c r="EF49" s="1"/>
+      <c r="EG49" s="1"/>
+      <c r="EH49" s="1"/>
+      <c r="EI49" s="1"/>
+      <c r="EJ49" s="1"/>
+      <c r="EK49" s="1"/>
+      <c r="EL49" s="1"/>
+      <c r="EM49" s="1"/>
+      <c r="EN49" s="1"/>
+      <c r="EO49" s="1"/>
+      <c r="EP49" s="1"/>
+      <c r="EQ49" s="1"/>
+      <c r="ER49" s="1"/>
+      <c r="ES49" s="1"/>
+      <c r="ET49" s="1"/>
+      <c r="EU49" s="1"/>
+      <c r="EV49" s="1"/>
+      <c r="EW49" s="1"/>
+      <c r="EX49" s="1"/>
+      <c r="EY49" s="1"/>
+      <c r="EZ49" s="1"/>
+      <c r="FA49" s="1"/>
+      <c r="FB49" s="1"/>
+      <c r="FC49" s="1"/>
+      <c r="FD49" s="1"/>
+      <c r="FE49" s="1"/>
+      <c r="FF49" s="1"/>
+      <c r="FG49" s="1"/>
+      <c r="FH49" s="1"/>
+      <c r="FI49" s="1"/>
+      <c r="FJ49" s="1"/>
+      <c r="FK49" s="1"/>
+      <c r="FL49" s="1"/>
+      <c r="FM49" s="1"/>
+      <c r="FN49" s="1"/>
+      <c r="FO49" s="1"/>
+      <c r="FP49" s="1"/>
+      <c r="FQ49" s="1"/>
+      <c r="FR49" s="1"/>
+      <c r="FS49" s="1"/>
+      <c r="FT49" s="1"/>
+      <c r="FU49" s="1"/>
+      <c r="FV49" s="1"/>
+      <c r="FW49" s="1"/>
+      <c r="FX49" s="1"/>
+      <c r="FY49" s="1"/>
+      <c r="FZ49" s="1"/>
+      <c r="GA49" s="1"/>
+      <c r="GB49" s="1"/>
+      <c r="GC49" s="1"/>
+      <c r="GD49" s="1"/>
+      <c r="GE49" s="1"/>
+      <c r="GF49" s="1"/>
+      <c r="GG49" s="1"/>
+      <c r="GH49" s="1"/>
+      <c r="GI49" s="1"/>
+      <c r="GJ49" s="1"/>
+      <c r="GK49" s="1"/>
+      <c r="GL49" s="1"/>
+      <c r="GM49" s="1"/>
+      <c r="GN49" s="1"/>
+      <c r="GO49" s="1"/>
+      <c r="GP49" s="1"/>
+      <c r="GQ49" s="1"/>
+      <c r="GR49" s="1"/>
+      <c r="GS49" s="1"/>
+      <c r="GT49" s="1"/>
+      <c r="GU49" s="1"/>
+      <c r="GV49" s="1"/>
+      <c r="GW49" s="1"/>
+      <c r="GX49" s="1"/>
+      <c r="GY49" s="1"/>
+      <c r="GZ49" s="1"/>
+      <c r="HA49" s="1"/>
+      <c r="HB49" s="1"/>
+      <c r="HC49" s="1"/>
+      <c r="HD49" s="1"/>
+      <c r="HE49" s="1"/>
+      <c r="HF49" s="1"/>
+      <c r="HG49" s="1"/>
+      <c r="HH49" s="1"/>
+      <c r="HI49" s="1"/>
+      <c r="HJ49" s="1"/>
+      <c r="HK49" s="1"/>
+      <c r="HL49" s="1"/>
+      <c r="HM49" s="1"/>
+      <c r="HN49" s="1"/>
+      <c r="HO49" s="1"/>
+      <c r="HP49" s="1"/>
+      <c r="HQ49" s="1"/>
+      <c r="HR49" s="1"/>
+      <c r="HS49" s="1"/>
+      <c r="HT49" s="1"/>
+      <c r="HU49" s="1"/>
+      <c r="HV49" s="1"/>
+      <c r="HW49" s="1"/>
+      <c r="HX49" s="1"/>
+      <c r="HY49" s="1"/>
+      <c r="HZ49" s="1"/>
+      <c r="IA49" s="1"/>
+      <c r="IB49" s="1"/>
+      <c r="IC49" s="1"/>
+      <c r="ID49" s="1"/>
+      <c r="IE49" s="1"/>
+      <c r="IF49" s="1"/>
+      <c r="IG49" s="1"/>
+      <c r="IH49" s="1"/>
+      <c r="II49" s="1"/>
+      <c r="IJ49" s="1"/>
+      <c r="IK49" s="1"/>
+      <c r="IL49" s="1"/>
+      <c r="IM49" s="1"/>
+      <c r="IN49" s="1"/>
+      <c r="IO49" s="1"/>
+      <c r="IP49" s="1"/>
+      <c r="IQ49" s="1"/>
+      <c r="IR49" s="1"/>
+      <c r="IS49" s="1"/>
+      <c r="IT49" s="1"/>
+      <c r="IU49" s="1"/>
+      <c r="IV49" s="1"/>
+      <c r="IW49" s="1"/>
+      <c r="IX49" s="1"/>
+    </row>
+    <row r="50" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="62"/>
+      <c r="B50" s="63"/>
+      <c r="C50" s="63"/>
+      <c r="D50" s="63"/>
+      <c r="E50" s="63"/>
+      <c r="F50" s="63"/>
+      <c r="G50" s="63"/>
+      <c r="H50" s="63"/>
+      <c r="I50" s="63"/>
+      <c r="J50" s="63"/>
+      <c r="K50" s="63"/>
+      <c r="L50" s="63"/>
+      <c r="M50" s="63"/>
+      <c r="N50" s="63"/>
+      <c r="O50" s="64"/>
+      <c r="P50" s="47"/>
+      <c r="Q50" s="65" t="s">
+        <v>101</v>
+      </c>
+      <c r="R50" s="65"/>
+      <c r="S50" s="65"/>
+      <c r="T50" s="65"/>
+      <c r="U50" s="65"/>
+      <c r="V50" s="65"/>
+      <c r="W50" s="65"/>
+      <c r="X50" s="65"/>
+      <c r="Y50" s="65"/>
+      <c r="Z50" s="65"/>
+      <c r="AA50" s="65"/>
+      <c r="AB50" s="65"/>
+      <c r="AC50" s="65"/>
+      <c r="AD50" s="65"/>
+      <c r="AE50" s="65"/>
+      <c r="AF50" s="65"/>
+      <c r="AG50" s="65"/>
+      <c r="AH50" s="65"/>
+      <c r="AI50" s="65"/>
+      <c r="AJ50" s="65"/>
+      <c r="AK50" s="65"/>
+      <c r="AL50" s="65"/>
+      <c r="AM50" s="65"/>
+      <c r="AN50" s="65"/>
+      <c r="AO50" s="65"/>
+      <c r="AP50" s="65"/>
+      <c r="AQ50" s="65"/>
+      <c r="AR50" s="65"/>
+      <c r="AS50" s="66"/>
+      <c r="AT50" s="62"/>
+      <c r="AU50" s="63"/>
+      <c r="AV50" s="63"/>
+      <c r="AW50" s="63"/>
+      <c r="AX50" s="63"/>
+      <c r="AY50" s="63"/>
+      <c r="AZ50" s="63"/>
+      <c r="BA50" s="63"/>
+      <c r="BB50" s="63"/>
+      <c r="BC50" s="63"/>
+      <c r="BD50" s="63"/>
+      <c r="BE50" s="63"/>
+      <c r="BF50" s="63"/>
+      <c r="BG50" s="63"/>
+      <c r="BH50" s="63"/>
+      <c r="BI50" s="64"/>
+      <c r="BJ50" s="1"/>
+      <c r="BK50" s="1"/>
+      <c r="BL50" s="1"/>
+      <c r="BM50" s="1"/>
+      <c r="BN50" s="1"/>
+      <c r="BO50" s="1"/>
+      <c r="BP50" s="1"/>
+      <c r="BQ50" s="1"/>
+      <c r="BR50" s="1"/>
+      <c r="BS50" s="1"/>
+      <c r="BT50" s="1"/>
+      <c r="BU50" s="1"/>
+      <c r="BV50" s="1"/>
+      <c r="BW50" s="1"/>
+      <c r="BX50" s="1"/>
+      <c r="BY50" s="1"/>
+      <c r="BZ50" s="1"/>
+      <c r="CA50" s="1"/>
+      <c r="CB50" s="1"/>
+      <c r="CC50" s="1"/>
+      <c r="CD50" s="1"/>
+      <c r="CE50" s="1"/>
+      <c r="CF50" s="1"/>
+      <c r="CG50" s="1"/>
+      <c r="CH50" s="1"/>
+      <c r="CI50" s="1"/>
+      <c r="CJ50" s="1"/>
+      <c r="CK50" s="1"/>
+      <c r="CL50" s="1"/>
+      <c r="CM50" s="1"/>
+      <c r="CN50" s="1"/>
+      <c r="CO50" s="1"/>
+      <c r="CP50" s="1"/>
+      <c r="CQ50" s="1"/>
+      <c r="CR50" s="1"/>
+      <c r="CS50" s="1"/>
+      <c r="CT50" s="1"/>
+      <c r="CU50" s="1"/>
+      <c r="CV50" s="1"/>
+      <c r="CW50" s="1"/>
+      <c r="CX50" s="1"/>
+      <c r="CY50" s="1"/>
+      <c r="CZ50" s="1"/>
+      <c r="DA50" s="1"/>
+      <c r="DB50" s="1"/>
+      <c r="DC50" s="1"/>
+      <c r="DD50" s="1"/>
+      <c r="DE50" s="1"/>
+      <c r="DF50" s="1"/>
+      <c r="DG50" s="1"/>
+      <c r="DH50" s="1"/>
+      <c r="DI50" s="1"/>
+      <c r="DJ50" s="1"/>
+      <c r="DK50" s="1"/>
+      <c r="DL50" s="1"/>
+      <c r="DM50" s="1"/>
+      <c r="DN50" s="1"/>
+      <c r="DO50" s="1"/>
+      <c r="DP50" s="1"/>
+      <c r="DQ50" s="1"/>
+      <c r="DR50" s="1"/>
+      <c r="DS50" s="1"/>
+      <c r="DT50" s="1"/>
+      <c r="DU50" s="1"/>
+      <c r="DV50" s="1"/>
+      <c r="DW50" s="1"/>
+      <c r="DX50" s="1"/>
+      <c r="DY50" s="1"/>
+      <c r="DZ50" s="1"/>
+      <c r="EA50" s="1"/>
+      <c r="EB50" s="1"/>
+      <c r="EC50" s="1"/>
+      <c r="ED50" s="1"/>
+      <c r="EE50" s="1"/>
+      <c r="EF50" s="1"/>
+      <c r="EG50" s="1"/>
+      <c r="EH50" s="1"/>
+      <c r="EI50" s="1"/>
+      <c r="EJ50" s="1"/>
+      <c r="EK50" s="1"/>
+      <c r="EL50" s="1"/>
+      <c r="EM50" s="1"/>
+      <c r="EN50" s="1"/>
+      <c r="EO50" s="1"/>
+      <c r="EP50" s="1"/>
+      <c r="EQ50" s="1"/>
+      <c r="ER50" s="1"/>
+      <c r="ES50" s="1"/>
+      <c r="ET50" s="1"/>
+      <c r="EU50" s="1"/>
+      <c r="EV50" s="1"/>
+      <c r="EW50" s="1"/>
+      <c r="EX50" s="1"/>
+      <c r="EY50" s="1"/>
+      <c r="EZ50" s="1"/>
+      <c r="FA50" s="1"/>
+      <c r="FB50" s="1"/>
+      <c r="FC50" s="1"/>
+      <c r="FD50" s="1"/>
+      <c r="FE50" s="1"/>
+      <c r="FF50" s="1"/>
+      <c r="FG50" s="1"/>
+      <c r="FH50" s="1"/>
+      <c r="FI50" s="1"/>
+      <c r="FJ50" s="1"/>
+      <c r="FK50" s="1"/>
+      <c r="FL50" s="1"/>
+      <c r="FM50" s="1"/>
+      <c r="FN50" s="1"/>
+      <c r="FO50" s="1"/>
+      <c r="FP50" s="1"/>
+      <c r="FQ50" s="1"/>
+      <c r="FR50" s="1"/>
+      <c r="FS50" s="1"/>
+      <c r="FT50" s="1"/>
+      <c r="FU50" s="1"/>
+      <c r="FV50" s="1"/>
+      <c r="FW50" s="1"/>
+      <c r="FX50" s="1"/>
+      <c r="FY50" s="1"/>
+      <c r="FZ50" s="1"/>
+      <c r="GA50" s="1"/>
+      <c r="GB50" s="1"/>
+      <c r="GC50" s="1"/>
+      <c r="GD50" s="1"/>
+      <c r="GE50" s="1"/>
+      <c r="GF50" s="1"/>
+      <c r="GG50" s="1"/>
+      <c r="GH50" s="1"/>
+      <c r="GI50" s="1"/>
+      <c r="GJ50" s="1"/>
+      <c r="GK50" s="1"/>
+      <c r="GL50" s="1"/>
+      <c r="GM50" s="1"/>
+      <c r="GN50" s="1"/>
+      <c r="GO50" s="1"/>
+      <c r="GP50" s="1"/>
+      <c r="GQ50" s="1"/>
+      <c r="GR50" s="1"/>
+      <c r="GS50" s="1"/>
+      <c r="GT50" s="1"/>
+      <c r="GU50" s="1"/>
+      <c r="GV50" s="1"/>
+      <c r="GW50" s="1"/>
+      <c r="GX50" s="1"/>
+      <c r="GY50" s="1"/>
+      <c r="GZ50" s="1"/>
+      <c r="HA50" s="1"/>
+      <c r="HB50" s="1"/>
+      <c r="HC50" s="1"/>
+      <c r="HD50" s="1"/>
+      <c r="HE50" s="1"/>
+      <c r="HF50" s="1"/>
+      <c r="HG50" s="1"/>
+      <c r="HH50" s="1"/>
+      <c r="HI50" s="1"/>
+      <c r="HJ50" s="1"/>
+      <c r="HK50" s="1"/>
+      <c r="HL50" s="1"/>
+      <c r="HM50" s="1"/>
+      <c r="HN50" s="1"/>
+      <c r="HO50" s="1"/>
+      <c r="HP50" s="1"/>
+      <c r="HQ50" s="1"/>
+      <c r="HR50" s="1"/>
+      <c r="HS50" s="1"/>
+      <c r="HT50" s="1"/>
+      <c r="HU50" s="1"/>
+      <c r="HV50" s="1"/>
+      <c r="HW50" s="1"/>
+      <c r="HX50" s="1"/>
+      <c r="HY50" s="1"/>
+      <c r="HZ50" s="1"/>
+      <c r="IA50" s="1"/>
+      <c r="IB50" s="1"/>
+      <c r="IC50" s="1"/>
+      <c r="ID50" s="1"/>
+      <c r="IE50" s="1"/>
+      <c r="IF50" s="1"/>
+      <c r="IG50" s="1"/>
+      <c r="IH50" s="1"/>
+      <c r="II50" s="1"/>
+      <c r="IJ50" s="1"/>
+      <c r="IK50" s="1"/>
+      <c r="IL50" s="1"/>
+      <c r="IM50" s="1"/>
+      <c r="IN50" s="1"/>
+      <c r="IO50" s="1"/>
+      <c r="IP50" s="1"/>
+      <c r="IQ50" s="1"/>
+      <c r="IR50" s="1"/>
+      <c r="IS50" s="1"/>
+      <c r="IT50" s="1"/>
+      <c r="IU50" s="1"/>
+      <c r="IV50" s="1"/>
+      <c r="IW50" s="1"/>
+      <c r="IX50" s="1"/>
+    </row>
+    <row r="51" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="5"/>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="5"/>
+      <c r="R51" s="5"/>
+      <c r="S51" s="5"/>
+      <c r="T51" s="5"/>
+      <c r="U51" s="5"/>
+      <c r="V51" s="5"/>
+      <c r="W51" s="5"/>
+      <c r="X51" s="5"/>
+      <c r="Y51" s="5"/>
+      <c r="Z51" s="5"/>
+      <c r="AA51" s="5"/>
+      <c r="AB51" s="5"/>
+      <c r="AC51" s="5"/>
+      <c r="AD51" s="5"/>
+      <c r="AE51" s="5"/>
+      <c r="AF51" s="5"/>
+      <c r="AG51" s="5"/>
+      <c r="AH51" s="5"/>
+      <c r="AI51" s="5"/>
+      <c r="AJ51" s="5"/>
+      <c r="AK51" s="5"/>
+      <c r="AL51" s="5"/>
+      <c r="AM51" s="5"/>
+      <c r="AN51" s="5"/>
+      <c r="AO51" s="5"/>
+      <c r="AP51" s="5"/>
+      <c r="AQ51" s="5"/>
+      <c r="AR51" s="5"/>
+      <c r="AS51" s="5"/>
+      <c r="AT51" s="5"/>
+      <c r="AU51" s="5"/>
+      <c r="AV51" s="5"/>
+      <c r="AW51" s="5"/>
+      <c r="AX51" s="5"/>
+      <c r="AY51" s="5"/>
+      <c r="AZ51" s="5"/>
+      <c r="BA51" s="5"/>
+      <c r="BB51" s="5"/>
+      <c r="BC51" s="5"/>
+      <c r="BD51" s="5"/>
+      <c r="BE51" s="5"/>
+      <c r="BF51" s="5"/>
+      <c r="BG51" s="5"/>
+      <c r="BH51" s="5"/>
+      <c r="BI51" s="5"/>
+      <c r="BJ51" s="1"/>
+      <c r="BK51" s="1"/>
+      <c r="BL51" s="1"/>
+      <c r="BM51" s="1"/>
+      <c r="BN51" s="1"/>
+      <c r="BO51" s="1"/>
+      <c r="BP51" s="1"/>
+      <c r="BQ51" s="1"/>
+      <c r="BR51" s="1"/>
+      <c r="BS51" s="1"/>
+      <c r="BT51" s="1"/>
+      <c r="BU51" s="1"/>
+      <c r="BV51" s="1"/>
+      <c r="BW51" s="1"/>
+      <c r="BX51" s="1"/>
+      <c r="BY51" s="1"/>
+      <c r="BZ51" s="1"/>
+      <c r="CA51" s="1"/>
+      <c r="CB51" s="1"/>
+      <c r="CC51" s="1"/>
+      <c r="CD51" s="1"/>
+      <c r="CE51" s="1"/>
+      <c r="CF51" s="1"/>
+      <c r="CG51" s="1"/>
+      <c r="CH51" s="1"/>
+      <c r="CI51" s="1"/>
+      <c r="CJ51" s="1"/>
+      <c r="CK51" s="1"/>
+      <c r="CL51" s="1"/>
+      <c r="CM51" s="1"/>
+      <c r="CN51" s="1"/>
+      <c r="CO51" s="1"/>
+      <c r="CP51" s="1"/>
+      <c r="CQ51" s="1"/>
+      <c r="CR51" s="1"/>
+      <c r="CS51" s="1"/>
+      <c r="CT51" s="1"/>
+      <c r="CU51" s="1"/>
+      <c r="CV51" s="1"/>
+      <c r="CW51" s="1"/>
+      <c r="CX51" s="1"/>
+      <c r="CY51" s="1"/>
+      <c r="CZ51" s="1"/>
+      <c r="DA51" s="1"/>
+      <c r="DB51" s="1"/>
+      <c r="DC51" s="1"/>
+      <c r="DD51" s="1"/>
+      <c r="DE51" s="1"/>
+      <c r="DF51" s="1"/>
+      <c r="DG51" s="1"/>
+      <c r="DH51" s="1"/>
+      <c r="DI51" s="1"/>
+      <c r="DJ51" s="1"/>
+      <c r="DK51" s="1"/>
+      <c r="DL51" s="1"/>
+      <c r="DM51" s="1"/>
+      <c r="DN51" s="1"/>
+      <c r="DO51" s="1"/>
+      <c r="DP51" s="1"/>
+      <c r="DQ51" s="1"/>
+      <c r="DR51" s="1"/>
+      <c r="DS51" s="1"/>
+      <c r="DT51" s="1"/>
+      <c r="DU51" s="1"/>
+      <c r="DV51" s="1"/>
+      <c r="DW51" s="1"/>
+      <c r="DX51" s="1"/>
+      <c r="DY51" s="1"/>
+      <c r="DZ51" s="1"/>
+      <c r="EA51" s="1"/>
+      <c r="EB51" s="1"/>
+      <c r="EC51" s="1"/>
+      <c r="ED51" s="1"/>
+      <c r="EE51" s="1"/>
+      <c r="EF51" s="1"/>
+      <c r="EG51" s="1"/>
+      <c r="EH51" s="1"/>
+      <c r="EI51" s="1"/>
+      <c r="EJ51" s="1"/>
+      <c r="EK51" s="1"/>
+      <c r="EL51" s="1"/>
+      <c r="EM51" s="1"/>
+      <c r="EN51" s="1"/>
+      <c r="EO51" s="1"/>
+      <c r="EP51" s="1"/>
+      <c r="EQ51" s="1"/>
+      <c r="ER51" s="1"/>
+      <c r="ES51" s="1"/>
+      <c r="ET51" s="1"/>
+      <c r="EU51" s="1"/>
+      <c r="EV51" s="1"/>
+      <c r="EW51" s="1"/>
+      <c r="EX51" s="1"/>
+      <c r="EY51" s="1"/>
+      <c r="EZ51" s="1"/>
+      <c r="FA51" s="1"/>
+      <c r="FB51" s="1"/>
+      <c r="FC51" s="1"/>
+      <c r="FD51" s="1"/>
+      <c r="FE51" s="1"/>
+      <c r="FF51" s="1"/>
+      <c r="FG51" s="1"/>
+      <c r="FH51" s="1"/>
+      <c r="FI51" s="1"/>
+      <c r="FJ51" s="1"/>
+      <c r="FK51" s="1"/>
+      <c r="FL51" s="1"/>
+      <c r="FM51" s="1"/>
+      <c r="FN51" s="1"/>
+      <c r="FO51" s="1"/>
+      <c r="FP51" s="1"/>
+      <c r="FQ51" s="1"/>
+      <c r="FR51" s="1"/>
+      <c r="FS51" s="1"/>
+      <c r="FT51" s="1"/>
+      <c r="FU51" s="1"/>
+      <c r="FV51" s="1"/>
+      <c r="FW51" s="1"/>
+      <c r="FX51" s="1"/>
+      <c r="FY51" s="1"/>
+      <c r="FZ51" s="1"/>
+      <c r="GA51" s="1"/>
+      <c r="GB51" s="1"/>
+      <c r="GC51" s="1"/>
+      <c r="GD51" s="1"/>
+      <c r="GE51" s="1"/>
+      <c r="GF51" s="1"/>
+      <c r="GG51" s="1"/>
+      <c r="GH51" s="1"/>
+      <c r="GI51" s="1"/>
+      <c r="GJ51" s="1"/>
+      <c r="GK51" s="1"/>
+      <c r="GL51" s="1"/>
+      <c r="GM51" s="1"/>
+      <c r="GN51" s="1"/>
+      <c r="GO51" s="1"/>
+      <c r="GP51" s="1"/>
+      <c r="GQ51" s="1"/>
+      <c r="GR51" s="1"/>
+      <c r="GS51" s="1"/>
+      <c r="GT51" s="1"/>
+      <c r="GU51" s="1"/>
+      <c r="GV51" s="1"/>
+      <c r="GW51" s="1"/>
+      <c r="GX51" s="1"/>
+      <c r="GY51" s="1"/>
+      <c r="GZ51" s="1"/>
+      <c r="HA51" s="1"/>
+      <c r="HB51" s="1"/>
+      <c r="HC51" s="1"/>
+      <c r="HD51" s="1"/>
+      <c r="HE51" s="1"/>
+      <c r="HF51" s="1"/>
+      <c r="HG51" s="1"/>
+      <c r="HH51" s="1"/>
+      <c r="HI51" s="1"/>
+      <c r="HJ51" s="1"/>
+      <c r="HK51" s="1"/>
+      <c r="HL51" s="1"/>
+      <c r="HM51" s="1"/>
+      <c r="HN51" s="1"/>
+      <c r="HO51" s="1"/>
+      <c r="HP51" s="1"/>
+      <c r="HQ51" s="1"/>
+      <c r="HR51" s="1"/>
+      <c r="HS51" s="1"/>
+      <c r="HT51" s="1"/>
+      <c r="HU51" s="1"/>
+      <c r="HV51" s="1"/>
+      <c r="HW51" s="1"/>
+      <c r="HX51" s="1"/>
+      <c r="HY51" s="1"/>
+      <c r="HZ51" s="1"/>
+      <c r="IA51" s="1"/>
+      <c r="IB51" s="1"/>
+      <c r="IC51" s="1"/>
+      <c r="ID51" s="1"/>
+      <c r="IE51" s="1"/>
+      <c r="IF51" s="1"/>
+      <c r="IG51" s="1"/>
+      <c r="IH51" s="1"/>
+      <c r="II51" s="1"/>
+      <c r="IJ51" s="1"/>
+      <c r="IK51" s="1"/>
+      <c r="IL51" s="1"/>
+      <c r="IM51" s="1"/>
+      <c r="IN51" s="1"/>
+      <c r="IO51" s="1"/>
+      <c r="IP51" s="1"/>
+      <c r="IQ51" s="1"/>
+      <c r="IR51" s="1"/>
+      <c r="IS51" s="1"/>
+      <c r="IT51" s="1"/>
+      <c r="IU51" s="1"/>
+      <c r="IV51" s="1"/>
+      <c r="IW51" s="1"/>
+      <c r="IX51" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="44">
     <mergeCell ref="A9:C9"/>
@@ -24602,92 +25487,105 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.59015748031496063" right="0.59015748031496063" top="0.8271653543307087" bottom="1.2208661417322835" header="0.78740157480314954" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="64" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="60" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C72B1EA-E74C-4E9E-BA69-5979DCD683B2}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="110" t="s">
-        <v>103</v>
+      <c r="A1" s="111" t="s">
+        <v>78</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
     </row>
     <row r="2" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="110"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
     </row>
     <row r="3" spans="1:9" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="109"/>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
+      <c r="A3" s="77"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
     </row>
     <row r="4" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="107"/>
-      <c r="B4" s="105"/>
-      <c r="C4" s="94" t="s">
-        <v>90</v>
+      <c r="A4" s="75"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="112" t="s">
+        <v>66</v>
       </c>
-      <c r="D4" s="95"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="114"/>
     </row>
     <row r="5" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="106"/>
-      <c r="B5" s="108"/>
-      <c r="C5" s="102" t="s">
-        <v>93</v>
+      <c r="A5" s="74"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="70" t="s">
+        <v>69</v>
       </c>
-      <c r="D5" s="96" t="s">
-        <v>94</v>
+      <c r="D5" s="80" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="78" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="97" t="s">
-        <v>89</v>
+      <c r="A6" s="109" t="s">
+        <v>65</v>
       </c>
-      <c r="B6" s="100" t="s">
-        <v>91</v>
+      <c r="B6" s="69" t="s">
+        <v>67</v>
       </c>
-      <c r="C6" s="103" t="s">
-        <v>95</v>
+      <c r="C6" s="71" t="s">
+        <v>70</v>
       </c>
-      <c r="D6" s="101" t="s">
-        <v>98</v>
+      <c r="D6" s="81" t="s">
+        <v>73</v>
       </c>
-      <c r="I6" s="92"/>
+      <c r="E6" s="78" t="s">
+        <v>99</v>
+      </c>
+      <c r="I6" s="67"/>
     </row>
     <row r="7" spans="1:9" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="98"/>
-      <c r="B7" s="99" t="s">
-        <v>92</v>
+      <c r="A7" s="110"/>
+      <c r="B7" s="68" t="s">
+        <v>68</v>
       </c>
-      <c r="C7" s="104" t="s">
-        <v>96</v>
+      <c r="C7" s="72" t="s">
+        <v>71</v>
       </c>
-      <c r="D7" s="93" t="s">
-        <v>97</v>
+      <c r="D7" s="82" t="s">
+        <v>72</v>
       </c>
+      <c r="E7" s="79" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C4:D4"/>
     <mergeCell ref="A1:C2"/>
+    <mergeCell ref="C4:E4"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/020-内部_プログラミング設計/022-クラス仕様書/テンプレート/Service/Serviceのクラス仕様書(SearchResultServiceImpl).xlsx
+++ b/020-内部_プログラミング設計/022-クラス仕様書/テンプレート/Service/Serviceのクラス仕様書(SearchResultServiceImpl).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE4D4E5B-F49D-48B5-85CF-29F4ED82AAF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0647423-86E3-433D-8586-DA9A09D0AC92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス仕様" sheetId="1" r:id="rId1"/>
@@ -1512,28 +1512,46 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1544,32 +1562,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1580,11 +1577,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1949,8 +1949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IX19"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AE9" sqref="AE9:AN9"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1959,85 +1959,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="84" t="s">
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="85" t="s">
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
-      <c r="W1" s="85"/>
-      <c r="X1" s="85"/>
-      <c r="Y1" s="85"/>
-      <c r="Z1" s="85"/>
-      <c r="AA1" s="85"/>
-      <c r="AB1" s="84" t="s">
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89"/>
+      <c r="X1" s="89"/>
+      <c r="Y1" s="89"/>
+      <c r="Z1" s="89"/>
+      <c r="AA1" s="89"/>
+      <c r="AB1" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="AC1" s="84"/>
-      <c r="AD1" s="84"/>
-      <c r="AE1" s="85" t="s">
+      <c r="AC1" s="90"/>
+      <c r="AD1" s="90"/>
+      <c r="AE1" s="89" t="s">
         <v>79</v>
       </c>
-      <c r="AF1" s="85"/>
-      <c r="AG1" s="85"/>
-      <c r="AH1" s="85"/>
-      <c r="AI1" s="85"/>
-      <c r="AJ1" s="85"/>
-      <c r="AK1" s="85"/>
-      <c r="AL1" s="85"/>
-      <c r="AM1" s="85"/>
-      <c r="AN1" s="85"/>
-      <c r="AO1" s="85"/>
-      <c r="AP1" s="85"/>
-      <c r="AQ1" s="84" t="s">
+      <c r="AF1" s="89"/>
+      <c r="AG1" s="89"/>
+      <c r="AH1" s="89"/>
+      <c r="AI1" s="89"/>
+      <c r="AJ1" s="89"/>
+      <c r="AK1" s="89"/>
+      <c r="AL1" s="89"/>
+      <c r="AM1" s="89"/>
+      <c r="AN1" s="89"/>
+      <c r="AO1" s="89"/>
+      <c r="AP1" s="89"/>
+      <c r="AQ1" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="AR1" s="84"/>
-      <c r="AS1" s="84"/>
-      <c r="AT1" s="85" t="s">
+      <c r="AR1" s="90"/>
+      <c r="AS1" s="90"/>
+      <c r="AT1" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="AU1" s="85"/>
-      <c r="AV1" s="85"/>
-      <c r="AW1" s="85"/>
-      <c r="AX1" s="85"/>
-      <c r="AY1" s="85"/>
-      <c r="AZ1" s="85"/>
-      <c r="BA1" s="84" t="s">
+      <c r="AU1" s="89"/>
+      <c r="AV1" s="89"/>
+      <c r="AW1" s="89"/>
+      <c r="AX1" s="89"/>
+      <c r="AY1" s="89"/>
+      <c r="AZ1" s="89"/>
+      <c r="BA1" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="BB1" s="84"/>
-      <c r="BC1" s="84"/>
-      <c r="BD1" s="86">
+      <c r="BB1" s="90"/>
+      <c r="BC1" s="90"/>
+      <c r="BD1" s="87">
         <v>45537</v>
       </c>
-      <c r="BE1" s="86"/>
-      <c r="BF1" s="86"/>
-      <c r="BG1" s="86"/>
-      <c r="BH1" s="86"/>
-      <c r="BI1" s="86"/>
+      <c r="BE1" s="87"/>
+      <c r="BF1" s="87"/>
+      <c r="BG1" s="87"/>
+      <c r="BH1" s="87"/>
+      <c r="BI1" s="87"/>
       <c r="BJ1" s="1"/>
       <c r="BK1" s="1"/>
       <c r="BL1" s="1"/>
@@ -2237,82 +2237,82 @@
       <c r="IX1" s="1"/>
     </row>
     <row r="2" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="89"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="84" t="s">
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="90"/>
-      <c r="S2" s="90"/>
-      <c r="T2" s="90"/>
-      <c r="U2" s="90"/>
-      <c r="V2" s="90"/>
-      <c r="W2" s="90"/>
-      <c r="X2" s="90"/>
-      <c r="Y2" s="90"/>
-      <c r="Z2" s="90"/>
-      <c r="AA2" s="90"/>
-      <c r="AB2" s="84" t="s">
+      <c r="N2" s="90"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="90"/>
+      <c r="Q2" s="90"/>
+      <c r="R2" s="91"/>
+      <c r="S2" s="91"/>
+      <c r="T2" s="91"/>
+      <c r="U2" s="91"/>
+      <c r="V2" s="91"/>
+      <c r="W2" s="91"/>
+      <c r="X2" s="91"/>
+      <c r="Y2" s="91"/>
+      <c r="Z2" s="91"/>
+      <c r="AA2" s="91"/>
+      <c r="AB2" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="AC2" s="84"/>
-      <c r="AD2" s="84"/>
-      <c r="AE2" s="85" t="str">
+      <c r="AC2" s="90"/>
+      <c r="AD2" s="90"/>
+      <c r="AE2" s="89" t="str">
         <f>G5</f>
         <v>SearchResultService</v>
       </c>
-      <c r="AF2" s="85"/>
-      <c r="AG2" s="85"/>
-      <c r="AH2" s="85"/>
-      <c r="AI2" s="85"/>
-      <c r="AJ2" s="85"/>
-      <c r="AK2" s="85"/>
-      <c r="AL2" s="85"/>
-      <c r="AM2" s="85"/>
-      <c r="AN2" s="85"/>
-      <c r="AO2" s="85"/>
-      <c r="AP2" s="85"/>
-      <c r="AQ2" s="84" t="s">
+      <c r="AF2" s="89"/>
+      <c r="AG2" s="89"/>
+      <c r="AH2" s="89"/>
+      <c r="AI2" s="89"/>
+      <c r="AJ2" s="89"/>
+      <c r="AK2" s="89"/>
+      <c r="AL2" s="89"/>
+      <c r="AM2" s="89"/>
+      <c r="AN2" s="89"/>
+      <c r="AO2" s="89"/>
+      <c r="AP2" s="89"/>
+      <c r="AQ2" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="AR2" s="84"/>
-      <c r="AS2" s="84"/>
-      <c r="AT2" s="85" t="s">
+      <c r="AR2" s="90"/>
+      <c r="AS2" s="90"/>
+      <c r="AT2" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="AU2" s="85"/>
-      <c r="AV2" s="85"/>
-      <c r="AW2" s="85"/>
-      <c r="AX2" s="85"/>
-      <c r="AY2" s="85"/>
-      <c r="AZ2" s="85"/>
-      <c r="BA2" s="84" t="s">
+      <c r="AU2" s="89"/>
+      <c r="AV2" s="89"/>
+      <c r="AW2" s="89"/>
+      <c r="AX2" s="89"/>
+      <c r="AY2" s="89"/>
+      <c r="AZ2" s="89"/>
+      <c r="BA2" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="BB2" s="84"/>
-      <c r="BC2" s="84"/>
-      <c r="BD2" s="86">
+      <c r="BB2" s="90"/>
+      <c r="BC2" s="90"/>
+      <c r="BD2" s="87">
         <v>45566</v>
       </c>
-      <c r="BE2" s="86"/>
-      <c r="BF2" s="86"/>
-      <c r="BG2" s="86"/>
-      <c r="BH2" s="86"/>
-      <c r="BI2" s="86"/>
+      <c r="BE2" s="87"/>
+      <c r="BF2" s="87"/>
+      <c r="BG2" s="87"/>
+      <c r="BH2" s="87"/>
+      <c r="BI2" s="87"/>
       <c r="BJ2" s="1"/>
       <c r="BK2" s="1"/>
       <c r="BL2" s="1"/>
@@ -2575,950 +2575,935 @@
       <c r="BI3" s="3"/>
     </row>
     <row r="4" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="87" t="s">
+      <c r="A4" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="88" t="s">
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="84" t="s">
         <v>81</v>
       </c>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="88"/>
-      <c r="O4" s="88"/>
-      <c r="P4" s="88"/>
-      <c r="Q4" s="88"/>
-      <c r="R4" s="88"/>
-      <c r="S4" s="88"/>
-      <c r="T4" s="88"/>
-      <c r="U4" s="88"/>
-      <c r="V4" s="88"/>
-      <c r="W4" s="88"/>
-      <c r="X4" s="88"/>
-      <c r="Y4" s="88"/>
-      <c r="Z4" s="88"/>
-      <c r="AA4" s="88"/>
-      <c r="AB4" s="88"/>
-      <c r="AC4" s="88"/>
-      <c r="AD4" s="88"/>
-      <c r="AE4" s="88"/>
-      <c r="AF4" s="88"/>
-      <c r="AG4" s="88"/>
-      <c r="AH4" s="88"/>
-      <c r="AI4" s="88"/>
-      <c r="AJ4" s="88"/>
-      <c r="AK4" s="88"/>
-      <c r="AL4" s="88"/>
-      <c r="AM4" s="88"/>
-      <c r="AN4" s="88"/>
-      <c r="AO4" s="88"/>
-      <c r="AP4" s="88"/>
-      <c r="AQ4" s="88"/>
-      <c r="AR4" s="88"/>
-      <c r="AS4" s="88"/>
-      <c r="AT4" s="88"/>
-      <c r="AU4" s="88"/>
-      <c r="AV4" s="88"/>
-      <c r="AW4" s="88"/>
-      <c r="AX4" s="88"/>
-      <c r="AY4" s="88"/>
-      <c r="AZ4" s="88"/>
-      <c r="BA4" s="88"/>
-      <c r="BB4" s="88"/>
-      <c r="BC4" s="88"/>
-      <c r="BD4" s="88"/>
-      <c r="BE4" s="88"/>
-      <c r="BF4" s="88"/>
-      <c r="BG4" s="88"/>
-      <c r="BH4" s="88"/>
-      <c r="BI4" s="88"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="84"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="84"/>
+      <c r="N4" s="84"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="84"/>
+      <c r="Q4" s="84"/>
+      <c r="R4" s="84"/>
+      <c r="S4" s="84"/>
+      <c r="T4" s="84"/>
+      <c r="U4" s="84"/>
+      <c r="V4" s="84"/>
+      <c r="W4" s="84"/>
+      <c r="X4" s="84"/>
+      <c r="Y4" s="84"/>
+      <c r="Z4" s="84"/>
+      <c r="AA4" s="84"/>
+      <c r="AB4" s="84"/>
+      <c r="AC4" s="84"/>
+      <c r="AD4" s="84"/>
+      <c r="AE4" s="84"/>
+      <c r="AF4" s="84"/>
+      <c r="AG4" s="84"/>
+      <c r="AH4" s="84"/>
+      <c r="AI4" s="84"/>
+      <c r="AJ4" s="84"/>
+      <c r="AK4" s="84"/>
+      <c r="AL4" s="84"/>
+      <c r="AM4" s="84"/>
+      <c r="AN4" s="84"/>
+      <c r="AO4" s="84"/>
+      <c r="AP4" s="84"/>
+      <c r="AQ4" s="84"/>
+      <c r="AR4" s="84"/>
+      <c r="AS4" s="84"/>
+      <c r="AT4" s="84"/>
+      <c r="AU4" s="84"/>
+      <c r="AV4" s="84"/>
+      <c r="AW4" s="84"/>
+      <c r="AX4" s="84"/>
+      <c r="AY4" s="84"/>
+      <c r="AZ4" s="84"/>
+      <c r="BA4" s="84"/>
+      <c r="BB4" s="84"/>
+      <c r="BC4" s="84"/>
+      <c r="BD4" s="84"/>
+      <c r="BE4" s="84"/>
+      <c r="BF4" s="84"/>
+      <c r="BG4" s="84"/>
+      <c r="BH4" s="84"/>
+      <c r="BI4" s="84"/>
     </row>
     <row r="5" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="87" t="s">
+      <c r="A5" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="87"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="88" t="s">
+      <c r="B5" s="86"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="88"/>
-      <c r="K5" s="88"/>
-      <c r="L5" s="88"/>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="88"/>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="88"/>
-      <c r="R5" s="88"/>
-      <c r="S5" s="88"/>
-      <c r="T5" s="88"/>
-      <c r="U5" s="88"/>
-      <c r="V5" s="88"/>
-      <c r="W5" s="88"/>
-      <c r="X5" s="88"/>
-      <c r="Y5" s="88"/>
-      <c r="Z5" s="88"/>
-      <c r="AA5" s="88"/>
-      <c r="AB5" s="88"/>
-      <c r="AC5" s="88"/>
-      <c r="AD5" s="88"/>
-      <c r="AE5" s="88"/>
-      <c r="AF5" s="88"/>
-      <c r="AG5" s="88"/>
-      <c r="AH5" s="88"/>
-      <c r="AI5" s="88"/>
-      <c r="AJ5" s="88"/>
-      <c r="AK5" s="88"/>
-      <c r="AL5" s="88"/>
-      <c r="AM5" s="88"/>
-      <c r="AN5" s="88"/>
-      <c r="AO5" s="88"/>
-      <c r="AP5" s="88"/>
-      <c r="AQ5" s="88"/>
-      <c r="AR5" s="88"/>
-      <c r="AS5" s="88"/>
-      <c r="AT5" s="88"/>
-      <c r="AU5" s="88"/>
-      <c r="AV5" s="88"/>
-      <c r="AW5" s="88"/>
-      <c r="AX5" s="88"/>
-      <c r="AY5" s="88"/>
-      <c r="AZ5" s="88"/>
-      <c r="BA5" s="88"/>
-      <c r="BB5" s="88"/>
-      <c r="BC5" s="88"/>
-      <c r="BD5" s="88"/>
-      <c r="BE5" s="88"/>
-      <c r="BF5" s="88"/>
-      <c r="BG5" s="88"/>
-      <c r="BH5" s="88"/>
-      <c r="BI5" s="88"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="84"/>
+      <c r="T5" s="84"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
+      <c r="W5" s="84"/>
+      <c r="X5" s="84"/>
+      <c r="Y5" s="84"/>
+      <c r="Z5" s="84"/>
+      <c r="AA5" s="84"/>
+      <c r="AB5" s="84"/>
+      <c r="AC5" s="84"/>
+      <c r="AD5" s="84"/>
+      <c r="AE5" s="84"/>
+      <c r="AF5" s="84"/>
+      <c r="AG5" s="84"/>
+      <c r="AH5" s="84"/>
+      <c r="AI5" s="84"/>
+      <c r="AJ5" s="84"/>
+      <c r="AK5" s="84"/>
+      <c r="AL5" s="84"/>
+      <c r="AM5" s="84"/>
+      <c r="AN5" s="84"/>
+      <c r="AO5" s="84"/>
+      <c r="AP5" s="84"/>
+      <c r="AQ5" s="84"/>
+      <c r="AR5" s="84"/>
+      <c r="AS5" s="84"/>
+      <c r="AT5" s="84"/>
+      <c r="AU5" s="84"/>
+      <c r="AV5" s="84"/>
+      <c r="AW5" s="84"/>
+      <c r="AX5" s="84"/>
+      <c r="AY5" s="84"/>
+      <c r="AZ5" s="84"/>
+      <c r="BA5" s="84"/>
+      <c r="BB5" s="84"/>
+      <c r="BC5" s="84"/>
+      <c r="BD5" s="84"/>
+      <c r="BE5" s="84"/>
+      <c r="BF5" s="84"/>
+      <c r="BG5" s="84"/>
+      <c r="BH5" s="84"/>
+      <c r="BI5" s="84"/>
     </row>
     <row r="6" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="87"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="88" t="s">
+      <c r="B6" s="86"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="88"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="88"/>
-      <c r="K6" s="88"/>
-      <c r="L6" s="88"/>
-      <c r="M6" s="88"/>
-      <c r="N6" s="88"/>
-      <c r="O6" s="88"/>
-      <c r="P6" s="88"/>
-      <c r="Q6" s="88"/>
-      <c r="R6" s="88"/>
-      <c r="S6" s="88"/>
-      <c r="T6" s="88"/>
-      <c r="U6" s="88"/>
-      <c r="V6" s="88"/>
-      <c r="W6" s="88"/>
-      <c r="X6" s="88"/>
-      <c r="Y6" s="88"/>
-      <c r="Z6" s="88"/>
-      <c r="AA6" s="88"/>
-      <c r="AB6" s="88"/>
-      <c r="AC6" s="88"/>
-      <c r="AD6" s="87" t="s">
+      <c r="H6" s="84"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="84"/>
+      <c r="N6" s="84"/>
+      <c r="O6" s="84"/>
+      <c r="P6" s="84"/>
+      <c r="Q6" s="84"/>
+      <c r="R6" s="84"/>
+      <c r="S6" s="84"/>
+      <c r="T6" s="84"/>
+      <c r="U6" s="84"/>
+      <c r="V6" s="84"/>
+      <c r="W6" s="84"/>
+      <c r="X6" s="84"/>
+      <c r="Y6" s="84"/>
+      <c r="Z6" s="84"/>
+      <c r="AA6" s="84"/>
+      <c r="AB6" s="84"/>
+      <c r="AC6" s="84"/>
+      <c r="AD6" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="AE6" s="87"/>
-      <c r="AF6" s="87"/>
-      <c r="AG6" s="87"/>
-      <c r="AH6" s="87"/>
-      <c r="AI6" s="87"/>
-      <c r="AJ6" s="88" t="s">
+      <c r="AE6" s="86"/>
+      <c r="AF6" s="86"/>
+      <c r="AG6" s="86"/>
+      <c r="AH6" s="86"/>
+      <c r="AI6" s="86"/>
+      <c r="AJ6" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="AK6" s="88"/>
-      <c r="AL6" s="88"/>
-      <c r="AM6" s="88"/>
-      <c r="AN6" s="88"/>
-      <c r="AO6" s="88"/>
-      <c r="AP6" s="88"/>
-      <c r="AQ6" s="88"/>
-      <c r="AR6" s="88"/>
-      <c r="AS6" s="88"/>
-      <c r="AT6" s="88"/>
-      <c r="AU6" s="88"/>
-      <c r="AV6" s="88"/>
-      <c r="AW6" s="88"/>
-      <c r="AX6" s="88"/>
-      <c r="AY6" s="88"/>
-      <c r="AZ6" s="88"/>
-      <c r="BA6" s="88"/>
-      <c r="BB6" s="88"/>
-      <c r="BC6" s="88"/>
-      <c r="BD6" s="88"/>
-      <c r="BE6" s="88"/>
-      <c r="BF6" s="88"/>
-      <c r="BG6" s="88"/>
-      <c r="BH6" s="88"/>
-      <c r="BI6" s="88"/>
+      <c r="AK6" s="84"/>
+      <c r="AL6" s="84"/>
+      <c r="AM6" s="84"/>
+      <c r="AN6" s="84"/>
+      <c r="AO6" s="84"/>
+      <c r="AP6" s="84"/>
+      <c r="AQ6" s="84"/>
+      <c r="AR6" s="84"/>
+      <c r="AS6" s="84"/>
+      <c r="AT6" s="84"/>
+      <c r="AU6" s="84"/>
+      <c r="AV6" s="84"/>
+      <c r="AW6" s="84"/>
+      <c r="AX6" s="84"/>
+      <c r="AY6" s="84"/>
+      <c r="AZ6" s="84"/>
+      <c r="BA6" s="84"/>
+      <c r="BB6" s="84"/>
+      <c r="BC6" s="84"/>
+      <c r="BD6" s="84"/>
+      <c r="BE6" s="84"/>
+      <c r="BF6" s="84"/>
+      <c r="BG6" s="84"/>
+      <c r="BH6" s="84"/>
+      <c r="BI6" s="84"/>
     </row>
     <row r="8" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="87" t="s">
+      <c r="A8" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="87"/>
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="87"/>
-      <c r="G8" s="87"/>
-      <c r="H8" s="87"/>
-      <c r="I8" s="87"/>
-      <c r="J8" s="87"/>
-      <c r="K8" s="87" t="s">
+      <c r="B8" s="86"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="L8" s="87"/>
-      <c r="M8" s="87"/>
-      <c r="N8" s="87"/>
-      <c r="O8" s="87"/>
-      <c r="P8" s="87"/>
-      <c r="Q8" s="87"/>
-      <c r="R8" s="87"/>
-      <c r="S8" s="87"/>
-      <c r="T8" s="87"/>
-      <c r="U8" s="87" t="s">
+      <c r="L8" s="86"/>
+      <c r="M8" s="86"/>
+      <c r="N8" s="86"/>
+      <c r="O8" s="86"/>
+      <c r="P8" s="86"/>
+      <c r="Q8" s="86"/>
+      <c r="R8" s="86"/>
+      <c r="S8" s="86"/>
+      <c r="T8" s="86"/>
+      <c r="U8" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="V8" s="87"/>
-      <c r="W8" s="87"/>
-      <c r="X8" s="87"/>
-      <c r="Y8" s="87"/>
-      <c r="Z8" s="87"/>
-      <c r="AA8" s="87"/>
-      <c r="AB8" s="87"/>
-      <c r="AC8" s="87"/>
-      <c r="AD8" s="87"/>
-      <c r="AE8" s="87" t="s">
+      <c r="V8" s="86"/>
+      <c r="W8" s="86"/>
+      <c r="X8" s="86"/>
+      <c r="Y8" s="86"/>
+      <c r="Z8" s="86"/>
+      <c r="AA8" s="86"/>
+      <c r="AB8" s="86"/>
+      <c r="AC8" s="86"/>
+      <c r="AD8" s="86"/>
+      <c r="AE8" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="AF8" s="87"/>
-      <c r="AG8" s="87"/>
-      <c r="AH8" s="87"/>
-      <c r="AI8" s="87"/>
-      <c r="AJ8" s="87"/>
-      <c r="AK8" s="87"/>
-      <c r="AL8" s="87"/>
-      <c r="AM8" s="87"/>
-      <c r="AN8" s="87"/>
-      <c r="AO8" s="87" t="s">
+      <c r="AF8" s="86"/>
+      <c r="AG8" s="86"/>
+      <c r="AH8" s="86"/>
+      <c r="AI8" s="86"/>
+      <c r="AJ8" s="86"/>
+      <c r="AK8" s="86"/>
+      <c r="AL8" s="86"/>
+      <c r="AM8" s="86"/>
+      <c r="AN8" s="86"/>
+      <c r="AO8" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="AP8" s="87"/>
-      <c r="AQ8" s="87"/>
-      <c r="AR8" s="87"/>
-      <c r="AS8" s="87"/>
-      <c r="AT8" s="87"/>
-      <c r="AU8" s="87"/>
-      <c r="AV8" s="87"/>
-      <c r="AW8" s="87"/>
-      <c r="AX8" s="87"/>
-      <c r="AY8" s="87"/>
-      <c r="AZ8" s="87"/>
-      <c r="BA8" s="87"/>
-      <c r="BB8" s="87"/>
-      <c r="BC8" s="87"/>
-      <c r="BD8" s="87"/>
-      <c r="BE8" s="87"/>
-      <c r="BF8" s="87"/>
-      <c r="BG8" s="87"/>
-      <c r="BH8" s="87"/>
-      <c r="BI8" s="87"/>
+      <c r="AP8" s="86"/>
+      <c r="AQ8" s="86"/>
+      <c r="AR8" s="86"/>
+      <c r="AS8" s="86"/>
+      <c r="AT8" s="86"/>
+      <c r="AU8" s="86"/>
+      <c r="AV8" s="86"/>
+      <c r="AW8" s="86"/>
+      <c r="AX8" s="86"/>
+      <c r="AY8" s="86"/>
+      <c r="AZ8" s="86"/>
+      <c r="BA8" s="86"/>
+      <c r="BB8" s="86"/>
+      <c r="BC8" s="86"/>
+      <c r="BD8" s="86"/>
+      <c r="BE8" s="86"/>
+      <c r="BF8" s="86"/>
+      <c r="BG8" s="86"/>
+      <c r="BH8" s="86"/>
+      <c r="BI8" s="86"/>
     </row>
     <row r="9" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="91" t="s">
+      <c r="A9" s="85" t="s">
         <v>111</v>
       </c>
-      <c r="B9" s="91"/>
-      <c r="C9" s="91"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="91"/>
-      <c r="H9" s="91"/>
-      <c r="I9" s="91"/>
-      <c r="J9" s="91"/>
-      <c r="K9" s="91" t="s">
+      <c r="B9" s="85"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="85"/>
+      <c r="K9" s="85" t="s">
         <v>112</v>
       </c>
-      <c r="L9" s="91"/>
-      <c r="M9" s="91"/>
-      <c r="N9" s="91"/>
-      <c r="O9" s="91"/>
-      <c r="P9" s="91"/>
-      <c r="Q9" s="91"/>
-      <c r="R9" s="91"/>
-      <c r="S9" s="91"/>
-      <c r="T9" s="91"/>
-      <c r="U9" s="91" t="s">
+      <c r="L9" s="85"/>
+      <c r="M9" s="85"/>
+      <c r="N9" s="85"/>
+      <c r="O9" s="85"/>
+      <c r="P9" s="85"/>
+      <c r="Q9" s="85"/>
+      <c r="R9" s="85"/>
+      <c r="S9" s="85"/>
+      <c r="T9" s="85"/>
+      <c r="U9" s="85" t="s">
         <v>113</v>
       </c>
-      <c r="V9" s="91"/>
-      <c r="W9" s="91"/>
-      <c r="X9" s="91"/>
-      <c r="Y9" s="91"/>
-      <c r="Z9" s="91"/>
-      <c r="AA9" s="91"/>
-      <c r="AB9" s="91"/>
-      <c r="AC9" s="91"/>
-      <c r="AD9" s="91"/>
-      <c r="AE9" s="91" t="s">
+      <c r="V9" s="85"/>
+      <c r="W9" s="85"/>
+      <c r="X9" s="85"/>
+      <c r="Y9" s="85"/>
+      <c r="Z9" s="85"/>
+      <c r="AA9" s="85"/>
+      <c r="AB9" s="85"/>
+      <c r="AC9" s="85"/>
+      <c r="AD9" s="85"/>
+      <c r="AE9" s="85" t="s">
         <v>114</v>
       </c>
-      <c r="AF9" s="91"/>
-      <c r="AG9" s="91"/>
-      <c r="AH9" s="91"/>
-      <c r="AI9" s="91"/>
-      <c r="AJ9" s="91"/>
-      <c r="AK9" s="91"/>
-      <c r="AL9" s="91"/>
-      <c r="AM9" s="91"/>
-      <c r="AN9" s="91"/>
-      <c r="AO9" s="91"/>
-      <c r="AP9" s="91"/>
-      <c r="AQ9" s="91"/>
-      <c r="AR9" s="91"/>
-      <c r="AS9" s="91"/>
-      <c r="AT9" s="91"/>
-      <c r="AU9" s="91"/>
-      <c r="AV9" s="91"/>
-      <c r="AW9" s="91"/>
-      <c r="AX9" s="91"/>
-      <c r="AY9" s="91"/>
-      <c r="AZ9" s="91"/>
-      <c r="BA9" s="91"/>
-      <c r="BB9" s="91"/>
-      <c r="BC9" s="91"/>
-      <c r="BD9" s="91"/>
-      <c r="BE9" s="91"/>
-      <c r="BF9" s="91"/>
-      <c r="BG9" s="91"/>
-      <c r="BH9" s="91"/>
-      <c r="BI9" s="91"/>
+      <c r="AF9" s="85"/>
+      <c r="AG9" s="85"/>
+      <c r="AH9" s="85"/>
+      <c r="AI9" s="85"/>
+      <c r="AJ9" s="85"/>
+      <c r="AK9" s="85"/>
+      <c r="AL9" s="85"/>
+      <c r="AM9" s="85"/>
+      <c r="AN9" s="85"/>
+      <c r="AO9" s="85"/>
+      <c r="AP9" s="85"/>
+      <c r="AQ9" s="85"/>
+      <c r="AR9" s="85"/>
+      <c r="AS9" s="85"/>
+      <c r="AT9" s="85"/>
+      <c r="AU9" s="85"/>
+      <c r="AV9" s="85"/>
+      <c r="AW9" s="85"/>
+      <c r="AX9" s="85"/>
+      <c r="AY9" s="85"/>
+      <c r="AZ9" s="85"/>
+      <c r="BA9" s="85"/>
+      <c r="BB9" s="85"/>
+      <c r="BC9" s="85"/>
+      <c r="BD9" s="85"/>
+      <c r="BE9" s="85"/>
+      <c r="BF9" s="85"/>
+      <c r="BG9" s="85"/>
+      <c r="BH9" s="85"/>
+      <c r="BI9" s="85"/>
     </row>
     <row r="10" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="91"/>
-      <c r="B10" s="91"/>
-      <c r="C10" s="91"/>
-      <c r="D10" s="91"/>
-      <c r="E10" s="91"/>
-      <c r="F10" s="91"/>
-      <c r="G10" s="91"/>
-      <c r="H10" s="91"/>
-      <c r="I10" s="91"/>
-      <c r="J10" s="91"/>
-      <c r="K10" s="91"/>
-      <c r="L10" s="91"/>
-      <c r="M10" s="91"/>
-      <c r="N10" s="91"/>
-      <c r="O10" s="91"/>
-      <c r="P10" s="91"/>
-      <c r="Q10" s="91"/>
-      <c r="R10" s="91"/>
-      <c r="S10" s="91"/>
-      <c r="T10" s="91"/>
-      <c r="U10" s="91"/>
-      <c r="V10" s="91"/>
-      <c r="W10" s="91"/>
-      <c r="X10" s="91"/>
-      <c r="Y10" s="91"/>
-      <c r="Z10" s="91"/>
-      <c r="AA10" s="91"/>
-      <c r="AB10" s="91"/>
-      <c r="AC10" s="91"/>
-      <c r="AD10" s="91"/>
-      <c r="AE10" s="91"/>
-      <c r="AF10" s="91"/>
-      <c r="AG10" s="91"/>
-      <c r="AH10" s="91"/>
-      <c r="AI10" s="91"/>
-      <c r="AJ10" s="91"/>
-      <c r="AK10" s="91"/>
-      <c r="AL10" s="91"/>
-      <c r="AM10" s="91"/>
-      <c r="AN10" s="91"/>
-      <c r="AO10" s="91"/>
-      <c r="AP10" s="91"/>
-      <c r="AQ10" s="91"/>
-      <c r="AR10" s="91"/>
-      <c r="AS10" s="91"/>
-      <c r="AT10" s="91"/>
-      <c r="AU10" s="91"/>
-      <c r="AV10" s="91"/>
-      <c r="AW10" s="91"/>
-      <c r="AX10" s="91"/>
-      <c r="AY10" s="91"/>
-      <c r="AZ10" s="91"/>
-      <c r="BA10" s="91"/>
-      <c r="BB10" s="91"/>
-      <c r="BC10" s="91"/>
-      <c r="BD10" s="91"/>
-      <c r="BE10" s="91"/>
-      <c r="BF10" s="91"/>
-      <c r="BG10" s="91"/>
-      <c r="BH10" s="91"/>
-      <c r="BI10" s="91"/>
+      <c r="A10" s="85"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="85"/>
+      <c r="K10" s="85"/>
+      <c r="L10" s="85"/>
+      <c r="M10" s="85"/>
+      <c r="N10" s="85"/>
+      <c r="O10" s="85"/>
+      <c r="P10" s="85"/>
+      <c r="Q10" s="85"/>
+      <c r="R10" s="85"/>
+      <c r="S10" s="85"/>
+      <c r="T10" s="85"/>
+      <c r="U10" s="85"/>
+      <c r="V10" s="85"/>
+      <c r="W10" s="85"/>
+      <c r="X10" s="85"/>
+      <c r="Y10" s="85"/>
+      <c r="Z10" s="85"/>
+      <c r="AA10" s="85"/>
+      <c r="AB10" s="85"/>
+      <c r="AC10" s="85"/>
+      <c r="AD10" s="85"/>
+      <c r="AE10" s="85"/>
+      <c r="AF10" s="85"/>
+      <c r="AG10" s="85"/>
+      <c r="AH10" s="85"/>
+      <c r="AI10" s="85"/>
+      <c r="AJ10" s="85"/>
+      <c r="AK10" s="85"/>
+      <c r="AL10" s="85"/>
+      <c r="AM10" s="85"/>
+      <c r="AN10" s="85"/>
+      <c r="AO10" s="85"/>
+      <c r="AP10" s="85"/>
+      <c r="AQ10" s="85"/>
+      <c r="AR10" s="85"/>
+      <c r="AS10" s="85"/>
+      <c r="AT10" s="85"/>
+      <c r="AU10" s="85"/>
+      <c r="AV10" s="85"/>
+      <c r="AW10" s="85"/>
+      <c r="AX10" s="85"/>
+      <c r="AY10" s="85"/>
+      <c r="AZ10" s="85"/>
+      <c r="BA10" s="85"/>
+      <c r="BB10" s="85"/>
+      <c r="BC10" s="85"/>
+      <c r="BD10" s="85"/>
+      <c r="BE10" s="85"/>
+      <c r="BF10" s="85"/>
+      <c r="BG10" s="85"/>
+      <c r="BH10" s="85"/>
+      <c r="BI10" s="85"/>
     </row>
     <row r="11" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="91"/>
-      <c r="B11" s="91"/>
-      <c r="C11" s="91"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="91"/>
-      <c r="G11" s="91"/>
-      <c r="H11" s="91"/>
-      <c r="I11" s="91"/>
-      <c r="J11" s="91"/>
-      <c r="K11" s="91"/>
-      <c r="L11" s="91"/>
-      <c r="M11" s="91"/>
-      <c r="N11" s="91"/>
-      <c r="O11" s="91"/>
-      <c r="P11" s="91"/>
-      <c r="Q11" s="91"/>
-      <c r="R11" s="91"/>
-      <c r="S11" s="91"/>
-      <c r="T11" s="91"/>
-      <c r="U11" s="91"/>
-      <c r="V11" s="91"/>
-      <c r="W11" s="91"/>
-      <c r="X11" s="91"/>
-      <c r="Y11" s="91"/>
-      <c r="Z11" s="91"/>
-      <c r="AA11" s="91"/>
-      <c r="AB11" s="91"/>
-      <c r="AC11" s="91"/>
-      <c r="AD11" s="91"/>
-      <c r="AE11" s="91"/>
-      <c r="AF11" s="91"/>
-      <c r="AG11" s="91"/>
-      <c r="AH11" s="91"/>
-      <c r="AI11" s="91"/>
-      <c r="AJ11" s="91"/>
-      <c r="AK11" s="91"/>
-      <c r="AL11" s="91"/>
-      <c r="AM11" s="91"/>
-      <c r="AN11" s="91"/>
-      <c r="AO11" s="91"/>
-      <c r="AP11" s="91"/>
-      <c r="AQ11" s="91"/>
-      <c r="AR11" s="91"/>
-      <c r="AS11" s="91"/>
-      <c r="AT11" s="91"/>
-      <c r="AU11" s="91"/>
-      <c r="AV11" s="91"/>
-      <c r="AW11" s="91"/>
-      <c r="AX11" s="91"/>
-      <c r="AY11" s="91"/>
-      <c r="AZ11" s="91"/>
-      <c r="BA11" s="91"/>
-      <c r="BB11" s="91"/>
-      <c r="BC11" s="91"/>
-      <c r="BD11" s="91"/>
-      <c r="BE11" s="91"/>
-      <c r="BF11" s="91"/>
-      <c r="BG11" s="91"/>
-      <c r="BH11" s="91"/>
-      <c r="BI11" s="91"/>
+      <c r="A11" s="85"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="85"/>
+      <c r="M11" s="85"/>
+      <c r="N11" s="85"/>
+      <c r="O11" s="85"/>
+      <c r="P11" s="85"/>
+      <c r="Q11" s="85"/>
+      <c r="R11" s="85"/>
+      <c r="S11" s="85"/>
+      <c r="T11" s="85"/>
+      <c r="U11" s="85"/>
+      <c r="V11" s="85"/>
+      <c r="W11" s="85"/>
+      <c r="X11" s="85"/>
+      <c r="Y11" s="85"/>
+      <c r="Z11" s="85"/>
+      <c r="AA11" s="85"/>
+      <c r="AB11" s="85"/>
+      <c r="AC11" s="85"/>
+      <c r="AD11" s="85"/>
+      <c r="AE11" s="85"/>
+      <c r="AF11" s="85"/>
+      <c r="AG11" s="85"/>
+      <c r="AH11" s="85"/>
+      <c r="AI11" s="85"/>
+      <c r="AJ11" s="85"/>
+      <c r="AK11" s="85"/>
+      <c r="AL11" s="85"/>
+      <c r="AM11" s="85"/>
+      <c r="AN11" s="85"/>
+      <c r="AO11" s="85"/>
+      <c r="AP11" s="85"/>
+      <c r="AQ11" s="85"/>
+      <c r="AR11" s="85"/>
+      <c r="AS11" s="85"/>
+      <c r="AT11" s="85"/>
+      <c r="AU11" s="85"/>
+      <c r="AV11" s="85"/>
+      <c r="AW11" s="85"/>
+      <c r="AX11" s="85"/>
+      <c r="AY11" s="85"/>
+      <c r="AZ11" s="85"/>
+      <c r="BA11" s="85"/>
+      <c r="BB11" s="85"/>
+      <c r="BC11" s="85"/>
+      <c r="BD11" s="85"/>
+      <c r="BE11" s="85"/>
+      <c r="BF11" s="85"/>
+      <c r="BG11" s="85"/>
+      <c r="BH11" s="85"/>
+      <c r="BI11" s="85"/>
     </row>
     <row r="13" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="87" t="s">
+      <c r="A13" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="87"/>
-      <c r="C13" s="87"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="87"/>
-      <c r="H13" s="87"/>
-      <c r="I13" s="87"/>
-      <c r="J13" s="87"/>
-      <c r="K13" s="87"/>
-      <c r="L13" s="87"/>
-      <c r="M13" s="87"/>
-      <c r="N13" s="87"/>
-      <c r="O13" s="87"/>
-      <c r="P13" s="87"/>
-      <c r="Q13" s="87"/>
-      <c r="R13" s="87"/>
-      <c r="S13" s="87"/>
-      <c r="T13" s="87"/>
-      <c r="U13" s="87"/>
-      <c r="V13" s="87"/>
-      <c r="W13" s="87"/>
-      <c r="X13" s="87"/>
-      <c r="Y13" s="87"/>
-      <c r="Z13" s="87"/>
-      <c r="AA13" s="87"/>
-      <c r="AB13" s="87"/>
-      <c r="AC13" s="87"/>
-      <c r="AD13" s="87"/>
-      <c r="AE13" s="87"/>
-      <c r="AF13" s="87"/>
-      <c r="AG13" s="87"/>
-      <c r="AH13" s="87"/>
-      <c r="AI13" s="87"/>
-      <c r="AJ13" s="87"/>
-      <c r="AK13" s="87"/>
-      <c r="AL13" s="87"/>
-      <c r="AM13" s="87"/>
-      <c r="AN13" s="87"/>
-      <c r="AO13" s="87"/>
-      <c r="AP13" s="87"/>
-      <c r="AQ13" s="87"/>
-      <c r="AR13" s="87"/>
-      <c r="AS13" s="87"/>
-      <c r="AT13" s="87"/>
-      <c r="AU13" s="87"/>
-      <c r="AV13" s="87"/>
-      <c r="AW13" s="87"/>
-      <c r="AX13" s="87"/>
-      <c r="AY13" s="87"/>
-      <c r="AZ13" s="87"/>
-      <c r="BA13" s="87"/>
-      <c r="BB13" s="87"/>
-      <c r="BC13" s="87"/>
-      <c r="BD13" s="87"/>
-      <c r="BE13" s="87"/>
-      <c r="BF13" s="87"/>
-      <c r="BG13" s="87"/>
-      <c r="BH13" s="87"/>
-      <c r="BI13" s="87"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="86"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="86"/>
+      <c r="K13" s="86"/>
+      <c r="L13" s="86"/>
+      <c r="M13" s="86"/>
+      <c r="N13" s="86"/>
+      <c r="O13" s="86"/>
+      <c r="P13" s="86"/>
+      <c r="Q13" s="86"/>
+      <c r="R13" s="86"/>
+      <c r="S13" s="86"/>
+      <c r="T13" s="86"/>
+      <c r="U13" s="86"/>
+      <c r="V13" s="86"/>
+      <c r="W13" s="86"/>
+      <c r="X13" s="86"/>
+      <c r="Y13" s="86"/>
+      <c r="Z13" s="86"/>
+      <c r="AA13" s="86"/>
+      <c r="AB13" s="86"/>
+      <c r="AC13" s="86"/>
+      <c r="AD13" s="86"/>
+      <c r="AE13" s="86"/>
+      <c r="AF13" s="86"/>
+      <c r="AG13" s="86"/>
+      <c r="AH13" s="86"/>
+      <c r="AI13" s="86"/>
+      <c r="AJ13" s="86"/>
+      <c r="AK13" s="86"/>
+      <c r="AL13" s="86"/>
+      <c r="AM13" s="86"/>
+      <c r="AN13" s="86"/>
+      <c r="AO13" s="86"/>
+      <c r="AP13" s="86"/>
+      <c r="AQ13" s="86"/>
+      <c r="AR13" s="86"/>
+      <c r="AS13" s="86"/>
+      <c r="AT13" s="86"/>
+      <c r="AU13" s="86"/>
+      <c r="AV13" s="86"/>
+      <c r="AW13" s="86"/>
+      <c r="AX13" s="86"/>
+      <c r="AY13" s="86"/>
+      <c r="AZ13" s="86"/>
+      <c r="BA13" s="86"/>
+      <c r="BB13" s="86"/>
+      <c r="BC13" s="86"/>
+      <c r="BD13" s="86"/>
+      <c r="BE13" s="86"/>
+      <c r="BF13" s="86"/>
+      <c r="BG13" s="86"/>
+      <c r="BH13" s="86"/>
+      <c r="BI13" s="86"/>
     </row>
     <row r="14" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="88" t="s">
+      <c r="A14" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="91"/>
-      <c r="C14" s="91"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="91"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="91"/>
-      <c r="I14" s="91"/>
-      <c r="J14" s="91"/>
-      <c r="K14" s="91"/>
-      <c r="L14" s="91"/>
-      <c r="M14" s="91"/>
-      <c r="N14" s="91"/>
-      <c r="O14" s="91"/>
-      <c r="P14" s="91"/>
-      <c r="Q14" s="91"/>
-      <c r="R14" s="91"/>
-      <c r="S14" s="91"/>
-      <c r="T14" s="91"/>
-      <c r="U14" s="91"/>
-      <c r="V14" s="91"/>
-      <c r="W14" s="91"/>
-      <c r="X14" s="91"/>
-      <c r="Y14" s="91"/>
-      <c r="Z14" s="91"/>
-      <c r="AA14" s="91"/>
-      <c r="AB14" s="91"/>
-      <c r="AC14" s="91"/>
-      <c r="AD14" s="91"/>
-      <c r="AE14" s="91"/>
-      <c r="AF14" s="91"/>
-      <c r="AG14" s="91"/>
-      <c r="AH14" s="91"/>
-      <c r="AI14" s="91"/>
-      <c r="AJ14" s="91"/>
-      <c r="AK14" s="91"/>
-      <c r="AL14" s="91"/>
-      <c r="AM14" s="91"/>
-      <c r="AN14" s="91"/>
-      <c r="AO14" s="91"/>
-      <c r="AP14" s="91"/>
-      <c r="AQ14" s="91"/>
-      <c r="AR14" s="91"/>
-      <c r="AS14" s="91"/>
-      <c r="AT14" s="91"/>
-      <c r="AU14" s="91"/>
-      <c r="AV14" s="91"/>
-      <c r="AW14" s="91"/>
-      <c r="AX14" s="91"/>
-      <c r="AY14" s="91"/>
-      <c r="AZ14" s="91"/>
-      <c r="BA14" s="91"/>
-      <c r="BB14" s="91"/>
-      <c r="BC14" s="91"/>
-      <c r="BD14" s="91"/>
-      <c r="BE14" s="91"/>
-      <c r="BF14" s="91"/>
-      <c r="BG14" s="91"/>
-      <c r="BH14" s="91"/>
-      <c r="BI14" s="91"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="85"/>
+      <c r="I14" s="85"/>
+      <c r="J14" s="85"/>
+      <c r="K14" s="85"/>
+      <c r="L14" s="85"/>
+      <c r="M14" s="85"/>
+      <c r="N14" s="85"/>
+      <c r="O14" s="85"/>
+      <c r="P14" s="85"/>
+      <c r="Q14" s="85"/>
+      <c r="R14" s="85"/>
+      <c r="S14" s="85"/>
+      <c r="T14" s="85"/>
+      <c r="U14" s="85"/>
+      <c r="V14" s="85"/>
+      <c r="W14" s="85"/>
+      <c r="X14" s="85"/>
+      <c r="Y14" s="85"/>
+      <c r="Z14" s="85"/>
+      <c r="AA14" s="85"/>
+      <c r="AB14" s="85"/>
+      <c r="AC14" s="85"/>
+      <c r="AD14" s="85"/>
+      <c r="AE14" s="85"/>
+      <c r="AF14" s="85"/>
+      <c r="AG14" s="85"/>
+      <c r="AH14" s="85"/>
+      <c r="AI14" s="85"/>
+      <c r="AJ14" s="85"/>
+      <c r="AK14" s="85"/>
+      <c r="AL14" s="85"/>
+      <c r="AM14" s="85"/>
+      <c r="AN14" s="85"/>
+      <c r="AO14" s="85"/>
+      <c r="AP14" s="85"/>
+      <c r="AQ14" s="85"/>
+      <c r="AR14" s="85"/>
+      <c r="AS14" s="85"/>
+      <c r="AT14" s="85"/>
+      <c r="AU14" s="85"/>
+      <c r="AV14" s="85"/>
+      <c r="AW14" s="85"/>
+      <c r="AX14" s="85"/>
+      <c r="AY14" s="85"/>
+      <c r="AZ14" s="85"/>
+      <c r="BA14" s="85"/>
+      <c r="BB14" s="85"/>
+      <c r="BC14" s="85"/>
+      <c r="BD14" s="85"/>
+      <c r="BE14" s="85"/>
+      <c r="BF14" s="85"/>
+      <c r="BG14" s="85"/>
+      <c r="BH14" s="85"/>
+      <c r="BI14" s="85"/>
     </row>
     <row r="15" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="91"/>
-      <c r="B15" s="91"/>
-      <c r="C15" s="91"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="91"/>
-      <c r="G15" s="91"/>
-      <c r="H15" s="91"/>
-      <c r="I15" s="91"/>
-      <c r="J15" s="91"/>
-      <c r="K15" s="91"/>
-      <c r="L15" s="91"/>
-      <c r="M15" s="91"/>
-      <c r="N15" s="91"/>
-      <c r="O15" s="91"/>
-      <c r="P15" s="91"/>
-      <c r="Q15" s="91"/>
-      <c r="R15" s="91"/>
-      <c r="S15" s="91"/>
-      <c r="T15" s="91"/>
-      <c r="U15" s="91"/>
-      <c r="V15" s="91"/>
-      <c r="W15" s="91"/>
-      <c r="X15" s="91"/>
-      <c r="Y15" s="91"/>
-      <c r="Z15" s="91"/>
-      <c r="AA15" s="91"/>
-      <c r="AB15" s="91"/>
-      <c r="AC15" s="91"/>
-      <c r="AD15" s="91"/>
-      <c r="AE15" s="91"/>
-      <c r="AF15" s="91"/>
-      <c r="AG15" s="91"/>
-      <c r="AH15" s="91"/>
-      <c r="AI15" s="91"/>
-      <c r="AJ15" s="91"/>
-      <c r="AK15" s="91"/>
-      <c r="AL15" s="91"/>
-      <c r="AM15" s="91"/>
-      <c r="AN15" s="91"/>
-      <c r="AO15" s="91"/>
-      <c r="AP15" s="91"/>
-      <c r="AQ15" s="91"/>
-      <c r="AR15" s="91"/>
-      <c r="AS15" s="91"/>
-      <c r="AT15" s="91"/>
-      <c r="AU15" s="91"/>
-      <c r="AV15" s="91"/>
-      <c r="AW15" s="91"/>
-      <c r="AX15" s="91"/>
-      <c r="AY15" s="91"/>
-      <c r="AZ15" s="91"/>
-      <c r="BA15" s="91"/>
-      <c r="BB15" s="91"/>
-      <c r="BC15" s="91"/>
-      <c r="BD15" s="91"/>
-      <c r="BE15" s="91"/>
-      <c r="BF15" s="91"/>
-      <c r="BG15" s="91"/>
-      <c r="BH15" s="91"/>
-      <c r="BI15" s="91"/>
+      <c r="A15" s="85"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="85"/>
+      <c r="K15" s="85"/>
+      <c r="L15" s="85"/>
+      <c r="M15" s="85"/>
+      <c r="N15" s="85"/>
+      <c r="O15" s="85"/>
+      <c r="P15" s="85"/>
+      <c r="Q15" s="85"/>
+      <c r="R15" s="85"/>
+      <c r="S15" s="85"/>
+      <c r="T15" s="85"/>
+      <c r="U15" s="85"/>
+      <c r="V15" s="85"/>
+      <c r="W15" s="85"/>
+      <c r="X15" s="85"/>
+      <c r="Y15" s="85"/>
+      <c r="Z15" s="85"/>
+      <c r="AA15" s="85"/>
+      <c r="AB15" s="85"/>
+      <c r="AC15" s="85"/>
+      <c r="AD15" s="85"/>
+      <c r="AE15" s="85"/>
+      <c r="AF15" s="85"/>
+      <c r="AG15" s="85"/>
+      <c r="AH15" s="85"/>
+      <c r="AI15" s="85"/>
+      <c r="AJ15" s="85"/>
+      <c r="AK15" s="85"/>
+      <c r="AL15" s="85"/>
+      <c r="AM15" s="85"/>
+      <c r="AN15" s="85"/>
+      <c r="AO15" s="85"/>
+      <c r="AP15" s="85"/>
+      <c r="AQ15" s="85"/>
+      <c r="AR15" s="85"/>
+      <c r="AS15" s="85"/>
+      <c r="AT15" s="85"/>
+      <c r="AU15" s="85"/>
+      <c r="AV15" s="85"/>
+      <c r="AW15" s="85"/>
+      <c r="AX15" s="85"/>
+      <c r="AY15" s="85"/>
+      <c r="AZ15" s="85"/>
+      <c r="BA15" s="85"/>
+      <c r="BB15" s="85"/>
+      <c r="BC15" s="85"/>
+      <c r="BD15" s="85"/>
+      <c r="BE15" s="85"/>
+      <c r="BF15" s="85"/>
+      <c r="BG15" s="85"/>
+      <c r="BH15" s="85"/>
+      <c r="BI15" s="85"/>
     </row>
     <row r="16" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="91"/>
-      <c r="B16" s="91"/>
-      <c r="C16" s="91"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="91"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="91"/>
-      <c r="I16" s="91"/>
-      <c r="J16" s="91"/>
-      <c r="K16" s="91"/>
-      <c r="L16" s="91"/>
-      <c r="M16" s="91"/>
-      <c r="N16" s="91"/>
-      <c r="O16" s="91"/>
-      <c r="P16" s="91"/>
-      <c r="Q16" s="91"/>
-      <c r="R16" s="91"/>
-      <c r="S16" s="91"/>
-      <c r="T16" s="91"/>
-      <c r="U16" s="91"/>
-      <c r="V16" s="91"/>
-      <c r="W16" s="91"/>
-      <c r="X16" s="91"/>
-      <c r="Y16" s="91"/>
-      <c r="Z16" s="91"/>
-      <c r="AA16" s="91"/>
-      <c r="AB16" s="91"/>
-      <c r="AC16" s="91"/>
-      <c r="AD16" s="91"/>
-      <c r="AE16" s="91"/>
-      <c r="AF16" s="91"/>
-      <c r="AG16" s="91"/>
-      <c r="AH16" s="91"/>
-      <c r="AI16" s="91"/>
-      <c r="AJ16" s="91"/>
-      <c r="AK16" s="91"/>
-      <c r="AL16" s="91"/>
-      <c r="AM16" s="91"/>
-      <c r="AN16" s="91"/>
-      <c r="AO16" s="91"/>
-      <c r="AP16" s="91"/>
-      <c r="AQ16" s="91"/>
-      <c r="AR16" s="91"/>
-      <c r="AS16" s="91"/>
-      <c r="AT16" s="91"/>
-      <c r="AU16" s="91"/>
-      <c r="AV16" s="91"/>
-      <c r="AW16" s="91"/>
-      <c r="AX16" s="91"/>
-      <c r="AY16" s="91"/>
-      <c r="AZ16" s="91"/>
-      <c r="BA16" s="91"/>
-      <c r="BB16" s="91"/>
-      <c r="BC16" s="91"/>
-      <c r="BD16" s="91"/>
-      <c r="BE16" s="91"/>
-      <c r="BF16" s="91"/>
-      <c r="BG16" s="91"/>
-      <c r="BH16" s="91"/>
-      <c r="BI16" s="91"/>
+      <c r="A16" s="85"/>
+      <c r="B16" s="85"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="85"/>
+      <c r="I16" s="85"/>
+      <c r="J16" s="85"/>
+      <c r="K16" s="85"/>
+      <c r="L16" s="85"/>
+      <c r="M16" s="85"/>
+      <c r="N16" s="85"/>
+      <c r="O16" s="85"/>
+      <c r="P16" s="85"/>
+      <c r="Q16" s="85"/>
+      <c r="R16" s="85"/>
+      <c r="S16" s="85"/>
+      <c r="T16" s="85"/>
+      <c r="U16" s="85"/>
+      <c r="V16" s="85"/>
+      <c r="W16" s="85"/>
+      <c r="X16" s="85"/>
+      <c r="Y16" s="85"/>
+      <c r="Z16" s="85"/>
+      <c r="AA16" s="85"/>
+      <c r="AB16" s="85"/>
+      <c r="AC16" s="85"/>
+      <c r="AD16" s="85"/>
+      <c r="AE16" s="85"/>
+      <c r="AF16" s="85"/>
+      <c r="AG16" s="85"/>
+      <c r="AH16" s="85"/>
+      <c r="AI16" s="85"/>
+      <c r="AJ16" s="85"/>
+      <c r="AK16" s="85"/>
+      <c r="AL16" s="85"/>
+      <c r="AM16" s="85"/>
+      <c r="AN16" s="85"/>
+      <c r="AO16" s="85"/>
+      <c r="AP16" s="85"/>
+      <c r="AQ16" s="85"/>
+      <c r="AR16" s="85"/>
+      <c r="AS16" s="85"/>
+      <c r="AT16" s="85"/>
+      <c r="AU16" s="85"/>
+      <c r="AV16" s="85"/>
+      <c r="AW16" s="85"/>
+      <c r="AX16" s="85"/>
+      <c r="AY16" s="85"/>
+      <c r="AZ16" s="85"/>
+      <c r="BA16" s="85"/>
+      <c r="BB16" s="85"/>
+      <c r="BC16" s="85"/>
+      <c r="BD16" s="85"/>
+      <c r="BE16" s="85"/>
+      <c r="BF16" s="85"/>
+      <c r="BG16" s="85"/>
+      <c r="BH16" s="85"/>
+      <c r="BI16" s="85"/>
     </row>
     <row r="17" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="91"/>
-      <c r="B17" s="91"/>
-      <c r="C17" s="91"/>
-      <c r="D17" s="91"/>
-      <c r="E17" s="91"/>
-      <c r="F17" s="91"/>
-      <c r="G17" s="91"/>
-      <c r="H17" s="91"/>
-      <c r="I17" s="91"/>
-      <c r="J17" s="91"/>
-      <c r="K17" s="91"/>
-      <c r="L17" s="91"/>
-      <c r="M17" s="91"/>
-      <c r="N17" s="91"/>
-      <c r="O17" s="91"/>
-      <c r="P17" s="91"/>
-      <c r="Q17" s="91"/>
-      <c r="R17" s="91"/>
-      <c r="S17" s="91"/>
-      <c r="T17" s="91"/>
-      <c r="U17" s="91"/>
-      <c r="V17" s="91"/>
-      <c r="W17" s="91"/>
-      <c r="X17" s="91"/>
-      <c r="Y17" s="91"/>
-      <c r="Z17" s="91"/>
-      <c r="AA17" s="91"/>
-      <c r="AB17" s="91"/>
-      <c r="AC17" s="91"/>
-      <c r="AD17" s="91"/>
-      <c r="AE17" s="91"/>
-      <c r="AF17" s="91"/>
-      <c r="AG17" s="91"/>
-      <c r="AH17" s="91"/>
-      <c r="AI17" s="91"/>
-      <c r="AJ17" s="91"/>
-      <c r="AK17" s="91"/>
-      <c r="AL17" s="91"/>
-      <c r="AM17" s="91"/>
-      <c r="AN17" s="91"/>
-      <c r="AO17" s="91"/>
-      <c r="AP17" s="91"/>
-      <c r="AQ17" s="91"/>
-      <c r="AR17" s="91"/>
-      <c r="AS17" s="91"/>
-      <c r="AT17" s="91"/>
-      <c r="AU17" s="91"/>
-      <c r="AV17" s="91"/>
-      <c r="AW17" s="91"/>
-      <c r="AX17" s="91"/>
-      <c r="AY17" s="91"/>
-      <c r="AZ17" s="91"/>
-      <c r="BA17" s="91"/>
-      <c r="BB17" s="91"/>
-      <c r="BC17" s="91"/>
-      <c r="BD17" s="91"/>
-      <c r="BE17" s="91"/>
-      <c r="BF17" s="91"/>
-      <c r="BG17" s="91"/>
-      <c r="BH17" s="91"/>
-      <c r="BI17" s="91"/>
+      <c r="A17" s="85"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="85"/>
+      <c r="K17" s="85"/>
+      <c r="L17" s="85"/>
+      <c r="M17" s="85"/>
+      <c r="N17" s="85"/>
+      <c r="O17" s="85"/>
+      <c r="P17" s="85"/>
+      <c r="Q17" s="85"/>
+      <c r="R17" s="85"/>
+      <c r="S17" s="85"/>
+      <c r="T17" s="85"/>
+      <c r="U17" s="85"/>
+      <c r="V17" s="85"/>
+      <c r="W17" s="85"/>
+      <c r="X17" s="85"/>
+      <c r="Y17" s="85"/>
+      <c r="Z17" s="85"/>
+      <c r="AA17" s="85"/>
+      <c r="AB17" s="85"/>
+      <c r="AC17" s="85"/>
+      <c r="AD17" s="85"/>
+      <c r="AE17" s="85"/>
+      <c r="AF17" s="85"/>
+      <c r="AG17" s="85"/>
+      <c r="AH17" s="85"/>
+      <c r="AI17" s="85"/>
+      <c r="AJ17" s="85"/>
+      <c r="AK17" s="85"/>
+      <c r="AL17" s="85"/>
+      <c r="AM17" s="85"/>
+      <c r="AN17" s="85"/>
+      <c r="AO17" s="85"/>
+      <c r="AP17" s="85"/>
+      <c r="AQ17" s="85"/>
+      <c r="AR17" s="85"/>
+      <c r="AS17" s="85"/>
+      <c r="AT17" s="85"/>
+      <c r="AU17" s="85"/>
+      <c r="AV17" s="85"/>
+      <c r="AW17" s="85"/>
+      <c r="AX17" s="85"/>
+      <c r="AY17" s="85"/>
+      <c r="AZ17" s="85"/>
+      <c r="BA17" s="85"/>
+      <c r="BB17" s="85"/>
+      <c r="BC17" s="85"/>
+      <c r="BD17" s="85"/>
+      <c r="BE17" s="85"/>
+      <c r="BF17" s="85"/>
+      <c r="BG17" s="85"/>
+      <c r="BH17" s="85"/>
+      <c r="BI17" s="85"/>
     </row>
     <row r="18" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="91"/>
-      <c r="B18" s="91"/>
-      <c r="C18" s="91"/>
-      <c r="D18" s="91"/>
-      <c r="E18" s="91"/>
-      <c r="F18" s="91"/>
-      <c r="G18" s="91"/>
-      <c r="H18" s="91"/>
-      <c r="I18" s="91"/>
-      <c r="J18" s="91"/>
-      <c r="K18" s="91"/>
-      <c r="L18" s="91"/>
-      <c r="M18" s="91"/>
-      <c r="N18" s="91"/>
-      <c r="O18" s="91"/>
-      <c r="P18" s="91"/>
-      <c r="Q18" s="91"/>
-      <c r="R18" s="91"/>
-      <c r="S18" s="91"/>
-      <c r="T18" s="91"/>
-      <c r="U18" s="91"/>
-      <c r="V18" s="91"/>
-      <c r="W18" s="91"/>
-      <c r="X18" s="91"/>
-      <c r="Y18" s="91"/>
-      <c r="Z18" s="91"/>
-      <c r="AA18" s="91"/>
-      <c r="AB18" s="91"/>
-      <c r="AC18" s="91"/>
-      <c r="AD18" s="91"/>
-      <c r="AE18" s="91"/>
-      <c r="AF18" s="91"/>
-      <c r="AG18" s="91"/>
-      <c r="AH18" s="91"/>
-      <c r="AI18" s="91"/>
-      <c r="AJ18" s="91"/>
-      <c r="AK18" s="91"/>
-      <c r="AL18" s="91"/>
-      <c r="AM18" s="91"/>
-      <c r="AN18" s="91"/>
-      <c r="AO18" s="91"/>
-      <c r="AP18" s="91"/>
-      <c r="AQ18" s="91"/>
-      <c r="AR18" s="91"/>
-      <c r="AS18" s="91"/>
-      <c r="AT18" s="91"/>
-      <c r="AU18" s="91"/>
-      <c r="AV18" s="91"/>
-      <c r="AW18" s="91"/>
-      <c r="AX18" s="91"/>
-      <c r="AY18" s="91"/>
-      <c r="AZ18" s="91"/>
-      <c r="BA18" s="91"/>
-      <c r="BB18" s="91"/>
-      <c r="BC18" s="91"/>
-      <c r="BD18" s="91"/>
-      <c r="BE18" s="91"/>
-      <c r="BF18" s="91"/>
-      <c r="BG18" s="91"/>
-      <c r="BH18" s="91"/>
-      <c r="BI18" s="91"/>
+      <c r="A18" s="85"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="85"/>
+      <c r="I18" s="85"/>
+      <c r="J18" s="85"/>
+      <c r="K18" s="85"/>
+      <c r="L18" s="85"/>
+      <c r="M18" s="85"/>
+      <c r="N18" s="85"/>
+      <c r="O18" s="85"/>
+      <c r="P18" s="85"/>
+      <c r="Q18" s="85"/>
+      <c r="R18" s="85"/>
+      <c r="S18" s="85"/>
+      <c r="T18" s="85"/>
+      <c r="U18" s="85"/>
+      <c r="V18" s="85"/>
+      <c r="W18" s="85"/>
+      <c r="X18" s="85"/>
+      <c r="Y18" s="85"/>
+      <c r="Z18" s="85"/>
+      <c r="AA18" s="85"/>
+      <c r="AB18" s="85"/>
+      <c r="AC18" s="85"/>
+      <c r="AD18" s="85"/>
+      <c r="AE18" s="85"/>
+      <c r="AF18" s="85"/>
+      <c r="AG18" s="85"/>
+      <c r="AH18" s="85"/>
+      <c r="AI18" s="85"/>
+      <c r="AJ18" s="85"/>
+      <c r="AK18" s="85"/>
+      <c r="AL18" s="85"/>
+      <c r="AM18" s="85"/>
+      <c r="AN18" s="85"/>
+      <c r="AO18" s="85"/>
+      <c r="AP18" s="85"/>
+      <c r="AQ18" s="85"/>
+      <c r="AR18" s="85"/>
+      <c r="AS18" s="85"/>
+      <c r="AT18" s="85"/>
+      <c r="AU18" s="85"/>
+      <c r="AV18" s="85"/>
+      <c r="AW18" s="85"/>
+      <c r="AX18" s="85"/>
+      <c r="AY18" s="85"/>
+      <c r="AZ18" s="85"/>
+      <c r="BA18" s="85"/>
+      <c r="BB18" s="85"/>
+      <c r="BC18" s="85"/>
+      <c r="BD18" s="85"/>
+      <c r="BE18" s="85"/>
+      <c r="BF18" s="85"/>
+      <c r="BG18" s="85"/>
+      <c r="BH18" s="85"/>
+      <c r="BI18" s="85"/>
     </row>
     <row r="19" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="91"/>
-      <c r="B19" s="91"/>
-      <c r="C19" s="91"/>
-      <c r="D19" s="91"/>
-      <c r="E19" s="91"/>
-      <c r="F19" s="91"/>
-      <c r="G19" s="91"/>
-      <c r="H19" s="91"/>
-      <c r="I19" s="91"/>
-      <c r="J19" s="91"/>
-      <c r="K19" s="91"/>
-      <c r="L19" s="91"/>
-      <c r="M19" s="91"/>
-      <c r="N19" s="91"/>
-      <c r="O19" s="91"/>
-      <c r="P19" s="91"/>
-      <c r="Q19" s="91"/>
-      <c r="R19" s="91"/>
-      <c r="S19" s="91"/>
-      <c r="T19" s="91"/>
-      <c r="U19" s="91"/>
-      <c r="V19" s="91"/>
-      <c r="W19" s="91"/>
-      <c r="X19" s="91"/>
-      <c r="Y19" s="91"/>
-      <c r="Z19" s="91"/>
-      <c r="AA19" s="91"/>
-      <c r="AB19" s="91"/>
-      <c r="AC19" s="91"/>
-      <c r="AD19" s="91"/>
-      <c r="AE19" s="91"/>
-      <c r="AF19" s="91"/>
-      <c r="AG19" s="91"/>
-      <c r="AH19" s="91"/>
-      <c r="AI19" s="91"/>
-      <c r="AJ19" s="91"/>
-      <c r="AK19" s="91"/>
-      <c r="AL19" s="91"/>
-      <c r="AM19" s="91"/>
-      <c r="AN19" s="91"/>
-      <c r="AO19" s="91"/>
-      <c r="AP19" s="91"/>
-      <c r="AQ19" s="91"/>
-      <c r="AR19" s="91"/>
-      <c r="AS19" s="91"/>
-      <c r="AT19" s="91"/>
-      <c r="AU19" s="91"/>
-      <c r="AV19" s="91"/>
-      <c r="AW19" s="91"/>
-      <c r="AX19" s="91"/>
-      <c r="AY19" s="91"/>
-      <c r="AZ19" s="91"/>
-      <c r="BA19" s="91"/>
-      <c r="BB19" s="91"/>
-      <c r="BC19" s="91"/>
-      <c r="BD19" s="91"/>
-      <c r="BE19" s="91"/>
-      <c r="BF19" s="91"/>
-      <c r="BG19" s="91"/>
-      <c r="BH19" s="91"/>
-      <c r="BI19" s="91"/>
+      <c r="A19" s="85"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="85"/>
+      <c r="I19" s="85"/>
+      <c r="J19" s="85"/>
+      <c r="K19" s="85"/>
+      <c r="L19" s="85"/>
+      <c r="M19" s="85"/>
+      <c r="N19" s="85"/>
+      <c r="O19" s="85"/>
+      <c r="P19" s="85"/>
+      <c r="Q19" s="85"/>
+      <c r="R19" s="85"/>
+      <c r="S19" s="85"/>
+      <c r="T19" s="85"/>
+      <c r="U19" s="85"/>
+      <c r="V19" s="85"/>
+      <c r="W19" s="85"/>
+      <c r="X19" s="85"/>
+      <c r="Y19" s="85"/>
+      <c r="Z19" s="85"/>
+      <c r="AA19" s="85"/>
+      <c r="AB19" s="85"/>
+      <c r="AC19" s="85"/>
+      <c r="AD19" s="85"/>
+      <c r="AE19" s="85"/>
+      <c r="AF19" s="85"/>
+      <c r="AG19" s="85"/>
+      <c r="AH19" s="85"/>
+      <c r="AI19" s="85"/>
+      <c r="AJ19" s="85"/>
+      <c r="AK19" s="85"/>
+      <c r="AL19" s="85"/>
+      <c r="AM19" s="85"/>
+      <c r="AN19" s="85"/>
+      <c r="AO19" s="85"/>
+      <c r="AP19" s="85"/>
+      <c r="AQ19" s="85"/>
+      <c r="AR19" s="85"/>
+      <c r="AS19" s="85"/>
+      <c r="AT19" s="85"/>
+      <c r="AU19" s="85"/>
+      <c r="AV19" s="85"/>
+      <c r="AW19" s="85"/>
+      <c r="AX19" s="85"/>
+      <c r="AY19" s="85"/>
+      <c r="AZ19" s="85"/>
+      <c r="BA19" s="85"/>
+      <c r="BB19" s="85"/>
+      <c r="BC19" s="85"/>
+      <c r="BD19" s="85"/>
+      <c r="BE19" s="85"/>
+      <c r="BF19" s="85"/>
+      <c r="BG19" s="85"/>
+      <c r="BH19" s="85"/>
+      <c r="BI19" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="A14:BI19"/>
-    <mergeCell ref="A13:BI13"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="K10:T10"/>
-    <mergeCell ref="U10:AD10"/>
-    <mergeCell ref="AE10:AN10"/>
-    <mergeCell ref="AO10:BI10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="K11:T11"/>
-    <mergeCell ref="U11:AD11"/>
-    <mergeCell ref="AE11:AN11"/>
-    <mergeCell ref="AO11:BI11"/>
-    <mergeCell ref="G4:BI4"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="K8:T8"/>
-    <mergeCell ref="U8:AD8"/>
-    <mergeCell ref="AE8:AN8"/>
-    <mergeCell ref="AO8:BI8"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="K9:T9"/>
-    <mergeCell ref="U9:AD9"/>
-    <mergeCell ref="AE9:AN9"/>
-    <mergeCell ref="AO9:BI9"/>
+    <mergeCell ref="AQ2:AS2"/>
+    <mergeCell ref="AT2:AZ2"/>
+    <mergeCell ref="BA2:BC2"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="R1:AA1"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="AE1:AP1"/>
+    <mergeCell ref="AQ1:AS1"/>
     <mergeCell ref="BD2:BI2"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A5:F5"/>
@@ -3535,14 +3520,29 @@
     <mergeCell ref="R2:AA2"/>
     <mergeCell ref="AB2:AD2"/>
     <mergeCell ref="AE2:AP2"/>
-    <mergeCell ref="AQ2:AS2"/>
-    <mergeCell ref="AT2:AZ2"/>
-    <mergeCell ref="BA2:BC2"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="R1:AA1"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="AE1:AP1"/>
-    <mergeCell ref="AQ1:AS1"/>
+    <mergeCell ref="A9:J9"/>
+    <mergeCell ref="K9:T9"/>
+    <mergeCell ref="U9:AD9"/>
+    <mergeCell ref="AE9:AN9"/>
+    <mergeCell ref="AO9:BI9"/>
+    <mergeCell ref="G4:BI4"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="K8:T8"/>
+    <mergeCell ref="U8:AD8"/>
+    <mergeCell ref="AE8:AN8"/>
+    <mergeCell ref="AO8:BI8"/>
+    <mergeCell ref="A14:BI19"/>
+    <mergeCell ref="A13:BI13"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="K10:T10"/>
+    <mergeCell ref="U10:AD10"/>
+    <mergeCell ref="AE10:AN10"/>
+    <mergeCell ref="AO10:BI10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="K11:T11"/>
+    <mergeCell ref="U11:AD11"/>
+    <mergeCell ref="AE11:AN11"/>
+    <mergeCell ref="AO11:BI11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -3566,85 +3566,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="98" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="98"/>
-      <c r="O1" s="98"/>
-      <c r="P1" s="98"/>
-      <c r="Q1" s="98"/>
-      <c r="R1" s="97" t="s">
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="95" t="s">
         <v>47</v>
       </c>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
-      <c r="U1" s="97"/>
-      <c r="V1" s="97"/>
-      <c r="W1" s="97"/>
-      <c r="X1" s="97"/>
-      <c r="Y1" s="97"/>
-      <c r="Z1" s="97"/>
-      <c r="AA1" s="97"/>
-      <c r="AB1" s="98" t="s">
+      <c r="S1" s="95"/>
+      <c r="T1" s="95"/>
+      <c r="U1" s="95"/>
+      <c r="V1" s="95"/>
+      <c r="W1" s="95"/>
+      <c r="X1" s="95"/>
+      <c r="Y1" s="95"/>
+      <c r="Z1" s="95"/>
+      <c r="AA1" s="95"/>
+      <c r="AB1" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="AC1" s="98"/>
-      <c r="AD1" s="98"/>
-      <c r="AE1" s="97" t="s">
+      <c r="AC1" s="93"/>
+      <c r="AD1" s="93"/>
+      <c r="AE1" s="95" t="s">
         <v>49</v>
       </c>
-      <c r="AF1" s="97"/>
-      <c r="AG1" s="97"/>
-      <c r="AH1" s="97"/>
-      <c r="AI1" s="97"/>
-      <c r="AJ1" s="97"/>
-      <c r="AK1" s="97"/>
-      <c r="AL1" s="97"/>
-      <c r="AM1" s="97"/>
-      <c r="AN1" s="97"/>
-      <c r="AO1" s="97"/>
-      <c r="AP1" s="97"/>
-      <c r="AQ1" s="98" t="s">
+      <c r="AF1" s="95"/>
+      <c r="AG1" s="95"/>
+      <c r="AH1" s="95"/>
+      <c r="AI1" s="95"/>
+      <c r="AJ1" s="95"/>
+      <c r="AK1" s="95"/>
+      <c r="AL1" s="95"/>
+      <c r="AM1" s="95"/>
+      <c r="AN1" s="95"/>
+      <c r="AO1" s="95"/>
+      <c r="AP1" s="95"/>
+      <c r="AQ1" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="AR1" s="98"/>
-      <c r="AS1" s="98"/>
-      <c r="AT1" s="97" t="s">
+      <c r="AR1" s="93"/>
+      <c r="AS1" s="93"/>
+      <c r="AT1" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="AU1" s="97"/>
-      <c r="AV1" s="97"/>
-      <c r="AW1" s="97"/>
-      <c r="AX1" s="97"/>
-      <c r="AY1" s="97"/>
-      <c r="AZ1" s="97"/>
-      <c r="BA1" s="98" t="s">
+      <c r="AU1" s="95"/>
+      <c r="AV1" s="95"/>
+      <c r="AW1" s="95"/>
+      <c r="AX1" s="95"/>
+      <c r="AY1" s="95"/>
+      <c r="AZ1" s="95"/>
+      <c r="BA1" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="BB1" s="98"/>
-      <c r="BC1" s="98"/>
-      <c r="BD1" s="96">
+      <c r="BB1" s="93"/>
+      <c r="BC1" s="93"/>
+      <c r="BD1" s="94">
         <v>45537</v>
       </c>
-      <c r="BE1" s="96"/>
-      <c r="BF1" s="96"/>
-      <c r="BG1" s="96"/>
-      <c r="BH1" s="96"/>
-      <c r="BI1" s="96"/>
+      <c r="BE1" s="94"/>
+      <c r="BF1" s="94"/>
+      <c r="BG1" s="94"/>
+      <c r="BH1" s="94"/>
+      <c r="BI1" s="94"/>
       <c r="BJ1"/>
       <c r="BK1"/>
       <c r="BL1"/>
@@ -3844,81 +3844,81 @@
       <c r="IX1"/>
     </row>
     <row r="2" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="100"/>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="98" t="s">
+      <c r="A2" s="92"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="98"/>
-      <c r="O2" s="98"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="99"/>
-      <c r="T2" s="99"/>
-      <c r="U2" s="99"/>
-      <c r="V2" s="99"/>
-      <c r="W2" s="99"/>
-      <c r="X2" s="99"/>
-      <c r="Y2" s="99"/>
-      <c r="Z2" s="99"/>
-      <c r="AA2" s="99"/>
-      <c r="AB2" s="98" t="s">
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="93"/>
+      <c r="R2" s="96"/>
+      <c r="S2" s="96"/>
+      <c r="T2" s="96"/>
+      <c r="U2" s="96"/>
+      <c r="V2" s="96"/>
+      <c r="W2" s="96"/>
+      <c r="X2" s="96"/>
+      <c r="Y2" s="96"/>
+      <c r="Z2" s="96"/>
+      <c r="AA2" s="96"/>
+      <c r="AB2" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="AC2" s="98"/>
-      <c r="AD2" s="98"/>
-      <c r="AE2" s="97" t="s">
+      <c r="AC2" s="93"/>
+      <c r="AD2" s="93"/>
+      <c r="AE2" s="95" t="s">
         <v>83</v>
       </c>
-      <c r="AF2" s="97"/>
-      <c r="AG2" s="97"/>
-      <c r="AH2" s="97"/>
-      <c r="AI2" s="97"/>
-      <c r="AJ2" s="97"/>
-      <c r="AK2" s="97"/>
-      <c r="AL2" s="97"/>
-      <c r="AM2" s="97"/>
-      <c r="AN2" s="97"/>
-      <c r="AO2" s="97"/>
-      <c r="AP2" s="97"/>
-      <c r="AQ2" s="98" t="s">
+      <c r="AF2" s="95"/>
+      <c r="AG2" s="95"/>
+      <c r="AH2" s="95"/>
+      <c r="AI2" s="95"/>
+      <c r="AJ2" s="95"/>
+      <c r="AK2" s="95"/>
+      <c r="AL2" s="95"/>
+      <c r="AM2" s="95"/>
+      <c r="AN2" s="95"/>
+      <c r="AO2" s="95"/>
+      <c r="AP2" s="95"/>
+      <c r="AQ2" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="AR2" s="98"/>
-      <c r="AS2" s="98"/>
-      <c r="AT2" s="97" t="s">
+      <c r="AR2" s="93"/>
+      <c r="AS2" s="93"/>
+      <c r="AT2" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="AU2" s="97"/>
-      <c r="AV2" s="97"/>
-      <c r="AW2" s="97"/>
-      <c r="AX2" s="97"/>
-      <c r="AY2" s="97"/>
-      <c r="AZ2" s="97"/>
-      <c r="BA2" s="98" t="s">
+      <c r="AU2" s="95"/>
+      <c r="AV2" s="95"/>
+      <c r="AW2" s="95"/>
+      <c r="AX2" s="95"/>
+      <c r="AY2" s="95"/>
+      <c r="AZ2" s="95"/>
+      <c r="BA2" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="BB2" s="98"/>
-      <c r="BC2" s="98"/>
-      <c r="BD2" s="96">
+      <c r="BB2" s="93"/>
+      <c r="BC2" s="93"/>
+      <c r="BD2" s="94">
         <v>45566</v>
       </c>
-      <c r="BE2" s="96"/>
-      <c r="BF2" s="96"/>
-      <c r="BG2" s="96"/>
-      <c r="BH2" s="96"/>
-      <c r="BI2" s="96"/>
+      <c r="BE2" s="94"/>
+      <c r="BF2" s="94"/>
+      <c r="BG2" s="94"/>
+      <c r="BH2" s="94"/>
+      <c r="BI2" s="94"/>
       <c r="BJ2"/>
       <c r="BK2"/>
       <c r="BL2"/>
@@ -4118,71 +4118,71 @@
       <c r="IX2"/>
     </row>
     <row r="4" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="87" t="s">
+      <c r="A4" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="95" t="s">
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="97" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95"/>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
-      <c r="N4" s="95"/>
-      <c r="O4" s="95"/>
-      <c r="P4" s="95"/>
-      <c r="Q4" s="95"/>
-      <c r="R4" s="95"/>
-      <c r="S4" s="95"/>
-      <c r="T4" s="95"/>
-      <c r="U4" s="95"/>
-      <c r="V4" s="95"/>
-      <c r="W4" s="95"/>
-      <c r="X4" s="95"/>
-      <c r="Y4" s="95"/>
-      <c r="Z4" s="95"/>
-      <c r="AA4" s="95"/>
-      <c r="AB4" s="95"/>
-      <c r="AC4" s="95"/>
-      <c r="AD4" s="95"/>
-      <c r="AE4" s="95"/>
-      <c r="AF4" s="95"/>
-      <c r="AG4" s="95"/>
-      <c r="AH4" s="95"/>
-      <c r="AI4" s="95"/>
-      <c r="AJ4" s="95"/>
-      <c r="AK4" s="95"/>
-      <c r="AL4" s="95"/>
-      <c r="AM4" s="95"/>
-      <c r="AN4" s="95"/>
-      <c r="AO4" s="95"/>
-      <c r="AP4" s="95"/>
-      <c r="AQ4" s="95"/>
-      <c r="AR4" s="95"/>
-      <c r="AS4" s="95"/>
-      <c r="AT4" s="95"/>
-      <c r="AU4" s="95"/>
-      <c r="AV4" s="95"/>
-      <c r="AW4" s="95"/>
-      <c r="AX4" s="95"/>
-      <c r="AY4" s="95"/>
-      <c r="AZ4" s="95"/>
-      <c r="BA4" s="95"/>
-      <c r="BB4" s="95"/>
-      <c r="BC4" s="95"/>
-      <c r="BD4" s="95"/>
-      <c r="BE4" s="95"/>
-      <c r="BF4" s="95"/>
-      <c r="BG4" s="95"/>
-      <c r="BH4" s="95"/>
-      <c r="BI4" s="95"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
+      <c r="N4" s="97"/>
+      <c r="O4" s="97"/>
+      <c r="P4" s="97"/>
+      <c r="Q4" s="97"/>
+      <c r="R4" s="97"/>
+      <c r="S4" s="97"/>
+      <c r="T4" s="97"/>
+      <c r="U4" s="97"/>
+      <c r="V4" s="97"/>
+      <c r="W4" s="97"/>
+      <c r="X4" s="97"/>
+      <c r="Y4" s="97"/>
+      <c r="Z4" s="97"/>
+      <c r="AA4" s="97"/>
+      <c r="AB4" s="97"/>
+      <c r="AC4" s="97"/>
+      <c r="AD4" s="97"/>
+      <c r="AE4" s="97"/>
+      <c r="AF4" s="97"/>
+      <c r="AG4" s="97"/>
+      <c r="AH4" s="97"/>
+      <c r="AI4" s="97"/>
+      <c r="AJ4" s="97"/>
+      <c r="AK4" s="97"/>
+      <c r="AL4" s="97"/>
+      <c r="AM4" s="97"/>
+      <c r="AN4" s="97"/>
+      <c r="AO4" s="97"/>
+      <c r="AP4" s="97"/>
+      <c r="AQ4" s="97"/>
+      <c r="AR4" s="97"/>
+      <c r="AS4" s="97"/>
+      <c r="AT4" s="97"/>
+      <c r="AU4" s="97"/>
+      <c r="AV4" s="97"/>
+      <c r="AW4" s="97"/>
+      <c r="AX4" s="97"/>
+      <c r="AY4" s="97"/>
+      <c r="AZ4" s="97"/>
+      <c r="BA4" s="97"/>
+      <c r="BB4" s="97"/>
+      <c r="BC4" s="97"/>
+      <c r="BD4" s="97"/>
+      <c r="BE4" s="97"/>
+      <c r="BF4" s="97"/>
+      <c r="BG4" s="97"/>
+      <c r="BH4" s="97"/>
+      <c r="BI4" s="97"/>
       <c r="BJ4"/>
       <c r="BK4"/>
       <c r="BL4"/>
@@ -4382,71 +4382,71 @@
       <c r="IX4"/>
     </row>
     <row r="5" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="87" t="s">
+      <c r="A5" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="87"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="95" t="s">
+      <c r="B5" s="86"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="97" t="s">
         <v>83</v>
       </c>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="95"/>
-      <c r="K5" s="95"/>
-      <c r="L5" s="95"/>
-      <c r="M5" s="95"/>
-      <c r="N5" s="95"/>
-      <c r="O5" s="95"/>
-      <c r="P5" s="95"/>
-      <c r="Q5" s="95"/>
-      <c r="R5" s="95"/>
-      <c r="S5" s="95"/>
-      <c r="T5" s="95"/>
-      <c r="U5" s="95"/>
-      <c r="V5" s="95"/>
-      <c r="W5" s="95"/>
-      <c r="X5" s="95"/>
-      <c r="Y5" s="95"/>
-      <c r="Z5" s="95"/>
-      <c r="AA5" s="95"/>
-      <c r="AB5" s="95"/>
-      <c r="AC5" s="95"/>
-      <c r="AD5" s="95"/>
-      <c r="AE5" s="95"/>
-      <c r="AF5" s="95"/>
-      <c r="AG5" s="95"/>
-      <c r="AH5" s="95"/>
-      <c r="AI5" s="95"/>
-      <c r="AJ5" s="95"/>
-      <c r="AK5" s="95"/>
-      <c r="AL5" s="95"/>
-      <c r="AM5" s="95"/>
-      <c r="AN5" s="95"/>
-      <c r="AO5" s="95"/>
-      <c r="AP5" s="95"/>
-      <c r="AQ5" s="95"/>
-      <c r="AR5" s="95"/>
-      <c r="AS5" s="95"/>
-      <c r="AT5" s="95"/>
-      <c r="AU5" s="95"/>
-      <c r="AV5" s="95"/>
-      <c r="AW5" s="95"/>
-      <c r="AX5" s="95"/>
-      <c r="AY5" s="95"/>
-      <c r="AZ5" s="95"/>
-      <c r="BA5" s="95"/>
-      <c r="BB5" s="95"/>
-      <c r="BC5" s="95"/>
-      <c r="BD5" s="95"/>
-      <c r="BE5" s="95"/>
-      <c r="BF5" s="95"/>
-      <c r="BG5" s="95"/>
-      <c r="BH5" s="95"/>
-      <c r="BI5" s="95"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="97"/>
+      <c r="J5" s="97"/>
+      <c r="K5" s="97"/>
+      <c r="L5" s="97"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="97"/>
+      <c r="P5" s="97"/>
+      <c r="Q5" s="97"/>
+      <c r="R5" s="97"/>
+      <c r="S5" s="97"/>
+      <c r="T5" s="97"/>
+      <c r="U5" s="97"/>
+      <c r="V5" s="97"/>
+      <c r="W5" s="97"/>
+      <c r="X5" s="97"/>
+      <c r="Y5" s="97"/>
+      <c r="Z5" s="97"/>
+      <c r="AA5" s="97"/>
+      <c r="AB5" s="97"/>
+      <c r="AC5" s="97"/>
+      <c r="AD5" s="97"/>
+      <c r="AE5" s="97"/>
+      <c r="AF5" s="97"/>
+      <c r="AG5" s="97"/>
+      <c r="AH5" s="97"/>
+      <c r="AI5" s="97"/>
+      <c r="AJ5" s="97"/>
+      <c r="AK5" s="97"/>
+      <c r="AL5" s="97"/>
+      <c r="AM5" s="97"/>
+      <c r="AN5" s="97"/>
+      <c r="AO5" s="97"/>
+      <c r="AP5" s="97"/>
+      <c r="AQ5" s="97"/>
+      <c r="AR5" s="97"/>
+      <c r="AS5" s="97"/>
+      <c r="AT5" s="97"/>
+      <c r="AU5" s="97"/>
+      <c r="AV5" s="97"/>
+      <c r="AW5" s="97"/>
+      <c r="AX5" s="97"/>
+      <c r="AY5" s="97"/>
+      <c r="AZ5" s="97"/>
+      <c r="BA5" s="97"/>
+      <c r="BB5" s="97"/>
+      <c r="BC5" s="97"/>
+      <c r="BD5" s="97"/>
+      <c r="BE5" s="97"/>
+      <c r="BF5" s="97"/>
+      <c r="BG5" s="97"/>
+      <c r="BH5" s="97"/>
+      <c r="BI5" s="97"/>
       <c r="BJ5"/>
       <c r="BK5"/>
       <c r="BL5"/>
@@ -4845,75 +4845,75 @@
       <c r="IX6"/>
     </row>
     <row r="7" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="94" t="s">
+      <c r="A7" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="94"/>
-      <c r="C7" s="94"/>
-      <c r="D7" s="94" t="s">
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="94"/>
-      <c r="F7" s="94"/>
-      <c r="G7" s="94"/>
-      <c r="H7" s="94"/>
-      <c r="I7" s="94"/>
-      <c r="J7" s="94"/>
-      <c r="K7" s="94"/>
-      <c r="L7" s="94"/>
-      <c r="M7" s="94"/>
-      <c r="N7" s="94"/>
-      <c r="O7" s="94"/>
-      <c r="P7" s="94" t="s">
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="100"/>
+      <c r="N7" s="100"/>
+      <c r="O7" s="100"/>
+      <c r="P7" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="Q7" s="94"/>
-      <c r="R7" s="94"/>
-      <c r="S7" s="94"/>
-      <c r="T7" s="94"/>
-      <c r="U7" s="94"/>
-      <c r="V7" s="94"/>
-      <c r="W7" s="94"/>
-      <c r="X7" s="94"/>
-      <c r="Y7" s="94"/>
-      <c r="Z7" s="94"/>
-      <c r="AA7" s="94"/>
-      <c r="AB7" s="94"/>
-      <c r="AC7" s="94"/>
-      <c r="AD7" s="94"/>
-      <c r="AE7" s="94" t="s">
+      <c r="Q7" s="100"/>
+      <c r="R7" s="100"/>
+      <c r="S7" s="100"/>
+      <c r="T7" s="100"/>
+      <c r="U7" s="100"/>
+      <c r="V7" s="100"/>
+      <c r="W7" s="100"/>
+      <c r="X7" s="100"/>
+      <c r="Y7" s="100"/>
+      <c r="Z7" s="100"/>
+      <c r="AA7" s="100"/>
+      <c r="AB7" s="100"/>
+      <c r="AC7" s="100"/>
+      <c r="AD7" s="100"/>
+      <c r="AE7" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="AF7" s="94"/>
-      <c r="AG7" s="94"/>
-      <c r="AH7" s="94"/>
-      <c r="AI7" s="94"/>
-      <c r="AJ7" s="94"/>
-      <c r="AK7" s="94"/>
-      <c r="AL7" s="94"/>
-      <c r="AM7" s="94"/>
-      <c r="AN7" s="94"/>
-      <c r="AO7" s="94"/>
-      <c r="AP7" s="94"/>
-      <c r="AQ7" s="94"/>
-      <c r="AR7" s="94"/>
-      <c r="AS7" s="94"/>
-      <c r="AT7" s="94"/>
-      <c r="AU7" s="94"/>
-      <c r="AV7" s="94"/>
-      <c r="AW7" s="94"/>
-      <c r="AX7" s="94"/>
-      <c r="AY7" s="94"/>
-      <c r="AZ7" s="94"/>
-      <c r="BA7" s="94"/>
-      <c r="BB7" s="94"/>
-      <c r="BC7" s="94"/>
-      <c r="BD7" s="94"/>
-      <c r="BE7" s="94"/>
-      <c r="BF7" s="94"/>
-      <c r="BG7" s="94"/>
-      <c r="BH7" s="94"/>
-      <c r="BI7" s="94"/>
+      <c r="AF7" s="100"/>
+      <c r="AG7" s="100"/>
+      <c r="AH7" s="100"/>
+      <c r="AI7" s="100"/>
+      <c r="AJ7" s="100"/>
+      <c r="AK7" s="100"/>
+      <c r="AL7" s="100"/>
+      <c r="AM7" s="100"/>
+      <c r="AN7" s="100"/>
+      <c r="AO7" s="100"/>
+      <c r="AP7" s="100"/>
+      <c r="AQ7" s="100"/>
+      <c r="AR7" s="100"/>
+      <c r="AS7" s="100"/>
+      <c r="AT7" s="100"/>
+      <c r="AU7" s="100"/>
+      <c r="AV7" s="100"/>
+      <c r="AW7" s="100"/>
+      <c r="AX7" s="100"/>
+      <c r="AY7" s="100"/>
+      <c r="AZ7" s="100"/>
+      <c r="BA7" s="100"/>
+      <c r="BB7" s="100"/>
+      <c r="BC7" s="100"/>
+      <c r="BD7" s="100"/>
+      <c r="BE7" s="100"/>
+      <c r="BF7" s="100"/>
+      <c r="BG7" s="100"/>
+      <c r="BH7" s="100"/>
+      <c r="BI7" s="100"/>
       <c r="BJ7"/>
       <c r="BK7"/>
       <c r="BL7"/>
@@ -5113,75 +5113,75 @@
       <c r="IX7"/>
     </row>
     <row r="8" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="92" t="s">
+      <c r="A8" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="92"/>
-      <c r="C8" s="92"/>
-      <c r="D8" s="93" t="s">
+      <c r="B8" s="98"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="99" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="93"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="93"/>
-      <c r="I8" s="93"/>
-      <c r="J8" s="93"/>
-      <c r="K8" s="93"/>
-      <c r="L8" s="93"/>
-      <c r="M8" s="93"/>
-      <c r="N8" s="93"/>
-      <c r="O8" s="93"/>
-      <c r="P8" s="93" t="s">
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
+      <c r="N8" s="99"/>
+      <c r="O8" s="99"/>
+      <c r="P8" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="Q8" s="93"/>
-      <c r="R8" s="93"/>
-      <c r="S8" s="93"/>
-      <c r="T8" s="93"/>
-      <c r="U8" s="93"/>
-      <c r="V8" s="93"/>
-      <c r="W8" s="93"/>
-      <c r="X8" s="93"/>
-      <c r="Y8" s="93"/>
-      <c r="Z8" s="93"/>
-      <c r="AA8" s="93"/>
-      <c r="AB8" s="93"/>
-      <c r="AC8" s="93"/>
-      <c r="AD8" s="93"/>
-      <c r="AE8" s="93" t="s">
+      <c r="Q8" s="99"/>
+      <c r="R8" s="99"/>
+      <c r="S8" s="99"/>
+      <c r="T8" s="99"/>
+      <c r="U8" s="99"/>
+      <c r="V8" s="99"/>
+      <c r="W8" s="99"/>
+      <c r="X8" s="99"/>
+      <c r="Y8" s="99"/>
+      <c r="Z8" s="99"/>
+      <c r="AA8" s="99"/>
+      <c r="AB8" s="99"/>
+      <c r="AC8" s="99"/>
+      <c r="AD8" s="99"/>
+      <c r="AE8" s="99" t="s">
         <v>82</v>
       </c>
-      <c r="AF8" s="93"/>
-      <c r="AG8" s="93"/>
-      <c r="AH8" s="93"/>
-      <c r="AI8" s="93"/>
-      <c r="AJ8" s="93"/>
-      <c r="AK8" s="93"/>
-      <c r="AL8" s="93"/>
-      <c r="AM8" s="93"/>
-      <c r="AN8" s="93"/>
-      <c r="AO8" s="93"/>
-      <c r="AP8" s="93"/>
-      <c r="AQ8" s="93"/>
-      <c r="AR8" s="93"/>
-      <c r="AS8" s="93"/>
-      <c r="AT8" s="93"/>
-      <c r="AU8" s="93"/>
-      <c r="AV8" s="93"/>
-      <c r="AW8" s="93"/>
-      <c r="AX8" s="93"/>
-      <c r="AY8" s="93"/>
-      <c r="AZ8" s="93"/>
-      <c r="BA8" s="93"/>
-      <c r="BB8" s="93"/>
-      <c r="BC8" s="93"/>
-      <c r="BD8" s="93"/>
-      <c r="BE8" s="93"/>
-      <c r="BF8" s="93"/>
-      <c r="BG8" s="93"/>
-      <c r="BH8" s="93"/>
-      <c r="BI8" s="93"/>
+      <c r="AF8" s="99"/>
+      <c r="AG8" s="99"/>
+      <c r="AH8" s="99"/>
+      <c r="AI8" s="99"/>
+      <c r="AJ8" s="99"/>
+      <c r="AK8" s="99"/>
+      <c r="AL8" s="99"/>
+      <c r="AM8" s="99"/>
+      <c r="AN8" s="99"/>
+      <c r="AO8" s="99"/>
+      <c r="AP8" s="99"/>
+      <c r="AQ8" s="99"/>
+      <c r="AR8" s="99"/>
+      <c r="AS8" s="99"/>
+      <c r="AT8" s="99"/>
+      <c r="AU8" s="99"/>
+      <c r="AV8" s="99"/>
+      <c r="AW8" s="99"/>
+      <c r="AX8" s="99"/>
+      <c r="AY8" s="99"/>
+      <c r="AZ8" s="99"/>
+      <c r="BA8" s="99"/>
+      <c r="BB8" s="99"/>
+      <c r="BC8" s="99"/>
+      <c r="BD8" s="99"/>
+      <c r="BE8" s="99"/>
+      <c r="BF8" s="99"/>
+      <c r="BG8" s="99"/>
+      <c r="BH8" s="99"/>
+      <c r="BI8" s="99"/>
       <c r="BJ8"/>
       <c r="BK8"/>
       <c r="BL8"/>
@@ -5381,67 +5381,67 @@
       <c r="IX8"/>
     </row>
     <row r="9" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="92"/>
-      <c r="B9" s="92"/>
-      <c r="C9" s="92"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="93"/>
-      <c r="I9" s="93"/>
-      <c r="J9" s="93"/>
-      <c r="K9" s="93"/>
-      <c r="L9" s="93"/>
-      <c r="M9" s="93"/>
-      <c r="N9" s="93"/>
-      <c r="O9" s="93"/>
-      <c r="P9" s="93"/>
-      <c r="Q9" s="93"/>
-      <c r="R9" s="93"/>
-      <c r="S9" s="93"/>
-      <c r="T9" s="93"/>
-      <c r="U9" s="93"/>
-      <c r="V9" s="93"/>
-      <c r="W9" s="93"/>
-      <c r="X9" s="93"/>
-      <c r="Y9" s="93"/>
-      <c r="Z9" s="93"/>
-      <c r="AA9" s="93"/>
-      <c r="AB9" s="93"/>
-      <c r="AC9" s="93"/>
-      <c r="AD9" s="93"/>
-      <c r="AE9" s="93"/>
-      <c r="AF9" s="93"/>
-      <c r="AG9" s="93"/>
-      <c r="AH9" s="93"/>
-      <c r="AI9" s="93"/>
-      <c r="AJ9" s="93"/>
-      <c r="AK9" s="93"/>
-      <c r="AL9" s="93"/>
-      <c r="AM9" s="93"/>
-      <c r="AN9" s="93"/>
-      <c r="AO9" s="93"/>
-      <c r="AP9" s="93"/>
-      <c r="AQ9" s="93"/>
-      <c r="AR9" s="93"/>
-      <c r="AS9" s="93"/>
-      <c r="AT9" s="93"/>
-      <c r="AU9" s="93"/>
-      <c r="AV9" s="93"/>
-      <c r="AW9" s="93"/>
-      <c r="AX9" s="93"/>
-      <c r="AY9" s="93"/>
-      <c r="AZ9" s="93"/>
-      <c r="BA9" s="93"/>
-      <c r="BB9" s="93"/>
-      <c r="BC9" s="93"/>
-      <c r="BD9" s="93"/>
-      <c r="BE9" s="93"/>
-      <c r="BF9" s="93"/>
-      <c r="BG9" s="93"/>
-      <c r="BH9" s="93"/>
-      <c r="BI9" s="93"/>
+      <c r="A9" s="98"/>
+      <c r="B9" s="98"/>
+      <c r="C9" s="98"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="99"/>
+      <c r="J9" s="99"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="99"/>
+      <c r="M9" s="99"/>
+      <c r="N9" s="99"/>
+      <c r="O9" s="99"/>
+      <c r="P9" s="99"/>
+      <c r="Q9" s="99"/>
+      <c r="R9" s="99"/>
+      <c r="S9" s="99"/>
+      <c r="T9" s="99"/>
+      <c r="U9" s="99"/>
+      <c r="V9" s="99"/>
+      <c r="W9" s="99"/>
+      <c r="X9" s="99"/>
+      <c r="Y9" s="99"/>
+      <c r="Z9" s="99"/>
+      <c r="AA9" s="99"/>
+      <c r="AB9" s="99"/>
+      <c r="AC9" s="99"/>
+      <c r="AD9" s="99"/>
+      <c r="AE9" s="99"/>
+      <c r="AF9" s="99"/>
+      <c r="AG9" s="99"/>
+      <c r="AH9" s="99"/>
+      <c r="AI9" s="99"/>
+      <c r="AJ9" s="99"/>
+      <c r="AK9" s="99"/>
+      <c r="AL9" s="99"/>
+      <c r="AM9" s="99"/>
+      <c r="AN9" s="99"/>
+      <c r="AO9" s="99"/>
+      <c r="AP9" s="99"/>
+      <c r="AQ9" s="99"/>
+      <c r="AR9" s="99"/>
+      <c r="AS9" s="99"/>
+      <c r="AT9" s="99"/>
+      <c r="AU9" s="99"/>
+      <c r="AV9" s="99"/>
+      <c r="AW9" s="99"/>
+      <c r="AX9" s="99"/>
+      <c r="AY9" s="99"/>
+      <c r="AZ9" s="99"/>
+      <c r="BA9" s="99"/>
+      <c r="BB9" s="99"/>
+      <c r="BC9" s="99"/>
+      <c r="BD9" s="99"/>
+      <c r="BE9" s="99"/>
+      <c r="BF9" s="99"/>
+      <c r="BG9" s="99"/>
+      <c r="BH9" s="99"/>
+      <c r="BI9" s="99"/>
       <c r="BJ9"/>
       <c r="BK9"/>
       <c r="BL9"/>
@@ -5641,67 +5641,67 @@
       <c r="IX9"/>
     </row>
     <row r="10" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="92"/>
-      <c r="B10" s="92"/>
-      <c r="C10" s="92"/>
-      <c r="D10" s="92"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="92"/>
-      <c r="H10" s="92"/>
-      <c r="I10" s="92"/>
-      <c r="J10" s="92"/>
-      <c r="K10" s="92"/>
-      <c r="L10" s="92"/>
-      <c r="M10" s="92"/>
-      <c r="N10" s="92"/>
-      <c r="O10" s="92"/>
-      <c r="P10" s="92"/>
-      <c r="Q10" s="92"/>
-      <c r="R10" s="92"/>
-      <c r="S10" s="92"/>
-      <c r="T10" s="92"/>
-      <c r="U10" s="92"/>
-      <c r="V10" s="92"/>
-      <c r="W10" s="92"/>
-      <c r="X10" s="92"/>
-      <c r="Y10" s="92"/>
-      <c r="Z10" s="92"/>
-      <c r="AA10" s="92"/>
-      <c r="AB10" s="92"/>
-      <c r="AC10" s="92"/>
-      <c r="AD10" s="92"/>
-      <c r="AE10" s="92"/>
-      <c r="AF10" s="92"/>
-      <c r="AG10" s="92"/>
-      <c r="AH10" s="92"/>
-      <c r="AI10" s="92"/>
-      <c r="AJ10" s="92"/>
-      <c r="AK10" s="92"/>
-      <c r="AL10" s="92"/>
-      <c r="AM10" s="92"/>
-      <c r="AN10" s="92"/>
-      <c r="AO10" s="92"/>
-      <c r="AP10" s="92"/>
-      <c r="AQ10" s="92"/>
-      <c r="AR10" s="92"/>
-      <c r="AS10" s="92"/>
-      <c r="AT10" s="92"/>
-      <c r="AU10" s="92"/>
-      <c r="AV10" s="92"/>
-      <c r="AW10" s="92"/>
-      <c r="AX10" s="92"/>
-      <c r="AY10" s="92"/>
-      <c r="AZ10" s="92"/>
-      <c r="BA10" s="92"/>
-      <c r="BB10" s="92"/>
-      <c r="BC10" s="92"/>
-      <c r="BD10" s="92"/>
-      <c r="BE10" s="92"/>
-      <c r="BF10" s="92"/>
-      <c r="BG10" s="92"/>
-      <c r="BH10" s="92"/>
-      <c r="BI10" s="92"/>
+      <c r="A10" s="98"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="98"/>
+      <c r="H10" s="98"/>
+      <c r="I10" s="98"/>
+      <c r="J10" s="98"/>
+      <c r="K10" s="98"/>
+      <c r="L10" s="98"/>
+      <c r="M10" s="98"/>
+      <c r="N10" s="98"/>
+      <c r="O10" s="98"/>
+      <c r="P10" s="98"/>
+      <c r="Q10" s="98"/>
+      <c r="R10" s="98"/>
+      <c r="S10" s="98"/>
+      <c r="T10" s="98"/>
+      <c r="U10" s="98"/>
+      <c r="V10" s="98"/>
+      <c r="W10" s="98"/>
+      <c r="X10" s="98"/>
+      <c r="Y10" s="98"/>
+      <c r="Z10" s="98"/>
+      <c r="AA10" s="98"/>
+      <c r="AB10" s="98"/>
+      <c r="AC10" s="98"/>
+      <c r="AD10" s="98"/>
+      <c r="AE10" s="98"/>
+      <c r="AF10" s="98"/>
+      <c r="AG10" s="98"/>
+      <c r="AH10" s="98"/>
+      <c r="AI10" s="98"/>
+      <c r="AJ10" s="98"/>
+      <c r="AK10" s="98"/>
+      <c r="AL10" s="98"/>
+      <c r="AM10" s="98"/>
+      <c r="AN10" s="98"/>
+      <c r="AO10" s="98"/>
+      <c r="AP10" s="98"/>
+      <c r="AQ10" s="98"/>
+      <c r="AR10" s="98"/>
+      <c r="AS10" s="98"/>
+      <c r="AT10" s="98"/>
+      <c r="AU10" s="98"/>
+      <c r="AV10" s="98"/>
+      <c r="AW10" s="98"/>
+      <c r="AX10" s="98"/>
+      <c r="AY10" s="98"/>
+      <c r="AZ10" s="98"/>
+      <c r="BA10" s="98"/>
+      <c r="BB10" s="98"/>
+      <c r="BC10" s="98"/>
+      <c r="BD10" s="98"/>
+      <c r="BE10" s="98"/>
+      <c r="BF10" s="98"/>
+      <c r="BG10" s="98"/>
+      <c r="BH10" s="98"/>
+      <c r="BI10" s="98"/>
       <c r="BJ10"/>
       <c r="BK10"/>
       <c r="BL10"/>
@@ -5901,67 +5901,67 @@
       <c r="IX10"/>
     </row>
     <row r="11" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="92"/>
-      <c r="B11" s="92"/>
-      <c r="C11" s="92"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="92"/>
-      <c r="I11" s="92"/>
-      <c r="J11" s="92"/>
-      <c r="K11" s="92"/>
-      <c r="L11" s="92"/>
-      <c r="M11" s="92"/>
-      <c r="N11" s="92"/>
-      <c r="O11" s="92"/>
-      <c r="P11" s="92"/>
-      <c r="Q11" s="92"/>
-      <c r="R11" s="92"/>
-      <c r="S11" s="92"/>
-      <c r="T11" s="92"/>
-      <c r="U11" s="92"/>
-      <c r="V11" s="92"/>
-      <c r="W11" s="92"/>
-      <c r="X11" s="92"/>
-      <c r="Y11" s="92"/>
-      <c r="Z11" s="92"/>
-      <c r="AA11" s="92"/>
-      <c r="AB11" s="92"/>
-      <c r="AC11" s="92"/>
-      <c r="AD11" s="92"/>
-      <c r="AE11" s="92"/>
-      <c r="AF11" s="92"/>
-      <c r="AG11" s="92"/>
-      <c r="AH11" s="92"/>
-      <c r="AI11" s="92"/>
-      <c r="AJ11" s="92"/>
-      <c r="AK11" s="92"/>
-      <c r="AL11" s="92"/>
-      <c r="AM11" s="92"/>
-      <c r="AN11" s="92"/>
-      <c r="AO11" s="92"/>
-      <c r="AP11" s="92"/>
-      <c r="AQ11" s="92"/>
-      <c r="AR11" s="92"/>
-      <c r="AS11" s="92"/>
-      <c r="AT11" s="92"/>
-      <c r="AU11" s="92"/>
-      <c r="AV11" s="92"/>
-      <c r="AW11" s="92"/>
-      <c r="AX11" s="92"/>
-      <c r="AY11" s="92"/>
-      <c r="AZ11" s="92"/>
-      <c r="BA11" s="92"/>
-      <c r="BB11" s="92"/>
-      <c r="BC11" s="92"/>
-      <c r="BD11" s="92"/>
-      <c r="BE11" s="92"/>
-      <c r="BF11" s="92"/>
-      <c r="BG11" s="92"/>
-      <c r="BH11" s="92"/>
-      <c r="BI11" s="92"/>
+      <c r="A11" s="98"/>
+      <c r="B11" s="98"/>
+      <c r="C11" s="98"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="98"/>
+      <c r="H11" s="98"/>
+      <c r="I11" s="98"/>
+      <c r="J11" s="98"/>
+      <c r="K11" s="98"/>
+      <c r="L11" s="98"/>
+      <c r="M11" s="98"/>
+      <c r="N11" s="98"/>
+      <c r="O11" s="98"/>
+      <c r="P11" s="98"/>
+      <c r="Q11" s="98"/>
+      <c r="R11" s="98"/>
+      <c r="S11" s="98"/>
+      <c r="T11" s="98"/>
+      <c r="U11" s="98"/>
+      <c r="V11" s="98"/>
+      <c r="W11" s="98"/>
+      <c r="X11" s="98"/>
+      <c r="Y11" s="98"/>
+      <c r="Z11" s="98"/>
+      <c r="AA11" s="98"/>
+      <c r="AB11" s="98"/>
+      <c r="AC11" s="98"/>
+      <c r="AD11" s="98"/>
+      <c r="AE11" s="98"/>
+      <c r="AF11" s="98"/>
+      <c r="AG11" s="98"/>
+      <c r="AH11" s="98"/>
+      <c r="AI11" s="98"/>
+      <c r="AJ11" s="98"/>
+      <c r="AK11" s="98"/>
+      <c r="AL11" s="98"/>
+      <c r="AM11" s="98"/>
+      <c r="AN11" s="98"/>
+      <c r="AO11" s="98"/>
+      <c r="AP11" s="98"/>
+      <c r="AQ11" s="98"/>
+      <c r="AR11" s="98"/>
+      <c r="AS11" s="98"/>
+      <c r="AT11" s="98"/>
+      <c r="AU11" s="98"/>
+      <c r="AV11" s="98"/>
+      <c r="AW11" s="98"/>
+      <c r="AX11" s="98"/>
+      <c r="AY11" s="98"/>
+      <c r="AZ11" s="98"/>
+      <c r="BA11" s="98"/>
+      <c r="BB11" s="98"/>
+      <c r="BC11" s="98"/>
+      <c r="BD11" s="98"/>
+      <c r="BE11" s="98"/>
+      <c r="BF11" s="98"/>
+      <c r="BG11" s="98"/>
+      <c r="BH11" s="98"/>
+      <c r="BI11" s="98"/>
       <c r="BJ11"/>
       <c r="BK11"/>
       <c r="BL11"/>
@@ -6567,73 +6567,73 @@
       <c r="IX13"/>
     </row>
     <row r="14" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="94" t="s">
+      <c r="A14" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="94"/>
-      <c r="C14" s="94"/>
-      <c r="D14" s="94"/>
-      <c r="E14" s="94"/>
-      <c r="F14" s="94"/>
-      <c r="G14" s="94"/>
-      <c r="H14" s="94"/>
-      <c r="I14" s="94"/>
-      <c r="J14" s="94"/>
-      <c r="K14" s="94"/>
-      <c r="L14" s="94"/>
-      <c r="M14" s="94"/>
-      <c r="N14" s="94"/>
-      <c r="O14" s="94"/>
-      <c r="P14" s="94" t="s">
+      <c r="B14" s="100"/>
+      <c r="C14" s="100"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="100"/>
+      <c r="J14" s="100"/>
+      <c r="K14" s="100"/>
+      <c r="L14" s="100"/>
+      <c r="M14" s="100"/>
+      <c r="N14" s="100"/>
+      <c r="O14" s="100"/>
+      <c r="P14" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="Q14" s="94"/>
-      <c r="R14" s="94"/>
-      <c r="S14" s="94"/>
-      <c r="T14" s="94"/>
-      <c r="U14" s="94"/>
-      <c r="V14" s="94"/>
-      <c r="W14" s="94"/>
-      <c r="X14" s="94"/>
-      <c r="Y14" s="94"/>
-      <c r="Z14" s="94"/>
-      <c r="AA14" s="94"/>
-      <c r="AB14" s="94"/>
-      <c r="AC14" s="94"/>
-      <c r="AD14" s="94"/>
-      <c r="AE14" s="94"/>
-      <c r="AF14" s="94"/>
-      <c r="AG14" s="94"/>
-      <c r="AH14" s="94"/>
-      <c r="AI14" s="94"/>
-      <c r="AJ14" s="94"/>
-      <c r="AK14" s="94"/>
-      <c r="AL14" s="94"/>
-      <c r="AM14" s="94"/>
-      <c r="AN14" s="94"/>
-      <c r="AO14" s="94"/>
-      <c r="AP14" s="94"/>
-      <c r="AQ14" s="94"/>
-      <c r="AR14" s="94"/>
-      <c r="AS14" s="94"/>
-      <c r="AT14" s="94" t="s">
+      <c r="Q14" s="100"/>
+      <c r="R14" s="100"/>
+      <c r="S14" s="100"/>
+      <c r="T14" s="100"/>
+      <c r="U14" s="100"/>
+      <c r="V14" s="100"/>
+      <c r="W14" s="100"/>
+      <c r="X14" s="100"/>
+      <c r="Y14" s="100"/>
+      <c r="Z14" s="100"/>
+      <c r="AA14" s="100"/>
+      <c r="AB14" s="100"/>
+      <c r="AC14" s="100"/>
+      <c r="AD14" s="100"/>
+      <c r="AE14" s="100"/>
+      <c r="AF14" s="100"/>
+      <c r="AG14" s="100"/>
+      <c r="AH14" s="100"/>
+      <c r="AI14" s="100"/>
+      <c r="AJ14" s="100"/>
+      <c r="AK14" s="100"/>
+      <c r="AL14" s="100"/>
+      <c r="AM14" s="100"/>
+      <c r="AN14" s="100"/>
+      <c r="AO14" s="100"/>
+      <c r="AP14" s="100"/>
+      <c r="AQ14" s="100"/>
+      <c r="AR14" s="100"/>
+      <c r="AS14" s="100"/>
+      <c r="AT14" s="100" t="s">
         <v>25</v>
       </c>
-      <c r="AU14" s="94"/>
-      <c r="AV14" s="94"/>
-      <c r="AW14" s="94"/>
-      <c r="AX14" s="94"/>
-      <c r="AY14" s="94"/>
-      <c r="AZ14" s="94"/>
-      <c r="BA14" s="94"/>
-      <c r="BB14" s="94"/>
-      <c r="BC14" s="94"/>
-      <c r="BD14" s="94"/>
-      <c r="BE14" s="94"/>
-      <c r="BF14" s="94"/>
-      <c r="BG14" s="94"/>
-      <c r="BH14" s="94"/>
-      <c r="BI14" s="94"/>
+      <c r="AU14" s="100"/>
+      <c r="AV14" s="100"/>
+      <c r="AW14" s="100"/>
+      <c r="AX14" s="100"/>
+      <c r="AY14" s="100"/>
+      <c r="AZ14" s="100"/>
+      <c r="BA14" s="100"/>
+      <c r="BB14" s="100"/>
+      <c r="BC14" s="100"/>
+      <c r="BD14" s="100"/>
+      <c r="BE14" s="100"/>
+      <c r="BF14" s="100"/>
+      <c r="BG14" s="100"/>
+      <c r="BH14" s="100"/>
+      <c r="BI14" s="100"/>
       <c r="BJ14"/>
       <c r="BK14"/>
       <c r="BL14"/>
@@ -12174,6 +12174,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:O9"/>
+    <mergeCell ref="P9:AD9"/>
+    <mergeCell ref="AE9:BI9"/>
+    <mergeCell ref="A14:O14"/>
+    <mergeCell ref="P14:AS14"/>
+    <mergeCell ref="AT14:BI14"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:O10"/>
+    <mergeCell ref="P10:AD10"/>
+    <mergeCell ref="AE10:BI10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:O11"/>
+    <mergeCell ref="P11:AD11"/>
+    <mergeCell ref="AE11:BI11"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:O8"/>
+    <mergeCell ref="P8:AD8"/>
+    <mergeCell ref="AE8:BI8"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:O7"/>
+    <mergeCell ref="P7:AD7"/>
+    <mergeCell ref="AE7:BI7"/>
+    <mergeCell ref="BA2:BC2"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:BI4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:BI5"/>
     <mergeCell ref="A1:L2"/>
     <mergeCell ref="M1:Q1"/>
     <mergeCell ref="M2:Q2"/>
@@ -12190,34 +12218,6 @@
     <mergeCell ref="AE2:AP2"/>
     <mergeCell ref="AQ2:AS2"/>
     <mergeCell ref="AT2:AZ2"/>
-    <mergeCell ref="BA2:BC2"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:BI4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:BI5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:O8"/>
-    <mergeCell ref="P8:AD8"/>
-    <mergeCell ref="AE8:BI8"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:O7"/>
-    <mergeCell ref="P7:AD7"/>
-    <mergeCell ref="AE7:BI7"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:O9"/>
-    <mergeCell ref="P9:AD9"/>
-    <mergeCell ref="AE9:BI9"/>
-    <mergeCell ref="A14:O14"/>
-    <mergeCell ref="P14:AS14"/>
-    <mergeCell ref="AT14:BI14"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:O10"/>
-    <mergeCell ref="P10:AD10"/>
-    <mergeCell ref="AE10:BI10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:O11"/>
-    <mergeCell ref="P11:AD11"/>
-    <mergeCell ref="AE11:BI11"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="2">
@@ -12239,7 +12239,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:IX51"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
@@ -12249,85 +12249,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="84" t="s">
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="85" t="s">
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
-      <c r="W1" s="85"/>
-      <c r="X1" s="85"/>
-      <c r="Y1" s="85"/>
-      <c r="Z1" s="85"/>
-      <c r="AA1" s="85"/>
-      <c r="AB1" s="84" t="s">
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89"/>
+      <c r="X1" s="89"/>
+      <c r="Y1" s="89"/>
+      <c r="Z1" s="89"/>
+      <c r="AA1" s="89"/>
+      <c r="AB1" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="AC1" s="84"/>
-      <c r="AD1" s="84"/>
-      <c r="AE1" s="85" t="s">
+      <c r="AC1" s="90"/>
+      <c r="AD1" s="90"/>
+      <c r="AE1" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="AF1" s="85"/>
-      <c r="AG1" s="85"/>
-      <c r="AH1" s="85"/>
-      <c r="AI1" s="85"/>
-      <c r="AJ1" s="85"/>
-      <c r="AK1" s="85"/>
-      <c r="AL1" s="85"/>
-      <c r="AM1" s="85"/>
-      <c r="AN1" s="85"/>
-      <c r="AO1" s="85"/>
-      <c r="AP1" s="85"/>
-      <c r="AQ1" s="84" t="s">
+      <c r="AF1" s="89"/>
+      <c r="AG1" s="89"/>
+      <c r="AH1" s="89"/>
+      <c r="AI1" s="89"/>
+      <c r="AJ1" s="89"/>
+      <c r="AK1" s="89"/>
+      <c r="AL1" s="89"/>
+      <c r="AM1" s="89"/>
+      <c r="AN1" s="89"/>
+      <c r="AO1" s="89"/>
+      <c r="AP1" s="89"/>
+      <c r="AQ1" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="AR1" s="84"/>
-      <c r="AS1" s="84"/>
-      <c r="AT1" s="85" t="s">
+      <c r="AR1" s="90"/>
+      <c r="AS1" s="90"/>
+      <c r="AT1" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="AU1" s="85"/>
-      <c r="AV1" s="85"/>
-      <c r="AW1" s="85"/>
-      <c r="AX1" s="85"/>
-      <c r="AY1" s="85"/>
-      <c r="AZ1" s="85"/>
-      <c r="BA1" s="84" t="s">
+      <c r="AU1" s="89"/>
+      <c r="AV1" s="89"/>
+      <c r="AW1" s="89"/>
+      <c r="AX1" s="89"/>
+      <c r="AY1" s="89"/>
+      <c r="AZ1" s="89"/>
+      <c r="BA1" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="BB1" s="84"/>
-      <c r="BC1" s="84"/>
-      <c r="BD1" s="86">
+      <c r="BB1" s="90"/>
+      <c r="BC1" s="90"/>
+      <c r="BD1" s="87">
         <v>45537</v>
       </c>
-      <c r="BE1" s="86"/>
-      <c r="BF1" s="86"/>
-      <c r="BG1" s="86"/>
-      <c r="BH1" s="86"/>
-      <c r="BI1" s="86"/>
+      <c r="BE1" s="87"/>
+      <c r="BF1" s="87"/>
+      <c r="BG1" s="87"/>
+      <c r="BH1" s="87"/>
+      <c r="BI1" s="87"/>
       <c r="BJ1" s="1"/>
       <c r="BK1" s="1"/>
       <c r="BL1" s="1"/>
@@ -12527,82 +12527,82 @@
       <c r="IX1" s="1"/>
     </row>
     <row r="2" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="89"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="84" t="s">
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="90"/>
-      <c r="S2" s="90"/>
-      <c r="T2" s="90"/>
-      <c r="U2" s="90"/>
-      <c r="V2" s="90"/>
-      <c r="W2" s="90"/>
-      <c r="X2" s="90"/>
-      <c r="Y2" s="90"/>
-      <c r="Z2" s="90"/>
-      <c r="AA2" s="90"/>
-      <c r="AB2" s="84" t="s">
+      <c r="N2" s="90"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="90"/>
+      <c r="Q2" s="90"/>
+      <c r="R2" s="91"/>
+      <c r="S2" s="91"/>
+      <c r="T2" s="91"/>
+      <c r="U2" s="91"/>
+      <c r="V2" s="91"/>
+      <c r="W2" s="91"/>
+      <c r="X2" s="91"/>
+      <c r="Y2" s="91"/>
+      <c r="Z2" s="91"/>
+      <c r="AA2" s="91"/>
+      <c r="AB2" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="AC2" s="84"/>
-      <c r="AD2" s="84"/>
-      <c r="AE2" s="85" t="str">
+      <c r="AC2" s="90"/>
+      <c r="AD2" s="90"/>
+      <c r="AE2" s="89" t="str">
         <f>クラス仕様!G5</f>
         <v>SearchResultService</v>
       </c>
-      <c r="AF2" s="85"/>
-      <c r="AG2" s="85"/>
-      <c r="AH2" s="85"/>
-      <c r="AI2" s="85"/>
-      <c r="AJ2" s="85"/>
-      <c r="AK2" s="85"/>
-      <c r="AL2" s="85"/>
-      <c r="AM2" s="85"/>
-      <c r="AN2" s="85"/>
-      <c r="AO2" s="85"/>
-      <c r="AP2" s="85"/>
-      <c r="AQ2" s="84" t="s">
+      <c r="AF2" s="89"/>
+      <c r="AG2" s="89"/>
+      <c r="AH2" s="89"/>
+      <c r="AI2" s="89"/>
+      <c r="AJ2" s="89"/>
+      <c r="AK2" s="89"/>
+      <c r="AL2" s="89"/>
+      <c r="AM2" s="89"/>
+      <c r="AN2" s="89"/>
+      <c r="AO2" s="89"/>
+      <c r="AP2" s="89"/>
+      <c r="AQ2" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="AR2" s="84"/>
-      <c r="AS2" s="84"/>
-      <c r="AT2" s="85" t="s">
+      <c r="AR2" s="90"/>
+      <c r="AS2" s="90"/>
+      <c r="AT2" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="AU2" s="85"/>
-      <c r="AV2" s="85"/>
-      <c r="AW2" s="85"/>
-      <c r="AX2" s="85"/>
-      <c r="AY2" s="85"/>
-      <c r="AZ2" s="85"/>
-      <c r="BA2" s="84" t="s">
+      <c r="AU2" s="89"/>
+      <c r="AV2" s="89"/>
+      <c r="AW2" s="89"/>
+      <c r="AX2" s="89"/>
+      <c r="AY2" s="89"/>
+      <c r="AZ2" s="89"/>
+      <c r="BA2" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="BB2" s="84"/>
-      <c r="BC2" s="84"/>
-      <c r="BD2" s="101">
+      <c r="BB2" s="90"/>
+      <c r="BC2" s="90"/>
+      <c r="BD2" s="106">
         <v>45566</v>
       </c>
-      <c r="BE2" s="102"/>
-      <c r="BF2" s="102"/>
-      <c r="BG2" s="102"/>
-      <c r="BH2" s="102"/>
-      <c r="BI2" s="103"/>
+      <c r="BE2" s="107"/>
+      <c r="BF2" s="107"/>
+      <c r="BG2" s="107"/>
+      <c r="BH2" s="107"/>
+      <c r="BI2" s="108"/>
       <c r="BJ2" s="1"/>
       <c r="BK2" s="1"/>
       <c r="BL2" s="1"/>
@@ -12865,71 +12865,71 @@
       <c r="BI3" s="3"/>
     </row>
     <row r="4" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="87" t="s">
+      <c r="A4" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="88" t="s">
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="84" t="s">
         <v>84</v>
       </c>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="88"/>
-      <c r="O4" s="88"/>
-      <c r="P4" s="88"/>
-      <c r="Q4" s="88"/>
-      <c r="R4" s="88"/>
-      <c r="S4" s="88"/>
-      <c r="T4" s="88"/>
-      <c r="U4" s="88"/>
-      <c r="V4" s="88"/>
-      <c r="W4" s="88"/>
-      <c r="X4" s="88"/>
-      <c r="Y4" s="88"/>
-      <c r="Z4" s="88"/>
-      <c r="AA4" s="88"/>
-      <c r="AB4" s="88"/>
-      <c r="AC4" s="88"/>
-      <c r="AD4" s="88"/>
-      <c r="AE4" s="88"/>
-      <c r="AF4" s="88"/>
-      <c r="AG4" s="88"/>
-      <c r="AH4" s="88"/>
-      <c r="AI4" s="88"/>
-      <c r="AJ4" s="88"/>
-      <c r="AK4" s="88"/>
-      <c r="AL4" s="88"/>
-      <c r="AM4" s="88"/>
-      <c r="AN4" s="88"/>
-      <c r="AO4" s="88"/>
-      <c r="AP4" s="88"/>
-      <c r="AQ4" s="88"/>
-      <c r="AR4" s="88"/>
-      <c r="AS4" s="88"/>
-      <c r="AT4" s="88"/>
-      <c r="AU4" s="88"/>
-      <c r="AV4" s="88"/>
-      <c r="AW4" s="88"/>
-      <c r="AX4" s="88"/>
-      <c r="AY4" s="88"/>
-      <c r="AZ4" s="88"/>
-      <c r="BA4" s="88"/>
-      <c r="BB4" s="88"/>
-      <c r="BC4" s="88"/>
-      <c r="BD4" s="88"/>
-      <c r="BE4" s="88"/>
-      <c r="BF4" s="88"/>
-      <c r="BG4" s="88"/>
-      <c r="BH4" s="88"/>
-      <c r="BI4" s="88"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="84"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="84"/>
+      <c r="N4" s="84"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="84"/>
+      <c r="Q4" s="84"/>
+      <c r="R4" s="84"/>
+      <c r="S4" s="84"/>
+      <c r="T4" s="84"/>
+      <c r="U4" s="84"/>
+      <c r="V4" s="84"/>
+      <c r="W4" s="84"/>
+      <c r="X4" s="84"/>
+      <c r="Y4" s="84"/>
+      <c r="Z4" s="84"/>
+      <c r="AA4" s="84"/>
+      <c r="AB4" s="84"/>
+      <c r="AC4" s="84"/>
+      <c r="AD4" s="84"/>
+      <c r="AE4" s="84"/>
+      <c r="AF4" s="84"/>
+      <c r="AG4" s="84"/>
+      <c r="AH4" s="84"/>
+      <c r="AI4" s="84"/>
+      <c r="AJ4" s="84"/>
+      <c r="AK4" s="84"/>
+      <c r="AL4" s="84"/>
+      <c r="AM4" s="84"/>
+      <c r="AN4" s="84"/>
+      <c r="AO4" s="84"/>
+      <c r="AP4" s="84"/>
+      <c r="AQ4" s="84"/>
+      <c r="AR4" s="84"/>
+      <c r="AS4" s="84"/>
+      <c r="AT4" s="84"/>
+      <c r="AU4" s="84"/>
+      <c r="AV4" s="84"/>
+      <c r="AW4" s="84"/>
+      <c r="AX4" s="84"/>
+      <c r="AY4" s="84"/>
+      <c r="AZ4" s="84"/>
+      <c r="BA4" s="84"/>
+      <c r="BB4" s="84"/>
+      <c r="BC4" s="84"/>
+      <c r="BD4" s="84"/>
+      <c r="BE4" s="84"/>
+      <c r="BF4" s="84"/>
+      <c r="BG4" s="84"/>
+      <c r="BH4" s="84"/>
+      <c r="BI4" s="84"/>
       <c r="BJ4" s="1"/>
       <c r="BK4" s="1"/>
       <c r="BL4" s="1"/>
@@ -13129,71 +13129,71 @@
       <c r="IX4" s="1"/>
     </row>
     <row r="5" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="87" t="s">
+      <c r="A5" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="87"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="88" t="s">
+      <c r="B5" s="86"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="88"/>
-      <c r="K5" s="88"/>
-      <c r="L5" s="88"/>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="88"/>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="88"/>
-      <c r="R5" s="88"/>
-      <c r="S5" s="88"/>
-      <c r="T5" s="88"/>
-      <c r="U5" s="88"/>
-      <c r="V5" s="88"/>
-      <c r="W5" s="88"/>
-      <c r="X5" s="88"/>
-      <c r="Y5" s="88"/>
-      <c r="Z5" s="88"/>
-      <c r="AA5" s="88"/>
-      <c r="AB5" s="88"/>
-      <c r="AC5" s="88"/>
-      <c r="AD5" s="88"/>
-      <c r="AE5" s="88"/>
-      <c r="AF5" s="88"/>
-      <c r="AG5" s="88"/>
-      <c r="AH5" s="88"/>
-      <c r="AI5" s="88"/>
-      <c r="AJ5" s="88"/>
-      <c r="AK5" s="88"/>
-      <c r="AL5" s="88"/>
-      <c r="AM5" s="88"/>
-      <c r="AN5" s="88"/>
-      <c r="AO5" s="88"/>
-      <c r="AP5" s="88"/>
-      <c r="AQ5" s="88"/>
-      <c r="AR5" s="88"/>
-      <c r="AS5" s="88"/>
-      <c r="AT5" s="88"/>
-      <c r="AU5" s="88"/>
-      <c r="AV5" s="88"/>
-      <c r="AW5" s="88"/>
-      <c r="AX5" s="88"/>
-      <c r="AY5" s="88"/>
-      <c r="AZ5" s="88"/>
-      <c r="BA5" s="88"/>
-      <c r="BB5" s="88"/>
-      <c r="BC5" s="88"/>
-      <c r="BD5" s="88"/>
-      <c r="BE5" s="88"/>
-      <c r="BF5" s="88"/>
-      <c r="BG5" s="88"/>
-      <c r="BH5" s="88"/>
-      <c r="BI5" s="88"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="84"/>
+      <c r="T5" s="84"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
+      <c r="W5" s="84"/>
+      <c r="X5" s="84"/>
+      <c r="Y5" s="84"/>
+      <c r="Z5" s="84"/>
+      <c r="AA5" s="84"/>
+      <c r="AB5" s="84"/>
+      <c r="AC5" s="84"/>
+      <c r="AD5" s="84"/>
+      <c r="AE5" s="84"/>
+      <c r="AF5" s="84"/>
+      <c r="AG5" s="84"/>
+      <c r="AH5" s="84"/>
+      <c r="AI5" s="84"/>
+      <c r="AJ5" s="84"/>
+      <c r="AK5" s="84"/>
+      <c r="AL5" s="84"/>
+      <c r="AM5" s="84"/>
+      <c r="AN5" s="84"/>
+      <c r="AO5" s="84"/>
+      <c r="AP5" s="84"/>
+      <c r="AQ5" s="84"/>
+      <c r="AR5" s="84"/>
+      <c r="AS5" s="84"/>
+      <c r="AT5" s="84"/>
+      <c r="AU5" s="84"/>
+      <c r="AV5" s="84"/>
+      <c r="AW5" s="84"/>
+      <c r="AX5" s="84"/>
+      <c r="AY5" s="84"/>
+      <c r="AZ5" s="84"/>
+      <c r="BA5" s="84"/>
+      <c r="BB5" s="84"/>
+      <c r="BC5" s="84"/>
+      <c r="BD5" s="84"/>
+      <c r="BE5" s="84"/>
+      <c r="BF5" s="84"/>
+      <c r="BG5" s="84"/>
+      <c r="BH5" s="84"/>
+      <c r="BI5" s="84"/>
       <c r="BJ5" s="1"/>
       <c r="BK5" s="1"/>
       <c r="BL5" s="1"/>
@@ -13653,75 +13653,75 @@
       <c r="IX6" s="1"/>
     </row>
     <row r="7" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="94" t="s">
+      <c r="A7" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="94"/>
-      <c r="C7" s="94"/>
-      <c r="D7" s="94" t="s">
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="94"/>
-      <c r="F7" s="94"/>
-      <c r="G7" s="94"/>
-      <c r="H7" s="94"/>
-      <c r="I7" s="94"/>
-      <c r="J7" s="94"/>
-      <c r="K7" s="94"/>
-      <c r="L7" s="94"/>
-      <c r="M7" s="94"/>
-      <c r="N7" s="94"/>
-      <c r="O7" s="94"/>
-      <c r="P7" s="94" t="s">
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="100"/>
+      <c r="N7" s="100"/>
+      <c r="O7" s="100"/>
+      <c r="P7" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="Q7" s="94"/>
-      <c r="R7" s="94"/>
-      <c r="S7" s="94"/>
-      <c r="T7" s="94"/>
-      <c r="U7" s="94"/>
-      <c r="V7" s="94"/>
-      <c r="W7" s="94"/>
-      <c r="X7" s="94"/>
-      <c r="Y7" s="94"/>
-      <c r="Z7" s="94"/>
-      <c r="AA7" s="94"/>
-      <c r="AB7" s="94"/>
-      <c r="AC7" s="94"/>
-      <c r="AD7" s="94"/>
-      <c r="AE7" s="94" t="s">
+      <c r="Q7" s="100"/>
+      <c r="R7" s="100"/>
+      <c r="S7" s="100"/>
+      <c r="T7" s="100"/>
+      <c r="U7" s="100"/>
+      <c r="V7" s="100"/>
+      <c r="W7" s="100"/>
+      <c r="X7" s="100"/>
+      <c r="Y7" s="100"/>
+      <c r="Z7" s="100"/>
+      <c r="AA7" s="100"/>
+      <c r="AB7" s="100"/>
+      <c r="AC7" s="100"/>
+      <c r="AD7" s="100"/>
+      <c r="AE7" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="AF7" s="94"/>
-      <c r="AG7" s="94"/>
-      <c r="AH7" s="94"/>
-      <c r="AI7" s="94"/>
-      <c r="AJ7" s="94"/>
-      <c r="AK7" s="94"/>
-      <c r="AL7" s="94"/>
-      <c r="AM7" s="94"/>
-      <c r="AN7" s="94"/>
-      <c r="AO7" s="94"/>
-      <c r="AP7" s="94"/>
-      <c r="AQ7" s="94"/>
-      <c r="AR7" s="94"/>
-      <c r="AS7" s="94"/>
-      <c r="AT7" s="94"/>
-      <c r="AU7" s="94"/>
-      <c r="AV7" s="94"/>
-      <c r="AW7" s="94"/>
-      <c r="AX7" s="94"/>
-      <c r="AY7" s="94"/>
-      <c r="AZ7" s="94"/>
-      <c r="BA7" s="94"/>
-      <c r="BB7" s="94"/>
-      <c r="BC7" s="94"/>
-      <c r="BD7" s="94"/>
-      <c r="BE7" s="94"/>
-      <c r="BF7" s="94"/>
-      <c r="BG7" s="94"/>
-      <c r="BH7" s="94"/>
-      <c r="BI7" s="94"/>
+      <c r="AF7" s="100"/>
+      <c r="AG7" s="100"/>
+      <c r="AH7" s="100"/>
+      <c r="AI7" s="100"/>
+      <c r="AJ7" s="100"/>
+      <c r="AK7" s="100"/>
+      <c r="AL7" s="100"/>
+      <c r="AM7" s="100"/>
+      <c r="AN7" s="100"/>
+      <c r="AO7" s="100"/>
+      <c r="AP7" s="100"/>
+      <c r="AQ7" s="100"/>
+      <c r="AR7" s="100"/>
+      <c r="AS7" s="100"/>
+      <c r="AT7" s="100"/>
+      <c r="AU7" s="100"/>
+      <c r="AV7" s="100"/>
+      <c r="AW7" s="100"/>
+      <c r="AX7" s="100"/>
+      <c r="AY7" s="100"/>
+      <c r="AZ7" s="100"/>
+      <c r="BA7" s="100"/>
+      <c r="BB7" s="100"/>
+      <c r="BC7" s="100"/>
+      <c r="BD7" s="100"/>
+      <c r="BE7" s="100"/>
+      <c r="BF7" s="100"/>
+      <c r="BG7" s="100"/>
+      <c r="BH7" s="100"/>
+      <c r="BI7" s="100"/>
       <c r="BJ7" s="1"/>
       <c r="BK7" s="1"/>
       <c r="BL7" s="1"/>
@@ -13921,73 +13921,73 @@
       <c r="IX7" s="1"/>
     </row>
     <row r="8" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="104" t="s">
+      <c r="A8" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="105"/>
-      <c r="C8" s="106"/>
-      <c r="D8" s="104" t="s">
+      <c r="B8" s="104"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="103" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="105"/>
-      <c r="L8" s="105"/>
-      <c r="M8" s="105"/>
-      <c r="N8" s="105"/>
-      <c r="O8" s="106"/>
-      <c r="P8" s="104" t="s">
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="104"/>
+      <c r="N8" s="104"/>
+      <c r="O8" s="105"/>
+      <c r="P8" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="Q8" s="105"/>
-      <c r="R8" s="105"/>
-      <c r="S8" s="105"/>
-      <c r="T8" s="105"/>
-      <c r="U8" s="105"/>
-      <c r="V8" s="105"/>
-      <c r="W8" s="105"/>
-      <c r="X8" s="105"/>
-      <c r="Y8" s="105"/>
-      <c r="Z8" s="105"/>
-      <c r="AA8" s="105"/>
-      <c r="AB8" s="105"/>
-      <c r="AC8" s="105"/>
-      <c r="AD8" s="106"/>
-      <c r="AE8" s="104"/>
-      <c r="AF8" s="105"/>
-      <c r="AG8" s="105"/>
-      <c r="AH8" s="105"/>
-      <c r="AI8" s="105"/>
-      <c r="AJ8" s="105"/>
-      <c r="AK8" s="105"/>
-      <c r="AL8" s="105"/>
-      <c r="AM8" s="105"/>
-      <c r="AN8" s="105"/>
-      <c r="AO8" s="105"/>
-      <c r="AP8" s="105"/>
-      <c r="AQ8" s="105"/>
-      <c r="AR8" s="105"/>
-      <c r="AS8" s="105"/>
-      <c r="AT8" s="105"/>
-      <c r="AU8" s="105"/>
-      <c r="AV8" s="105"/>
-      <c r="AW8" s="105"/>
-      <c r="AX8" s="105"/>
-      <c r="AY8" s="105"/>
-      <c r="AZ8" s="105"/>
-      <c r="BA8" s="105"/>
-      <c r="BB8" s="105"/>
-      <c r="BC8" s="105"/>
-      <c r="BD8" s="105"/>
-      <c r="BE8" s="105"/>
-      <c r="BF8" s="105"/>
-      <c r="BG8" s="105"/>
-      <c r="BH8" s="105"/>
-      <c r="BI8" s="106"/>
+      <c r="Q8" s="104"/>
+      <c r="R8" s="104"/>
+      <c r="S8" s="104"/>
+      <c r="T8" s="104"/>
+      <c r="U8" s="104"/>
+      <c r="V8" s="104"/>
+      <c r="W8" s="104"/>
+      <c r="X8" s="104"/>
+      <c r="Y8" s="104"/>
+      <c r="Z8" s="104"/>
+      <c r="AA8" s="104"/>
+      <c r="AB8" s="104"/>
+      <c r="AC8" s="104"/>
+      <c r="AD8" s="105"/>
+      <c r="AE8" s="103"/>
+      <c r="AF8" s="104"/>
+      <c r="AG8" s="104"/>
+      <c r="AH8" s="104"/>
+      <c r="AI8" s="104"/>
+      <c r="AJ8" s="104"/>
+      <c r="AK8" s="104"/>
+      <c r="AL8" s="104"/>
+      <c r="AM8" s="104"/>
+      <c r="AN8" s="104"/>
+      <c r="AO8" s="104"/>
+      <c r="AP8" s="104"/>
+      <c r="AQ8" s="104"/>
+      <c r="AR8" s="104"/>
+      <c r="AS8" s="104"/>
+      <c r="AT8" s="104"/>
+      <c r="AU8" s="104"/>
+      <c r="AV8" s="104"/>
+      <c r="AW8" s="104"/>
+      <c r="AX8" s="104"/>
+      <c r="AY8" s="104"/>
+      <c r="AZ8" s="104"/>
+      <c r="BA8" s="104"/>
+      <c r="BB8" s="104"/>
+      <c r="BC8" s="104"/>
+      <c r="BD8" s="104"/>
+      <c r="BE8" s="104"/>
+      <c r="BF8" s="104"/>
+      <c r="BG8" s="104"/>
+      <c r="BH8" s="104"/>
+      <c r="BI8" s="105"/>
       <c r="BJ8" s="1"/>
       <c r="BK8" s="1"/>
       <c r="BL8" s="1"/>
@@ -14187,73 +14187,73 @@
       <c r="IX8" s="1"/>
     </row>
     <row r="9" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="107" t="s">
+      <c r="A9" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="107"/>
-      <c r="C9" s="107"/>
-      <c r="D9" s="108" t="s">
+      <c r="B9" s="101"/>
+      <c r="C9" s="101"/>
+      <c r="D9" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="108"/>
-      <c r="F9" s="108"/>
-      <c r="G9" s="108"/>
-      <c r="H9" s="108"/>
-      <c r="I9" s="108"/>
-      <c r="J9" s="108"/>
-      <c r="K9" s="108"/>
-      <c r="L9" s="108"/>
-      <c r="M9" s="108"/>
-      <c r="N9" s="108"/>
-      <c r="O9" s="108"/>
-      <c r="P9" s="108" t="s">
+      <c r="E9" s="102"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="102"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="102"/>
+      <c r="L9" s="102"/>
+      <c r="M9" s="102"/>
+      <c r="N9" s="102"/>
+      <c r="O9" s="102"/>
+      <c r="P9" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="Q9" s="108"/>
-      <c r="R9" s="108"/>
-      <c r="S9" s="108"/>
-      <c r="T9" s="108"/>
-      <c r="U9" s="108"/>
-      <c r="V9" s="108"/>
-      <c r="W9" s="108"/>
-      <c r="X9" s="108"/>
-      <c r="Y9" s="108"/>
-      <c r="Z9" s="108"/>
-      <c r="AA9" s="108"/>
-      <c r="AB9" s="108"/>
-      <c r="AC9" s="108"/>
-      <c r="AD9" s="108"/>
-      <c r="AE9" s="108"/>
-      <c r="AF9" s="108"/>
-      <c r="AG9" s="108"/>
-      <c r="AH9" s="108"/>
-      <c r="AI9" s="108"/>
-      <c r="AJ9" s="108"/>
-      <c r="AK9" s="108"/>
-      <c r="AL9" s="108"/>
-      <c r="AM9" s="108"/>
-      <c r="AN9" s="108"/>
-      <c r="AO9" s="108"/>
-      <c r="AP9" s="108"/>
-      <c r="AQ9" s="108"/>
-      <c r="AR9" s="108"/>
-      <c r="AS9" s="108"/>
-      <c r="AT9" s="108"/>
-      <c r="AU9" s="108"/>
-      <c r="AV9" s="108"/>
-      <c r="AW9" s="108"/>
-      <c r="AX9" s="108"/>
-      <c r="AY9" s="108"/>
-      <c r="AZ9" s="108"/>
-      <c r="BA9" s="108"/>
-      <c r="BB9" s="108"/>
-      <c r="BC9" s="108"/>
-      <c r="BD9" s="108"/>
-      <c r="BE9" s="108"/>
-      <c r="BF9" s="108"/>
-      <c r="BG9" s="108"/>
-      <c r="BH9" s="108"/>
-      <c r="BI9" s="108"/>
+      <c r="Q9" s="102"/>
+      <c r="R9" s="102"/>
+      <c r="S9" s="102"/>
+      <c r="T9" s="102"/>
+      <c r="U9" s="102"/>
+      <c r="V9" s="102"/>
+      <c r="W9" s="102"/>
+      <c r="X9" s="102"/>
+      <c r="Y9" s="102"/>
+      <c r="Z9" s="102"/>
+      <c r="AA9" s="102"/>
+      <c r="AB9" s="102"/>
+      <c r="AC9" s="102"/>
+      <c r="AD9" s="102"/>
+      <c r="AE9" s="102"/>
+      <c r="AF9" s="102"/>
+      <c r="AG9" s="102"/>
+      <c r="AH9" s="102"/>
+      <c r="AI9" s="102"/>
+      <c r="AJ9" s="102"/>
+      <c r="AK9" s="102"/>
+      <c r="AL9" s="102"/>
+      <c r="AM9" s="102"/>
+      <c r="AN9" s="102"/>
+      <c r="AO9" s="102"/>
+      <c r="AP9" s="102"/>
+      <c r="AQ9" s="102"/>
+      <c r="AR9" s="102"/>
+      <c r="AS9" s="102"/>
+      <c r="AT9" s="102"/>
+      <c r="AU9" s="102"/>
+      <c r="AV9" s="102"/>
+      <c r="AW9" s="102"/>
+      <c r="AX9" s="102"/>
+      <c r="AY9" s="102"/>
+      <c r="AZ9" s="102"/>
+      <c r="BA9" s="102"/>
+      <c r="BB9" s="102"/>
+      <c r="BC9" s="102"/>
+      <c r="BD9" s="102"/>
+      <c r="BE9" s="102"/>
+      <c r="BF9" s="102"/>
+      <c r="BG9" s="102"/>
+      <c r="BH9" s="102"/>
+      <c r="BI9" s="102"/>
       <c r="BJ9" s="1"/>
       <c r="BK9" s="1"/>
       <c r="BL9" s="1"/>
@@ -14453,73 +14453,73 @@
       <c r="IX9" s="1"/>
     </row>
     <row r="10" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="91" t="s">
+      <c r="A10" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="91"/>
-      <c r="C10" s="91"/>
-      <c r="D10" s="91" t="s">
+      <c r="B10" s="85"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="91"/>
-      <c r="F10" s="91"/>
-      <c r="G10" s="91"/>
-      <c r="H10" s="91"/>
-      <c r="I10" s="91"/>
-      <c r="J10" s="91"/>
-      <c r="K10" s="91"/>
-      <c r="L10" s="91"/>
-      <c r="M10" s="91"/>
-      <c r="N10" s="91"/>
-      <c r="O10" s="91"/>
-      <c r="P10" s="108" t="s">
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="85"/>
+      <c r="K10" s="85"/>
+      <c r="L10" s="85"/>
+      <c r="M10" s="85"/>
+      <c r="N10" s="85"/>
+      <c r="O10" s="85"/>
+      <c r="P10" s="102" t="s">
         <v>41</v>
       </c>
-      <c r="Q10" s="108"/>
-      <c r="R10" s="108"/>
-      <c r="S10" s="108"/>
-      <c r="T10" s="108"/>
-      <c r="U10" s="108"/>
-      <c r="V10" s="108"/>
-      <c r="W10" s="108"/>
-      <c r="X10" s="108"/>
-      <c r="Y10" s="108"/>
-      <c r="Z10" s="108"/>
-      <c r="AA10" s="108"/>
-      <c r="AB10" s="108"/>
-      <c r="AC10" s="108"/>
-      <c r="AD10" s="108"/>
-      <c r="AE10" s="108"/>
-      <c r="AF10" s="108"/>
-      <c r="AG10" s="108"/>
-      <c r="AH10" s="108"/>
-      <c r="AI10" s="108"/>
-      <c r="AJ10" s="108"/>
-      <c r="AK10" s="108"/>
-      <c r="AL10" s="108"/>
-      <c r="AM10" s="108"/>
-      <c r="AN10" s="108"/>
-      <c r="AO10" s="108"/>
-      <c r="AP10" s="108"/>
-      <c r="AQ10" s="108"/>
-      <c r="AR10" s="108"/>
-      <c r="AS10" s="108"/>
-      <c r="AT10" s="108"/>
-      <c r="AU10" s="108"/>
-      <c r="AV10" s="108"/>
-      <c r="AW10" s="108"/>
-      <c r="AX10" s="108"/>
-      <c r="AY10" s="108"/>
-      <c r="AZ10" s="108"/>
-      <c r="BA10" s="108"/>
-      <c r="BB10" s="108"/>
-      <c r="BC10" s="108"/>
-      <c r="BD10" s="108"/>
-      <c r="BE10" s="108"/>
-      <c r="BF10" s="108"/>
-      <c r="BG10" s="108"/>
-      <c r="BH10" s="108"/>
-      <c r="BI10" s="108"/>
+      <c r="Q10" s="102"/>
+      <c r="R10" s="102"/>
+      <c r="S10" s="102"/>
+      <c r="T10" s="102"/>
+      <c r="U10" s="102"/>
+      <c r="V10" s="102"/>
+      <c r="W10" s="102"/>
+      <c r="X10" s="102"/>
+      <c r="Y10" s="102"/>
+      <c r="Z10" s="102"/>
+      <c r="AA10" s="102"/>
+      <c r="AB10" s="102"/>
+      <c r="AC10" s="102"/>
+      <c r="AD10" s="102"/>
+      <c r="AE10" s="102"/>
+      <c r="AF10" s="102"/>
+      <c r="AG10" s="102"/>
+      <c r="AH10" s="102"/>
+      <c r="AI10" s="102"/>
+      <c r="AJ10" s="102"/>
+      <c r="AK10" s="102"/>
+      <c r="AL10" s="102"/>
+      <c r="AM10" s="102"/>
+      <c r="AN10" s="102"/>
+      <c r="AO10" s="102"/>
+      <c r="AP10" s="102"/>
+      <c r="AQ10" s="102"/>
+      <c r="AR10" s="102"/>
+      <c r="AS10" s="102"/>
+      <c r="AT10" s="102"/>
+      <c r="AU10" s="102"/>
+      <c r="AV10" s="102"/>
+      <c r="AW10" s="102"/>
+      <c r="AX10" s="102"/>
+      <c r="AY10" s="102"/>
+      <c r="AZ10" s="102"/>
+      <c r="BA10" s="102"/>
+      <c r="BB10" s="102"/>
+      <c r="BC10" s="102"/>
+      <c r="BD10" s="102"/>
+      <c r="BE10" s="102"/>
+      <c r="BF10" s="102"/>
+      <c r="BG10" s="102"/>
+      <c r="BH10" s="102"/>
+      <c r="BI10" s="102"/>
       <c r="BJ10" s="1"/>
       <c r="BK10" s="1"/>
       <c r="BL10" s="1"/>
@@ -14719,73 +14719,73 @@
       <c r="IX10" s="1"/>
     </row>
     <row r="11" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="107" t="s">
+      <c r="A11" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="107"/>
-      <c r="C11" s="107"/>
-      <c r="D11" s="108"/>
-      <c r="E11" s="108"/>
-      <c r="F11" s="108"/>
-      <c r="G11" s="108"/>
-      <c r="H11" s="108"/>
-      <c r="I11" s="108"/>
-      <c r="J11" s="108"/>
-      <c r="K11" s="108"/>
-      <c r="L11" s="108"/>
-      <c r="M11" s="108"/>
-      <c r="N11" s="108"/>
-      <c r="O11" s="108"/>
-      <c r="P11" s="108" t="s">
+      <c r="B11" s="101"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="102"/>
+      <c r="J11" s="102"/>
+      <c r="K11" s="102"/>
+      <c r="L11" s="102"/>
+      <c r="M11" s="102"/>
+      <c r="N11" s="102"/>
+      <c r="O11" s="102"/>
+      <c r="P11" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="Q11" s="108"/>
-      <c r="R11" s="108"/>
-      <c r="S11" s="108"/>
-      <c r="T11" s="108"/>
-      <c r="U11" s="108"/>
-      <c r="V11" s="108"/>
-      <c r="W11" s="108"/>
-      <c r="X11" s="108"/>
-      <c r="Y11" s="108"/>
-      <c r="Z11" s="108"/>
-      <c r="AA11" s="108"/>
-      <c r="AB11" s="108"/>
-      <c r="AC11" s="108"/>
-      <c r="AD11" s="108"/>
-      <c r="AE11" s="108" t="s">
+      <c r="Q11" s="102"/>
+      <c r="R11" s="102"/>
+      <c r="S11" s="102"/>
+      <c r="T11" s="102"/>
+      <c r="U11" s="102"/>
+      <c r="V11" s="102"/>
+      <c r="W11" s="102"/>
+      <c r="X11" s="102"/>
+      <c r="Y11" s="102"/>
+      <c r="Z11" s="102"/>
+      <c r="AA11" s="102"/>
+      <c r="AB11" s="102"/>
+      <c r="AC11" s="102"/>
+      <c r="AD11" s="102"/>
+      <c r="AE11" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="AF11" s="108"/>
-      <c r="AG11" s="108"/>
-      <c r="AH11" s="108"/>
-      <c r="AI11" s="108"/>
-      <c r="AJ11" s="108"/>
-      <c r="AK11" s="108"/>
-      <c r="AL11" s="108"/>
-      <c r="AM11" s="108"/>
-      <c r="AN11" s="108"/>
-      <c r="AO11" s="108"/>
-      <c r="AP11" s="108"/>
-      <c r="AQ11" s="108"/>
-      <c r="AR11" s="108"/>
-      <c r="AS11" s="108"/>
-      <c r="AT11" s="108"/>
-      <c r="AU11" s="108"/>
-      <c r="AV11" s="108"/>
-      <c r="AW11" s="108"/>
-      <c r="AX11" s="108"/>
-      <c r="AY11" s="108"/>
-      <c r="AZ11" s="108"/>
-      <c r="BA11" s="108"/>
-      <c r="BB11" s="108"/>
-      <c r="BC11" s="108"/>
-      <c r="BD11" s="108"/>
-      <c r="BE11" s="108"/>
-      <c r="BF11" s="108"/>
-      <c r="BG11" s="108"/>
-      <c r="BH11" s="108"/>
-      <c r="BI11" s="108"/>
+      <c r="AF11" s="102"/>
+      <c r="AG11" s="102"/>
+      <c r="AH11" s="102"/>
+      <c r="AI11" s="102"/>
+      <c r="AJ11" s="102"/>
+      <c r="AK11" s="102"/>
+      <c r="AL11" s="102"/>
+      <c r="AM11" s="102"/>
+      <c r="AN11" s="102"/>
+      <c r="AO11" s="102"/>
+      <c r="AP11" s="102"/>
+      <c r="AQ11" s="102"/>
+      <c r="AR11" s="102"/>
+      <c r="AS11" s="102"/>
+      <c r="AT11" s="102"/>
+      <c r="AU11" s="102"/>
+      <c r="AV11" s="102"/>
+      <c r="AW11" s="102"/>
+      <c r="AX11" s="102"/>
+      <c r="AY11" s="102"/>
+      <c r="AZ11" s="102"/>
+      <c r="BA11" s="102"/>
+      <c r="BB11" s="102"/>
+      <c r="BC11" s="102"/>
+      <c r="BD11" s="102"/>
+      <c r="BE11" s="102"/>
+      <c r="BF11" s="102"/>
+      <c r="BG11" s="102"/>
+      <c r="BH11" s="102"/>
+      <c r="BI11" s="102"/>
       <c r="BJ11" s="1"/>
       <c r="BK11" s="1"/>
       <c r="BL11" s="1"/>
@@ -15245,73 +15245,73 @@
       <c r="IX12" s="1"/>
     </row>
     <row r="13" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="94" t="s">
+      <c r="A13" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="94"/>
-      <c r="C13" s="94"/>
-      <c r="D13" s="94"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="94"/>
-      <c r="G13" s="94"/>
-      <c r="H13" s="94"/>
-      <c r="I13" s="94"/>
-      <c r="J13" s="94"/>
-      <c r="K13" s="94"/>
-      <c r="L13" s="94"/>
-      <c r="M13" s="94"/>
-      <c r="N13" s="94"/>
-      <c r="O13" s="94"/>
-      <c r="P13" s="94" t="s">
+      <c r="B13" s="100"/>
+      <c r="C13" s="100"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="100"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="100"/>
+      <c r="J13" s="100"/>
+      <c r="K13" s="100"/>
+      <c r="L13" s="100"/>
+      <c r="M13" s="100"/>
+      <c r="N13" s="100"/>
+      <c r="O13" s="100"/>
+      <c r="P13" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="Q13" s="94"/>
-      <c r="R13" s="94"/>
-      <c r="S13" s="94"/>
-      <c r="T13" s="94"/>
-      <c r="U13" s="94"/>
-      <c r="V13" s="94"/>
-      <c r="W13" s="94"/>
-      <c r="X13" s="94"/>
-      <c r="Y13" s="94"/>
-      <c r="Z13" s="94"/>
-      <c r="AA13" s="94"/>
-      <c r="AB13" s="94"/>
-      <c r="AC13" s="94"/>
-      <c r="AD13" s="94"/>
-      <c r="AE13" s="94"/>
-      <c r="AF13" s="94"/>
-      <c r="AG13" s="94"/>
-      <c r="AH13" s="94"/>
-      <c r="AI13" s="94"/>
-      <c r="AJ13" s="94"/>
-      <c r="AK13" s="94"/>
-      <c r="AL13" s="94"/>
-      <c r="AM13" s="94"/>
-      <c r="AN13" s="94"/>
-      <c r="AO13" s="94"/>
-      <c r="AP13" s="94"/>
-      <c r="AQ13" s="94"/>
-      <c r="AR13" s="94"/>
-      <c r="AS13" s="94"/>
-      <c r="AT13" s="94" t="s">
+      <c r="Q13" s="100"/>
+      <c r="R13" s="100"/>
+      <c r="S13" s="100"/>
+      <c r="T13" s="100"/>
+      <c r="U13" s="100"/>
+      <c r="V13" s="100"/>
+      <c r="W13" s="100"/>
+      <c r="X13" s="100"/>
+      <c r="Y13" s="100"/>
+      <c r="Z13" s="100"/>
+      <c r="AA13" s="100"/>
+      <c r="AB13" s="100"/>
+      <c r="AC13" s="100"/>
+      <c r="AD13" s="100"/>
+      <c r="AE13" s="100"/>
+      <c r="AF13" s="100"/>
+      <c r="AG13" s="100"/>
+      <c r="AH13" s="100"/>
+      <c r="AI13" s="100"/>
+      <c r="AJ13" s="100"/>
+      <c r="AK13" s="100"/>
+      <c r="AL13" s="100"/>
+      <c r="AM13" s="100"/>
+      <c r="AN13" s="100"/>
+      <c r="AO13" s="100"/>
+      <c r="AP13" s="100"/>
+      <c r="AQ13" s="100"/>
+      <c r="AR13" s="100"/>
+      <c r="AS13" s="100"/>
+      <c r="AT13" s="100" t="s">
         <v>25</v>
       </c>
-      <c r="AU13" s="94"/>
-      <c r="AV13" s="94"/>
-      <c r="AW13" s="94"/>
-      <c r="AX13" s="94"/>
-      <c r="AY13" s="94"/>
-      <c r="AZ13" s="94"/>
-      <c r="BA13" s="94"/>
-      <c r="BB13" s="94"/>
-      <c r="BC13" s="94"/>
-      <c r="BD13" s="94"/>
-      <c r="BE13" s="94"/>
-      <c r="BF13" s="94"/>
-      <c r="BG13" s="94"/>
-      <c r="BH13" s="94"/>
-      <c r="BI13" s="94"/>
+      <c r="AU13" s="100"/>
+      <c r="AV13" s="100"/>
+      <c r="AW13" s="100"/>
+      <c r="AX13" s="100"/>
+      <c r="AY13" s="100"/>
+      <c r="AZ13" s="100"/>
+      <c r="BA13" s="100"/>
+      <c r="BB13" s="100"/>
+      <c r="BC13" s="100"/>
+      <c r="BD13" s="100"/>
+      <c r="BE13" s="100"/>
+      <c r="BF13" s="100"/>
+      <c r="BG13" s="100"/>
+      <c r="BH13" s="100"/>
+      <c r="BI13" s="100"/>
       <c r="BJ13" s="1"/>
       <c r="BK13" s="1"/>
       <c r="BL13" s="1"/>
@@ -25431,29 +25431,11 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:O9"/>
-    <mergeCell ref="P9:AD9"/>
-    <mergeCell ref="AE9:BI9"/>
-    <mergeCell ref="A13:O13"/>
-    <mergeCell ref="P13:AS13"/>
-    <mergeCell ref="AT13:BI13"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:O10"/>
-    <mergeCell ref="P10:AD10"/>
-    <mergeCell ref="AE10:BI10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:O11"/>
-    <mergeCell ref="P11:AD11"/>
-    <mergeCell ref="AE11:BI11"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:O8"/>
-    <mergeCell ref="P8:AD8"/>
-    <mergeCell ref="AE8:BI8"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:O7"/>
-    <mergeCell ref="P7:AD7"/>
-    <mergeCell ref="AE7:BI7"/>
+    <mergeCell ref="R2:AA2"/>
+    <mergeCell ref="AB2:AD2"/>
+    <mergeCell ref="AE2:AP2"/>
+    <mergeCell ref="AQ2:AS2"/>
+    <mergeCell ref="AT2:AZ2"/>
     <mergeCell ref="BA2:BC2"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="G4:BI4"/>
@@ -25470,11 +25452,29 @@
     <mergeCell ref="AT1:AZ1"/>
     <mergeCell ref="BA1:BC1"/>
     <mergeCell ref="BD1:BI1"/>
-    <mergeCell ref="R2:AA2"/>
-    <mergeCell ref="AB2:AD2"/>
-    <mergeCell ref="AE2:AP2"/>
-    <mergeCell ref="AQ2:AS2"/>
-    <mergeCell ref="AT2:AZ2"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:O8"/>
+    <mergeCell ref="P8:AD8"/>
+    <mergeCell ref="AE8:BI8"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:O7"/>
+    <mergeCell ref="P7:AD7"/>
+    <mergeCell ref="AE7:BI7"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:O9"/>
+    <mergeCell ref="P9:AD9"/>
+    <mergeCell ref="AE9:BI9"/>
+    <mergeCell ref="A13:O13"/>
+    <mergeCell ref="P13:AS13"/>
+    <mergeCell ref="AT13:BI13"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:O10"/>
+    <mergeCell ref="P10:AD10"/>
+    <mergeCell ref="AE10:BI10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:O11"/>
+    <mergeCell ref="P11:AD11"/>
+    <mergeCell ref="AE11:BI11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
@@ -25593,21 +25593,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100F5656D937027614D93C88AB71AE3D10C" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b60c200d0ae5f270a77b0ce61d313f15">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="75fae816-41bf-471e-909f-5205fc9f8b57" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="893732230ae29545b6addaf499a489b1" ns2:_="">
     <xsd:import namespace="75fae816-41bf-471e-909f-5205fc9f8b57"/>
@@ -25739,24 +25724,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15C41A43-257B-41D4-8214-E3B2119882CE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94DACC66-2E68-4C7A-B35E-6653173BD294}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7560E91F-1ABF-4BEF-A078-A8FA5AD9AA18}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -25772,4 +25755,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94DACC66-2E68-4C7A-B35E-6653173BD294}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15C41A43-257B-41D4-8214-E3B2119882CE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>